--- a/time30.xlsx
+++ b/time30.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D605"/>
+  <dimension ref="A1:D378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,13 +455,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.704069064881644</v>
+        <v>0.3788469731733545</v>
       </c>
       <c r="C2" t="n">
-        <v>1.849339755540968</v>
+        <v>0.5053572795175948</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1452706906593244</v>
+        <v>-0.1265103063442403</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.749135150652436</v>
+        <v>0.3974084628227509</v>
       </c>
       <c r="C3" t="n">
-        <v>1.759051626436215</v>
+        <v>0.4348640010682226</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.009916475783779521</v>
+        <v>-0.03745553824547176</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.777496338965623</v>
+        <v>0.4112423054709249</v>
       </c>
       <c r="C4" t="n">
-        <v>1.79471707428755</v>
+        <v>0.4822662390720243</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.01722073532192714</v>
+        <v>-0.07102393360109938</v>
       </c>
     </row>
     <row r="5">
@@ -497,13 +497,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.786302396653866</v>
+        <v>0.4169519565033437</v>
       </c>
       <c r="C5" t="n">
-        <v>1.900604416270131</v>
+        <v>0.4869141455702374</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1143020196162643</v>
+        <v>-0.06996218906689367</v>
       </c>
     </row>
     <row r="6">
@@ -511,13 +511,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.790186358388232</v>
+        <v>0.4182702072512786</v>
       </c>
       <c r="C6" t="n">
-        <v>1.841718151138193</v>
+        <v>0.5730956106842564</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.05153179274996078</v>
+        <v>-0.1548254034329778</v>
       </c>
     </row>
     <row r="7">
@@ -525,13 +525,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.797824244696878</v>
+        <v>0.441801465602967</v>
       </c>
       <c r="C7" t="n">
-        <v>1.841536803682897</v>
+        <v>0.4592655590853929</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.04371255898601878</v>
+        <v>-0.01746409348242595</v>
       </c>
     </row>
     <row r="8">
@@ -539,13 +539,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.802250726724642</v>
+        <v>0.4714824718186369</v>
       </c>
       <c r="C8" t="n">
-        <v>1.865756905733084</v>
+        <v>0.5347686619932167</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.06350617900844169</v>
+        <v>-0.06328619017457981</v>
       </c>
     </row>
     <row r="9">
@@ -553,13 +553,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.881656807172991</v>
+        <v>0.4733849228047293</v>
       </c>
       <c r="C9" t="n">
-        <v>1.901914661685776</v>
+        <v>0.5648368562448132</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.02025785451278517</v>
+        <v>-0.0914519334400839</v>
       </c>
     </row>
     <row r="10">
@@ -567,13 +567,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.885410140961428</v>
+        <v>0.4763980323644043</v>
       </c>
       <c r="C10" t="n">
-        <v>1.889230535457731</v>
+        <v>0.5751695276270568</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.003820394496303336</v>
+        <v>-0.09877149526265244</v>
       </c>
     </row>
     <row r="11">
@@ -581,13 +581,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.891039348951733</v>
+        <v>0.4867328778961787</v>
       </c>
       <c r="C11" t="n">
-        <v>1.894982433478614</v>
+        <v>0.5326384422487072</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.003943084526880414</v>
+        <v>-0.04590556435252846</v>
       </c>
     </row>
     <row r="12">
@@ -595,13 +595,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.892488143555785</v>
+        <v>0.5077318242680604</v>
       </c>
       <c r="C12" t="n">
-        <v>1.900678473310758</v>
+        <v>0.5770929687823338</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.008190329754973025</v>
+        <v>-0.06936114451427344</v>
       </c>
     </row>
     <row r="13">
@@ -609,13 +609,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2.481563595286861</v>
+        <v>0.5256206525657451</v>
       </c>
       <c r="C13" t="n">
-        <v>2.608386227072959</v>
+        <v>0.585101684968345</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1268226317860979</v>
+        <v>-0.05948103240259994</v>
       </c>
     </row>
     <row r="14">
@@ -623,13 +623,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2.483146167905906</v>
+        <v>2.312571789246672</v>
       </c>
       <c r="C14" t="n">
-        <v>2.494032530556831</v>
+        <v>2.527680344553489</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.01088636265092502</v>
+        <v>-0.2151085553068173</v>
       </c>
     </row>
     <row r="15">
@@ -637,13 +637,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2.486834039125248</v>
+        <v>2.328981720659622</v>
       </c>
       <c r="C15" t="n">
-        <v>2.500831652233608</v>
+        <v>2.51673768698047</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.0139976131083599</v>
+        <v>-0.1877559663208488</v>
       </c>
     </row>
     <row r="16">
@@ -651,13 +651,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2.500579649904391</v>
+        <v>2.341388913468077</v>
       </c>
       <c r="C16" t="n">
-        <v>2.583039921565517</v>
+        <v>2.433500752484688</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.08246027166112579</v>
+        <v>-0.09211183901661135</v>
       </c>
     </row>
     <row r="17">
@@ -665,13 +665,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2.521307336435541</v>
+        <v>2.358141528579331</v>
       </c>
       <c r="C17" t="n">
-        <v>2.608322118873978</v>
+        <v>2.470979817753609</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.08701478243843708</v>
+        <v>-0.1128382891742779</v>
       </c>
     </row>
     <row r="18">
@@ -679,13 +679,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2.522559595442367</v>
+        <v>2.406860257194902</v>
       </c>
       <c r="C18" t="n">
-        <v>2.560226548803289</v>
+        <v>2.526316519114102</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.03766695336092241</v>
+        <v>-0.1194562619192001</v>
       </c>
     </row>
     <row r="19">
@@ -693,13 +693,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2.523248229475406</v>
+        <v>2.418248018698728</v>
       </c>
       <c r="C19" t="n">
-        <v>2.604753901130505</v>
+        <v>2.486411468197379</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.08150567165509948</v>
+        <v>-0.06816344949865094</v>
       </c>
     </row>
     <row r="20">
@@ -707,13 +707,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2.53532026634911</v>
+        <v>2.41858412643901</v>
       </c>
       <c r="C20" t="n">
-        <v>2.68004507647891</v>
+        <v>2.491709814169822</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.1447248101298002</v>
+        <v>-0.07312568773081152</v>
       </c>
     </row>
     <row r="21">
@@ -721,13 +721,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2.572165298107458</v>
+        <v>2.430999825023664</v>
       </c>
       <c r="C21" t="n">
-        <v>2.642038455609015</v>
+        <v>2.442063680129318</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.06987315750155743</v>
+        <v>-0.01106385510565477</v>
       </c>
     </row>
     <row r="22">
@@ -735,13 +735,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2.575452988183065</v>
+        <v>2.464701641150826</v>
       </c>
       <c r="C22" t="n">
-        <v>2.591850625595503</v>
+        <v>2.48925402144661</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.01639763741243883</v>
+        <v>-0.02455238029578322</v>
       </c>
     </row>
     <row r="23">
@@ -749,13 +749,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2.590973100359641</v>
+        <v>2.472876404410271</v>
       </c>
       <c r="C23" t="n">
-        <v>2.639866315822234</v>
+        <v>2.50656684541151</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.04889321546259318</v>
+        <v>-0.03369044100123864</v>
       </c>
     </row>
     <row r="24">
@@ -763,13 +763,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>2.609209447328653</v>
+        <v>2.576779082355383</v>
       </c>
       <c r="C24" t="n">
-        <v>2.67274373058651</v>
+        <v>2.527815517267033</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.06353428325785782</v>
+        <v>0.04896356508834998</v>
       </c>
     </row>
     <row r="25">
@@ -777,13 +777,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.122765039463745</v>
+        <v>3.746560921531258</v>
       </c>
       <c r="C25" t="n">
-        <v>3.189463664050099</v>
+        <v>3.844266207001736</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.06669862458635389</v>
+        <v>-0.09770528547047785</v>
       </c>
     </row>
     <row r="26">
@@ -791,13 +791,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.130295669219747</v>
+        <v>3.75530653233371</v>
       </c>
       <c r="C26" t="n">
-        <v>3.147379096981206</v>
+        <v>3.768659300189181</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.0170834277614591</v>
+        <v>-0.01335276785547057</v>
       </c>
     </row>
     <row r="27">
@@ -805,13 +805,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.150726450752205</v>
+        <v>3.764806159476382</v>
       </c>
       <c r="C27" t="n">
-        <v>3.191808460471394</v>
+        <v>3.792231439957448</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.04108200971918929</v>
+        <v>-0.02742528048106685</v>
       </c>
     </row>
     <row r="28">
@@ -819,13 +819,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.161328491577666</v>
+        <v>3.874134428539657</v>
       </c>
       <c r="C28" t="n">
-        <v>3.233343248998599</v>
+        <v>3.920004287466797</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.07201475742093333</v>
+        <v>-0.04586985892713935</v>
       </c>
     </row>
     <row r="29">
@@ -833,13 +833,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.171261146624879</v>
+        <v>3.928528889325659</v>
       </c>
       <c r="C29" t="n">
-        <v>3.179264256518549</v>
+        <v>3.952627479882647</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.008003109893670146</v>
+        <v>-0.02409859055698726</v>
       </c>
     </row>
     <row r="30">
@@ -847,13 +847,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.17416802821979</v>
+        <v>3.945806549408744</v>
       </c>
       <c r="C30" t="n">
-        <v>3.2837583594128</v>
+        <v>3.956309797667634</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.1095903311930093</v>
+        <v>-0.01050324825889071</v>
       </c>
     </row>
     <row r="31">
@@ -861,13 +861,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.196043761932586</v>
+        <v>11.5626899732255</v>
       </c>
       <c r="C31" t="n">
-        <v>3.248164686002253</v>
+        <v>11.58340227717117</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.0521209240696674</v>
+        <v>-0.02071230394567536</v>
       </c>
     </row>
     <row r="32">
@@ -875,13 +875,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.211915399854561</v>
+        <v>11.5651193848039</v>
       </c>
       <c r="C32" t="n">
-        <v>3.256966468878179</v>
+        <v>11.75131486284273</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.04505106902361788</v>
+        <v>-0.1861954780388295</v>
       </c>
     </row>
     <row r="33">
@@ -889,13 +889,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.241519938894081</v>
+        <v>11.59407588302485</v>
       </c>
       <c r="C33" t="n">
-        <v>3.283798748504742</v>
+        <v>11.66527189478909</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.04227880961066166</v>
+        <v>-0.07119601176424339</v>
       </c>
     </row>
     <row r="34">
@@ -903,13 +903,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.257732157252012</v>
+        <v>11.61170907399831</v>
       </c>
       <c r="C34" t="n">
-        <v>3.30201713041647</v>
+        <v>11.61976395770892</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.04428497316445812</v>
+        <v>-0.008054883710608252</v>
       </c>
     </row>
     <row r="35">
@@ -917,13 +917,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.264387884097949</v>
+        <v>11.62260161000575</v>
       </c>
       <c r="C35" t="n">
-        <v>3.297285858627013</v>
+        <v>11.68076986851177</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.0328979745290634</v>
+        <v>-0.05816825850601681</v>
       </c>
     </row>
     <row r="36">
@@ -931,13 +931,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.101263128390142</v>
+        <v>11.6242080740494</v>
       </c>
       <c r="C36" t="n">
-        <v>4.298836044705903</v>
+        <v>11.72464197654852</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.1975729163157611</v>
+        <v>-0.1004339024991125</v>
       </c>
     </row>
     <row r="37">
@@ -945,13 +945,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.15350186459799</v>
+        <v>11.62910751008913</v>
       </c>
       <c r="C37" t="n">
-        <v>4.218100531856356</v>
+        <v>11.76313193731682</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.06459866725836605</v>
+        <v>-0.1340244272276951</v>
       </c>
     </row>
     <row r="38">
@@ -959,13 +959,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.214105078556348</v>
+        <v>11.64299538633061</v>
       </c>
       <c r="C38" t="n">
-        <v>4.272308621301748</v>
+        <v>11.7579304662794</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.05820354274540041</v>
+        <v>-0.1149350799487898</v>
       </c>
     </row>
     <row r="39">
@@ -973,13 +973,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.218752720307029</v>
+        <v>11.64347997895469</v>
       </c>
       <c r="C39" t="n">
-        <v>4.282991105848848</v>
+        <v>11.76800207675748</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.06423838554181938</v>
+        <v>-0.1245220978027906</v>
       </c>
     </row>
     <row r="40">
@@ -987,13 +987,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.244208618617944</v>
+        <v>11.71287824341099</v>
       </c>
       <c r="C40" t="n">
-        <v>4.272052665282477</v>
+        <v>11.71514863773079</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.02784404666453266</v>
+        <v>-0.002270394319801028</v>
       </c>
     </row>
     <row r="41">
@@ -1001,13 +1001,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>7.061596987363408</v>
+        <v>12.86950713831006</v>
       </c>
       <c r="C41" t="n">
-        <v>7.253543901800704</v>
+        <v>12.88508499613696</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.1919469144372963</v>
+        <v>-0.01557785782690146</v>
       </c>
     </row>
     <row r="42">
@@ -1015,13 +1015,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>7.062065869713407</v>
+        <v>12.88073138214877</v>
       </c>
       <c r="C42" t="n">
-        <v>7.10366755847133</v>
+        <v>12.92891873703753</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.04160168875792358</v>
+        <v>-0.04818735488876058</v>
       </c>
     </row>
     <row r="43">
@@ -1029,13 +1029,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>7.070573737366155</v>
+        <v>12.89630585880358</v>
       </c>
       <c r="C43" t="n">
-        <v>7.043423127161573</v>
+        <v>12.93816659611004</v>
       </c>
       <c r="D43" t="n">
-        <v>0.02715061020458265</v>
+        <v>-0.04186073730645745</v>
       </c>
     </row>
     <row r="44">
@@ -1043,13 +1043,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>7.070785928667902</v>
+        <v>12.91962754063991</v>
       </c>
       <c r="C44" t="n">
-        <v>7.202373402549599</v>
+        <v>13.01710857673683</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.1315874738816971</v>
+        <v>-0.09748103609692471</v>
       </c>
     </row>
     <row r="45">
@@ -1057,13 +1057,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>7.081001532432401</v>
+        <v>12.95121688437301</v>
       </c>
       <c r="C45" t="n">
-        <v>7.140944051475148</v>
+        <v>12.99355600388819</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.05994251904274694</v>
+        <v>-0.04233911951517833</v>
       </c>
     </row>
     <row r="46">
@@ -1071,13 +1071,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>7.085060237640858</v>
+        <v>12.96769246106707</v>
       </c>
       <c r="C46" t="n">
-        <v>7.118993634868257</v>
+        <v>12.9789573359215</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.03393339722739874</v>
+        <v>-0.01126487485442595</v>
       </c>
     </row>
     <row r="47">
@@ -1085,13 +1085,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>7.109324038140844</v>
+        <v>12.97128616030325</v>
       </c>
       <c r="C47" t="n">
-        <v>7.201794553459937</v>
+        <v>12.97640416897581</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.09247051531909278</v>
+        <v>-0.005118008672559071</v>
       </c>
     </row>
     <row r="48">
@@ -1099,13 +1099,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>7.172207908295964</v>
+        <v>12.97225453503977</v>
       </c>
       <c r="C48" t="n">
-        <v>7.226541936484671</v>
+        <v>13.02602820730576</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.05433402818870725</v>
+        <v>-0.05377367226599183</v>
       </c>
     </row>
     <row r="49">
@@ -1113,13 +1113,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>7.182143778256733</v>
+        <v>13.00052058022762</v>
       </c>
       <c r="C49" t="n">
-        <v>7.224439841078479</v>
+        <v>12.98217751434977</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.04229606282174636</v>
+        <v>0.01834306587784695</v>
       </c>
     </row>
     <row r="50">
@@ -1127,13 +1127,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>7.198994623269315</v>
+        <v>17.3448603467434</v>
       </c>
       <c r="C50" t="n">
-        <v>7.214509687973629</v>
+        <v>17.4928458688888</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.01551506470431363</v>
+        <v>-0.1479855221454045</v>
       </c>
     </row>
     <row r="51">
@@ -1141,13 +1141,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>7.212181149573845</v>
+        <v>17.3599777465595</v>
       </c>
       <c r="C51" t="n">
-        <v>7.231304457949112</v>
+        <v>17.44560998987925</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.0191233083752671</v>
+        <v>-0.0856322433197505</v>
       </c>
     </row>
     <row r="52">
@@ -1155,13 +1155,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>7.243060631142344</v>
+        <v>17.40504619549164</v>
       </c>
       <c r="C52" t="n">
-        <v>7.071124746403334</v>
+        <v>17.48542035641336</v>
       </c>
       <c r="D52" t="n">
-        <v>0.1719358847390096</v>
+        <v>-0.08037416092172123</v>
       </c>
     </row>
     <row r="53">
@@ -1169,13 +1169,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>7.601586152572544</v>
+        <v>17.41974973748397</v>
       </c>
       <c r="C53" t="n">
-        <v>7.23989502353241</v>
+        <v>17.42584853726907</v>
       </c>
       <c r="D53" t="n">
-        <v>0.3616911290401346</v>
+        <v>-0.006098799785100084</v>
       </c>
     </row>
     <row r="54">
@@ -1183,13 +1183,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>8.328422094312826</v>
+        <v>17.48648183246851</v>
       </c>
       <c r="C54" t="n">
-        <v>8.475262858013359</v>
+        <v>17.51185283778268</v>
       </c>
       <c r="D54" t="n">
-        <v>-0.1468407637005331</v>
+        <v>-0.02537100531416669</v>
       </c>
     </row>
     <row r="55">
@@ -1197,13 +1197,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>8.330833081129644</v>
+        <v>17.48917716053384</v>
       </c>
       <c r="C55" t="n">
-        <v>8.514010397914182</v>
+        <v>17.5466558462638</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.1831773167845387</v>
+        <v>-0.05747868572995785</v>
       </c>
     </row>
     <row r="56">
@@ -1211,13 +1211,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>8.451106175612356</v>
+        <v>17.49068515293094</v>
       </c>
       <c r="C56" t="n">
-        <v>8.475818593720302</v>
+        <v>17.49912282315942</v>
       </c>
       <c r="D56" t="n">
-        <v>-0.02471241810794567</v>
+        <v>-0.008437670228477856</v>
       </c>
     </row>
     <row r="57">
@@ -1225,13 +1225,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>8.451425948073794</v>
+        <v>23.16837075043347</v>
       </c>
       <c r="C57" t="n">
-        <v>8.456134555509159</v>
+        <v>23.21490470410531</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.004708607435365053</v>
+        <v>-0.04653395367184388</v>
       </c>
     </row>
     <row r="58">
@@ -1239,13 +1239,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>8.507365532000547</v>
+        <v>23.20229021848824</v>
       </c>
       <c r="C58" t="n">
-        <v>8.515373870799831</v>
+        <v>23.35958660315416</v>
       </c>
       <c r="D58" t="n">
-        <v>-0.008008338799283976</v>
+        <v>-0.1572963846659228</v>
       </c>
     </row>
     <row r="59">
@@ -1253,13 +1253,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>11.21728997907911</v>
+        <v>23.2070251892067</v>
       </c>
       <c r="C59" t="n">
-        <v>11.35189940020032</v>
+        <v>23.18926439919062</v>
       </c>
       <c r="D59" t="n">
-        <v>-0.1346094211212083</v>
+        <v>0.01776079001608366</v>
       </c>
     </row>
     <row r="60">
@@ -1267,13 +1267,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>11.21928495477729</v>
+        <v>23.20845615422653</v>
       </c>
       <c r="C60" t="n">
-        <v>11.39646053544119</v>
+        <v>23.30743568826128</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.1771755806639046</v>
+        <v>-0.09897953403475412</v>
       </c>
     </row>
     <row r="61">
@@ -1281,13 +1281,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>11.2259908246981</v>
+        <v>23.23259016875755</v>
       </c>
       <c r="C61" t="n">
-        <v>11.23308012759871</v>
+        <v>23.34585451740894</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.007089302900608274</v>
+        <v>-0.1132643486513878</v>
       </c>
     </row>
     <row r="62">
@@ -1295,13 +1295,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>11.22728479678393</v>
+        <v>23.28232329633661</v>
       </c>
       <c r="C62" t="n">
-        <v>11.25084617065881</v>
+        <v>23.34597785520472</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.02356137387488211</v>
+        <v>-0.06365455886811233</v>
       </c>
     </row>
     <row r="63">
@@ -1309,13 +1309,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>11.23716513615636</v>
+        <v>23.31525755759746</v>
       </c>
       <c r="C63" t="n">
-        <v>11.38472266004536</v>
+        <v>23.31704519835053</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.1475575238890023</v>
+        <v>-0.001787640753079245</v>
       </c>
     </row>
     <row r="64">
@@ -1323,13 +1323,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>11.2382864344664</v>
+        <v>23.32951042115508</v>
       </c>
       <c r="C64" t="n">
-        <v>11.27515236993895</v>
+        <v>23.359985013623</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.03686593547254269</v>
+        <v>-0.03047459246791817</v>
       </c>
     </row>
     <row r="65">
@@ -1337,13 +1337,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>11.24857290564167</v>
+        <v>23.33131498076093</v>
       </c>
       <c r="C65" t="n">
-        <v>11.38459543588043</v>
+        <v>23.35180371581899</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.1360225302387601</v>
+        <v>-0.02048873505805915</v>
       </c>
     </row>
     <row r="66">
@@ -1351,13 +1351,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>11.25991845562747</v>
+        <v>23.34307752883401</v>
       </c>
       <c r="C66" t="n">
-        <v>11.34354869230766</v>
+        <v>23.34988518070906</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.08363023668019132</v>
+        <v>-0.006807651875053722</v>
       </c>
     </row>
     <row r="67">
@@ -1365,13 +1365,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>11.27949297555782</v>
+        <v>23.36297444139315</v>
       </c>
       <c r="C67" t="n">
-        <v>11.42921824856145</v>
+        <v>23.36407134544172</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.1497252730036305</v>
+        <v>-0.001096904048573322</v>
       </c>
     </row>
     <row r="68">
@@ -1379,13 +1379,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>11.32072508276734</v>
+        <v>23.36927969274612</v>
       </c>
       <c r="C68" t="n">
-        <v>11.34723919645034</v>
+        <v>23.36960187806544</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.0265141136829925</v>
+        <v>-0.0003221853193231539</v>
       </c>
     </row>
     <row r="69">
@@ -1393,13 +1393,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>11.36247638228042</v>
+        <v>26.30057301310224</v>
       </c>
       <c r="C69" t="n">
-        <v>11.40446440838178</v>
+        <v>26.34231301931866</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.04198802610136099</v>
+        <v>-0.04174000621641483</v>
       </c>
     </row>
     <row r="70">
@@ -1407,13 +1407,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>11.60046869422158</v>
+        <v>26.30687387631531</v>
       </c>
       <c r="C70" t="n">
-        <v>11.42350761838945</v>
+        <v>26.39332775376597</v>
       </c>
       <c r="D70" t="n">
-        <v>0.1769610758321321</v>
+        <v>-0.08645387745065491</v>
       </c>
     </row>
     <row r="71">
@@ -1421,13 +1421,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>11.6502331615979</v>
+        <v>26.32970693327994</v>
       </c>
       <c r="C71" t="n">
-        <v>11.3840510452852</v>
+        <v>26.36969085779496</v>
       </c>
       <c r="D71" t="n">
-        <v>0.2661821163127058</v>
+        <v>-0.03998392451501687</v>
       </c>
     </row>
     <row r="72">
@@ -1435,13 +1435,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>11.7753468909382</v>
+        <v>26.336277849305</v>
       </c>
       <c r="C72" t="n">
-        <v>11.34286220620681</v>
+        <v>26.37096389659405</v>
       </c>
       <c r="D72" t="n">
-        <v>0.4324846847313921</v>
+        <v>-0.03468604728904978</v>
       </c>
     </row>
     <row r="73">
@@ -1449,13 +1449,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>12.66327511390416</v>
+        <v>26.35890585650083</v>
       </c>
       <c r="C73" t="n">
-        <v>12.80458567676222</v>
+        <v>26.367411607472</v>
       </c>
       <c r="D73" t="n">
-        <v>-0.1413105628580595</v>
+        <v>-0.008505750971174564</v>
       </c>
     </row>
     <row r="74">
@@ -1463,13 +1463,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>12.66502755495588</v>
+        <v>26.3626347250574</v>
       </c>
       <c r="C74" t="n">
-        <v>12.68444451877305</v>
+        <v>26.47832209792587</v>
       </c>
       <c r="D74" t="n">
-        <v>-0.01941696381717684</v>
+        <v>-0.115687372868468</v>
       </c>
     </row>
     <row r="75">
@@ -1477,13 +1477,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>12.66825432577086</v>
+        <v>26.38292569350045</v>
       </c>
       <c r="C75" t="n">
-        <v>12.6968978452373</v>
+        <v>26.47577024000321</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.02864351946643495</v>
+        <v>-0.0928445465027643</v>
       </c>
     </row>
     <row r="76">
@@ -1491,13 +1491,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>12.67503289807263</v>
+        <v>26.40537254820995</v>
       </c>
       <c r="C76" t="n">
-        <v>12.7189488596424</v>
+        <v>26.44567159152235</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.04391596156977151</v>
+        <v>-0.0402990433123982</v>
       </c>
     </row>
     <row r="77">
@@ -1505,13 +1505,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>12.68217926580387</v>
+        <v>26.45386260849127</v>
       </c>
       <c r="C77" t="n">
-        <v>12.79304801724506</v>
+        <v>26.48534077292883</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.1108687514411901</v>
+        <v>-0.03147816443755502</v>
       </c>
     </row>
     <row r="78">
@@ -1519,13 +1519,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>12.74277704706683</v>
+        <v>27.53275596972851</v>
       </c>
       <c r="C78" t="n">
-        <v>12.84760315088649</v>
+        <v>27.68251706092372</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.1048261038196596</v>
+        <v>-0.149761091195213</v>
       </c>
     </row>
     <row r="79">
@@ -1533,13 +1533,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>12.75135790307647</v>
+        <v>27.54356201612056</v>
       </c>
       <c r="C79" t="n">
-        <v>12.85075059576055</v>
+        <v>27.58226250206533</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.09939269268408246</v>
+        <v>-0.03870048594476927</v>
       </c>
     </row>
     <row r="80">
@@ -1547,13 +1547,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>12.76224301401779</v>
+        <v>27.5481745016378</v>
       </c>
       <c r="C80" t="n">
-        <v>12.84073477434559</v>
+        <v>27.6709568696694</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.07849176032780036</v>
+        <v>-0.1227823680315971</v>
       </c>
     </row>
     <row r="81">
@@ -1561,13 +1561,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>12.7649514531144</v>
+        <v>27.56753992672493</v>
       </c>
       <c r="C81" t="n">
-        <v>12.78768127749998</v>
+        <v>27.66602848465796</v>
       </c>
       <c r="D81" t="n">
-        <v>-0.02272982438558735</v>
+        <v>-0.09848855793303102</v>
       </c>
     </row>
     <row r="82">
@@ -1575,13 +1575,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>12.78317849658897</v>
+        <v>27.56837380626257</v>
       </c>
       <c r="C82" t="n">
-        <v>12.81580355462288</v>
+        <v>27.69908876125161</v>
       </c>
       <c r="D82" t="n">
-        <v>-0.03262505803391313</v>
+        <v>-0.1307149549890418</v>
       </c>
     </row>
     <row r="83">
@@ -1589,13 +1589,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>12.8082878448096</v>
+        <v>27.64758478398103</v>
       </c>
       <c r="C83" t="n">
-        <v>12.81350308026838</v>
+        <v>27.69335054314847</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.005215235458779333</v>
+        <v>-0.04576575916744119</v>
       </c>
     </row>
     <row r="84">
@@ -1603,13 +1603,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>12.8408733598377</v>
+        <v>27.65609405559363</v>
       </c>
       <c r="C84" t="n">
-        <v>12.84569121816331</v>
+        <v>27.73023312357913</v>
       </c>
       <c r="D84" t="n">
-        <v>-0.004817858325605329</v>
+        <v>-0.07413906798549164</v>
       </c>
     </row>
     <row r="85">
@@ -1617,13 +1617,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>13.07915672030994</v>
+        <v>27.67431183281034</v>
       </c>
       <c r="C85" t="n">
-        <v>13.15141957637896</v>
+        <v>27.71429930834451</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.07226285606901506</v>
+        <v>-0.03998747553417203</v>
       </c>
     </row>
     <row r="86">
@@ -1631,13 +1631,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>13.09464980861443</v>
+        <v>27.69974751052862</v>
       </c>
       <c r="C86" t="n">
-        <v>13.17038473049731</v>
+        <v>27.70165916031668</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.07573492188288711</v>
+        <v>-0.001911649788066683</v>
       </c>
     </row>
     <row r="87">
@@ -1645,13 +1645,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>13.09788624645576</v>
+        <v>37.2306941962097</v>
       </c>
       <c r="C87" t="n">
-        <v>13.14261931416004</v>
+        <v>37.28781451241895</v>
       </c>
       <c r="D87" t="n">
-        <v>-0.04473306770427676</v>
+        <v>-0.05712031620925018</v>
       </c>
     </row>
     <row r="88">
@@ -1659,13 +1659,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>13.10899647706538</v>
+        <v>37.23934900124545</v>
       </c>
       <c r="C88" t="n">
-        <v>13.1393545796965</v>
+        <v>37.40400998432715</v>
       </c>
       <c r="D88" t="n">
-        <v>-0.03035810263112104</v>
+        <v>-0.1646609830816956</v>
       </c>
     </row>
     <row r="89">
@@ -1673,13 +1673,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>13.18722544887087</v>
+        <v>37.27215380193955</v>
       </c>
       <c r="C89" t="n">
-        <v>13.24409903096099</v>
+        <v>37.28856873260743</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.05687358209012672</v>
+        <v>-0.01641493066787802</v>
       </c>
     </row>
     <row r="90">
@@ -1687,13 +1687,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>13.2267604761526</v>
+        <v>37.28347924732774</v>
       </c>
       <c r="C90" t="n">
-        <v>13.2497145993404</v>
+        <v>37.40630325806981</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.02295412318780343</v>
+        <v>-0.1228240107420717</v>
       </c>
     </row>
     <row r="91">
@@ -1701,13 +1701,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>13.29382808954452</v>
+        <v>37.28881945069273</v>
       </c>
       <c r="C91" t="n">
-        <v>13.29847965328625</v>
+        <v>37.40064762270044</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.00465156374172615</v>
+        <v>-0.1118281720077121</v>
       </c>
     </row>
     <row r="92">
@@ -1715,13 +1715,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>13.3631904812343</v>
+        <v>37.29313940488193</v>
       </c>
       <c r="C92" t="n">
-        <v>12.8157616070891</v>
+        <v>37.40427764797309</v>
       </c>
       <c r="D92" t="n">
-        <v>0.5474288741451954</v>
+        <v>-0.1111382430911618</v>
       </c>
     </row>
     <row r="93">
@@ -1729,13 +1729,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>16.75213411559747</v>
+        <v>37.32815890466716</v>
       </c>
       <c r="C93" t="n">
-        <v>16.75241281546468</v>
+        <v>37.33803448430438</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.0002786998672092977</v>
+        <v>-0.009875579637224519</v>
       </c>
     </row>
     <row r="94">
@@ -1743,13 +1743,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>16.77346994983524</v>
+        <v>37.33553528563159</v>
       </c>
       <c r="C94" t="n">
-        <v>16.80897452004112</v>
+        <v>37.41340869736881</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.03550457020588027</v>
+        <v>-0.0778734117372224</v>
       </c>
     </row>
     <row r="95">
@@ -1757,13 +1757,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>16.82239878551094</v>
+        <v>37.34865886124729</v>
       </c>
       <c r="C95" t="n">
-        <v>16.91973828065374</v>
+        <v>37.43381940689401</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.09733949514279416</v>
+        <v>-0.0851605456467226</v>
       </c>
     </row>
     <row r="96">
@@ -1771,13 +1771,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>16.82352151808712</v>
+        <v>37.38785973135506</v>
       </c>
       <c r="C96" t="n">
-        <v>16.9745629319883</v>
+        <v>37.41159014246517</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.1510414139011829</v>
+        <v>-0.02373041111011531</v>
       </c>
     </row>
     <row r="97">
@@ -1785,13 +1785,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>16.83513441909041</v>
+        <v>37.40367343336951</v>
       </c>
       <c r="C97" t="n">
-        <v>16.91438186963272</v>
+        <v>37.42732766030084</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.07924745054231508</v>
+        <v>-0.02365422693133468</v>
       </c>
     </row>
     <row r="98">
@@ -1799,13 +1799,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>16.85422805872563</v>
+        <v>39.69976169878597</v>
       </c>
       <c r="C98" t="n">
-        <v>16.8933278535954</v>
+        <v>39.86037791391001</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.03909979486977377</v>
+        <v>-0.160616215124044</v>
       </c>
     </row>
     <row r="99">
@@ -1813,13 +1813,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>16.86260476066987</v>
+        <v>39.70842604550209</v>
       </c>
       <c r="C99" t="n">
-        <v>16.84032556548148</v>
+        <v>39.77637405308236</v>
       </c>
       <c r="D99" t="n">
-        <v>0.02227919518838561</v>
+        <v>-0.06794800758027009</v>
       </c>
     </row>
     <row r="100">
@@ -1827,13 +1827,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>16.88475058100331</v>
+        <v>39.71641828493448</v>
       </c>
       <c r="C100" t="n">
-        <v>16.90825265032982</v>
+        <v>39.895297723454</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.02350206932650778</v>
+        <v>-0.1788794385195231</v>
       </c>
     </row>
     <row r="101">
@@ -1841,13 +1841,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>16.92098076415281</v>
+        <v>39.7276811124566</v>
       </c>
       <c r="C101" t="n">
-        <v>16.95965171331867</v>
+        <v>39.87937358292318</v>
       </c>
       <c r="D101" t="n">
-        <v>-0.03867094916586566</v>
+        <v>-0.1516924704665783</v>
       </c>
     </row>
     <row r="102">
@@ -1855,13 +1855,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>16.93741519090538</v>
+        <v>39.73585045090194</v>
       </c>
       <c r="C102" t="n">
-        <v>16.96576747187308</v>
+        <v>39.88455549530516</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.02835228096769882</v>
+        <v>-0.1487050444032221</v>
       </c>
     </row>
     <row r="103">
@@ -1869,13 +1869,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>17.84695089088273</v>
+        <v>39.75749565255816</v>
       </c>
       <c r="C103" t="n">
-        <v>17.87378489540246</v>
+        <v>39.86190908231153</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.02683400451972773</v>
+        <v>-0.1044134297533716</v>
       </c>
     </row>
     <row r="104">
@@ -1883,13 +1883,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>17.88222243895675</v>
+        <v>39.7637449418351</v>
       </c>
       <c r="C104" t="n">
-        <v>18.04165739185618</v>
+        <v>39.79089331939567</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.1594349528994314</v>
+        <v>-0.02714837756057165</v>
       </c>
     </row>
     <row r="105">
@@ -1897,13 +1897,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>17.9003433697044</v>
+        <v>39.77859304251324</v>
       </c>
       <c r="C105" t="n">
-        <v>17.94211075146525</v>
+        <v>39.78159096461397</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.04176738176085237</v>
+        <v>-0.002997922100732353</v>
       </c>
     </row>
     <row r="106">
@@ -1911,13 +1911,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>17.92658028266521</v>
+        <v>39.78571316263626</v>
       </c>
       <c r="C106" t="n">
-        <v>17.97814424165928</v>
+        <v>39.91326549654141</v>
       </c>
       <c r="D106" t="n">
-        <v>-0.05156395899407329</v>
+        <v>-0.1275523339051432</v>
       </c>
     </row>
     <row r="107">
@@ -1925,13 +1925,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>17.92839973215174</v>
+        <v>39.80356282446311</v>
       </c>
       <c r="C107" t="n">
-        <v>17.99701118990878</v>
+        <v>39.8439474105904</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.06861145775704003</v>
+        <v>-0.04038458612728846</v>
       </c>
     </row>
     <row r="108">
@@ -1939,13 +1939,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>17.97911236195265</v>
+        <v>39.84550765455819</v>
       </c>
       <c r="C108" t="n">
-        <v>17.98590736302289</v>
+        <v>39.91501521846634</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.006795001070237561</v>
+        <v>-0.06950756390815371</v>
       </c>
     </row>
     <row r="109">
@@ -1953,13 +1953,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>17.98476491348362</v>
+        <v>39.86190870667387</v>
       </c>
       <c r="C109" t="n">
-        <v>17.98785155280573</v>
+        <v>39.89848381682911</v>
       </c>
       <c r="D109" t="n">
-        <v>-0.003086639322109619</v>
+        <v>-0.03657511015524051</v>
       </c>
     </row>
     <row r="110">
@@ -1967,13 +1967,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>17.99339725420853</v>
+        <v>40.05408794074235</v>
       </c>
       <c r="C110" t="n">
-        <v>18.031959659173</v>
+        <v>39.84415275597964</v>
       </c>
       <c r="D110" t="n">
-        <v>-0.03856240496447327</v>
+        <v>0.2099351847627062</v>
       </c>
     </row>
     <row r="111">
@@ -1981,13 +1981,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>18.00219663223964</v>
+        <v>41.31753628665705</v>
       </c>
       <c r="C111" t="n">
-        <v>18.05328975601436</v>
+        <v>41.52948490186202</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.05109312377472008</v>
+        <v>-0.2119486152049745</v>
       </c>
     </row>
     <row r="112">
@@ -1995,13 +1995,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>18.72958241894646</v>
+        <v>41.34602206161401</v>
       </c>
       <c r="C112" t="n">
-        <v>18.83033566577018</v>
+        <v>41.39233460228214</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.100753246823718</v>
+        <v>-0.04631254066813284</v>
       </c>
     </row>
     <row r="113">
@@ -2009,13 +2009,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>18.7399213213326</v>
+        <v>41.38806295225672</v>
       </c>
       <c r="C113" t="n">
-        <v>18.88791446520787</v>
+        <v>41.47727473587396</v>
       </c>
       <c r="D113" t="n">
-        <v>-0.1479931438752686</v>
+        <v>-0.08921178361723747</v>
       </c>
     </row>
     <row r="114">
@@ -2023,13 +2023,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>18.75866966320445</v>
+        <v>41.38825946465115</v>
       </c>
       <c r="C114" t="n">
-        <v>18.8595906505654</v>
+        <v>41.49544902456937</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.1009209873609578</v>
+        <v>-0.1071895599182184</v>
       </c>
     </row>
     <row r="115">
@@ -2037,13 +2037,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>18.79926538936851</v>
+        <v>41.40849362467837</v>
       </c>
       <c r="C115" t="n">
-        <v>18.82163052762951</v>
+        <v>41.52410657882112</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.02236513826099795</v>
+        <v>-0.1156129541427475</v>
       </c>
     </row>
     <row r="116">
@@ -2051,13 +2051,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>18.80123355303588</v>
+        <v>41.44209037893258</v>
       </c>
       <c r="C116" t="n">
-        <v>18.74009314713188</v>
+        <v>41.4820075988061</v>
       </c>
       <c r="D116" t="n">
-        <v>0.06114040590399483</v>
+        <v>-0.03991721987352292</v>
       </c>
     </row>
     <row r="117">
@@ -2065,13 +2065,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>18.82644626691647</v>
+        <v>41.45305660575348</v>
       </c>
       <c r="C117" t="n">
-        <v>18.86683615939127</v>
+        <v>41.48914393750213</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.04038989247479918</v>
+        <v>-0.03608733174864653</v>
       </c>
     </row>
     <row r="118">
@@ -2079,13 +2079,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>18.8410054943866</v>
+        <v>41.46198860942337</v>
       </c>
       <c r="C118" t="n">
-        <v>18.88628741284335</v>
+        <v>41.47285479283948</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.04528191845675522</v>
+        <v>-0.01086618341610546</v>
       </c>
     </row>
     <row r="119">
@@ -2093,13 +2093,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>18.85738248270971</v>
+        <v>41.50692833085271</v>
       </c>
       <c r="C119" t="n">
-        <v>18.88386581362409</v>
+        <v>41.52813857839495</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.02648333091437394</v>
+        <v>-0.02121024754224266</v>
       </c>
     </row>
     <row r="120">
@@ -2107,13 +2107,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>18.85944047775163</v>
+        <v>41.52022492374255</v>
       </c>
       <c r="C120" t="n">
-        <v>18.86872470848632</v>
+        <v>41.44835501076793</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.009284230734682097</v>
+        <v>0.07186991297461276</v>
       </c>
     </row>
     <row r="121">
@@ -2121,13 +2121,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>18.86336788064833</v>
+        <v>45.9953815827279</v>
       </c>
       <c r="C121" t="n">
-        <v>18.86679521826373</v>
+        <v>46.14521013825344</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.003427337615395487</v>
+        <v>-0.1498285555255379</v>
       </c>
     </row>
     <row r="122">
@@ -2135,13 +2135,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>19.56397235996986</v>
+        <v>46.01127357461974</v>
       </c>
       <c r="C122" t="n">
-        <v>19.75413203976895</v>
+        <v>46.13885066926864</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.1901596797990877</v>
+        <v>-0.127577094648899</v>
       </c>
     </row>
     <row r="123">
@@ -2149,13 +2149,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>19.57390157465528</v>
+        <v>46.0284330317163</v>
       </c>
       <c r="C123" t="n">
-        <v>19.60347385984823</v>
+        <v>46.15089087220429</v>
       </c>
       <c r="D123" t="n">
-        <v>-0.02957228519295185</v>
+        <v>-0.1224578404879964</v>
       </c>
     </row>
     <row r="124">
@@ -2163,13 +2163,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>19.57476452041333</v>
+        <v>46.041181372202</v>
       </c>
       <c r="C124" t="n">
-        <v>19.60070118634782</v>
+        <v>46.11037047791893</v>
       </c>
       <c r="D124" t="n">
-        <v>-0.02593666593449484</v>
+        <v>-0.06918910571693004</v>
       </c>
     </row>
     <row r="125">
@@ -2177,13 +2177,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>19.59680012233092</v>
+        <v>46.04410494219076</v>
       </c>
       <c r="C125" t="n">
-        <v>19.6357739990312</v>
+        <v>46.17091324546777</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.03897387670027896</v>
+        <v>-0.1268083032770093</v>
       </c>
     </row>
     <row r="126">
@@ -2191,13 +2191,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>19.62081786285963</v>
+        <v>46.05206060268537</v>
       </c>
       <c r="C126" t="n">
-        <v>19.64941700495641</v>
+        <v>46.08593659405906</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.02859914209678394</v>
+        <v>-0.03387599137369079</v>
       </c>
     </row>
     <row r="127">
@@ -2205,13 +2205,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>19.64364944220495</v>
+        <v>46.05713724570531</v>
       </c>
       <c r="C127" t="n">
-        <v>19.67112811702704</v>
+        <v>46.1537262247809</v>
       </c>
       <c r="D127" t="n">
-        <v>-0.02747867482209188</v>
+        <v>-0.09658897907559094</v>
       </c>
     </row>
     <row r="128">
@@ -2219,13 +2219,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>19.65326910145</v>
+        <v>46.07445318506663</v>
       </c>
       <c r="C128" t="n">
-        <v>19.75445023314438</v>
+        <v>46.14419497749197</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.1011811316943749</v>
+        <v>-0.06974179242534007</v>
       </c>
     </row>
     <row r="129">
@@ -2233,13 +2233,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>19.68977431495188</v>
+        <v>46.10473026860484</v>
       </c>
       <c r="C129" t="n">
-        <v>19.75009340471486</v>
+        <v>46.10997259148528</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.06031908976298794</v>
+        <v>-0.005242322880441463</v>
       </c>
     </row>
     <row r="130">
@@ -2247,13 +2247,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>19.75392679698987</v>
+        <v>46.10652109770435</v>
       </c>
       <c r="C130" t="n">
-        <v>19.76448180649768</v>
+        <v>46.12286264814942</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.01055500950781507</v>
+        <v>-0.01634155044506969</v>
       </c>
     </row>
     <row r="131">
@@ -2261,13 +2261,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>19.87942109784392</v>
+        <v>46.10788213461991</v>
       </c>
       <c r="C131" t="n">
-        <v>19.65619303268087</v>
+        <v>46.13221440679244</v>
       </c>
       <c r="D131" t="n">
-        <v>0.2232280651630489</v>
+        <v>-0.0243322721725292</v>
       </c>
     </row>
     <row r="132">
@@ -2275,13 +2275,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>20.06622434810629</v>
+        <v>46.12377651035359</v>
       </c>
       <c r="C132" t="n">
-        <v>20.26009268955121</v>
+        <v>46.13930643903813</v>
       </c>
       <c r="D132" t="n">
-        <v>-0.1938683414449223</v>
+        <v>-0.01552992868453629</v>
       </c>
     </row>
     <row r="133">
@@ -2289,13 +2289,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>20.14466099678837</v>
+        <v>46.14316306835105</v>
       </c>
       <c r="C133" t="n">
-        <v>20.18827517601925</v>
+        <v>46.1634408502042</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.04361417923087885</v>
+        <v>-0.02027778185314588</v>
       </c>
     </row>
     <row r="134">
@@ -2303,13 +2303,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>20.15836458774891</v>
+        <v>46.22605148715093</v>
       </c>
       <c r="C134" t="n">
-        <v>20.27166028593722</v>
+        <v>46.12670507391492</v>
       </c>
       <c r="D134" t="n">
-        <v>-0.1132956981883098</v>
+        <v>0.09934641323601312</v>
       </c>
     </row>
     <row r="135">
@@ -2317,13 +2317,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>20.16417417502408</v>
+        <v>50.06184523812704</v>
       </c>
       <c r="C135" t="n">
-        <v>20.27424533844522</v>
+        <v>50.19116096385094</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.1100711634211322</v>
+        <v>-0.1293157257238988</v>
       </c>
     </row>
     <row r="136">
@@ -2331,13 +2331,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>20.27277504966784</v>
+        <v>50.06381746303898</v>
       </c>
       <c r="C136" t="n">
-        <v>20.27770227288981</v>
+        <v>50.20042077657204</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.004927223221965704</v>
+        <v>-0.1366033135330582</v>
       </c>
     </row>
     <row r="137">
@@ -2345,13 +2345,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>23.31020065713492</v>
+        <v>50.06956776460472</v>
       </c>
       <c r="C137" t="n">
-        <v>23.49931747524484</v>
+        <v>50.20676893043266</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.1891168181099196</v>
+        <v>-0.1372011658279391</v>
       </c>
     </row>
     <row r="138">
@@ -2359,13 +2359,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>23.33210776931004</v>
+        <v>50.09250619968373</v>
       </c>
       <c r="C138" t="n">
-        <v>23.46558649647445</v>
+        <v>50.09471411327613</v>
       </c>
       <c r="D138" t="n">
-        <v>-0.1334787271644053</v>
+        <v>-0.002207913592400246</v>
       </c>
     </row>
     <row r="139">
@@ -2373,13 +2373,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>23.39174257179222</v>
+        <v>50.09714544234713</v>
       </c>
       <c r="C139" t="n">
-        <v>23.50249455669191</v>
+        <v>50.25568422679969</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.1107519848996894</v>
+        <v>-0.1585387844525599</v>
       </c>
     </row>
     <row r="140">
@@ -2387,13 +2387,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>23.40220270160162</v>
+        <v>50.10810723858098</v>
       </c>
       <c r="C140" t="n">
-        <v>23.47879703195278</v>
+        <v>50.12001248740806</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.07659433035116336</v>
+        <v>-0.01190524882708388</v>
       </c>
     </row>
     <row r="141">
@@ -2401,13 +2401,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>23.41117018429649</v>
+        <v>50.1264263763214</v>
       </c>
       <c r="C141" t="n">
-        <v>23.4899313793234</v>
+        <v>50.26792056812849</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.07876119502690315</v>
+        <v>-0.1414941918070838</v>
       </c>
     </row>
     <row r="142">
@@ -2415,13 +2415,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>23.50705077197503</v>
+        <v>50.13529711141476</v>
       </c>
       <c r="C142" t="n">
-        <v>23.51310198877743</v>
+        <v>50.17885470273745</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.006051216802394066</v>
+        <v>-0.04355759132268844</v>
       </c>
     </row>
     <row r="143">
@@ -2429,13 +2429,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>25.19159264139678</v>
+        <v>50.1505695771598</v>
       </c>
       <c r="C143" t="n">
-        <v>25.25233051643875</v>
+        <v>50.26289731352834</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.06073787504196915</v>
+        <v>-0.1123277363685418</v>
       </c>
     </row>
     <row r="144">
@@ -2443,13 +2443,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>25.20705044416076</v>
+        <v>50.16390617990199</v>
       </c>
       <c r="C144" t="n">
-        <v>25.2412053241847</v>
+        <v>50.16600755040031</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.0341548800239373</v>
+        <v>-0.002101370498323263</v>
       </c>
     </row>
     <row r="145">
@@ -2457,13 +2457,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>25.21344585254989</v>
+        <v>50.16546488718263</v>
       </c>
       <c r="C145" t="n">
-        <v>25.27997904524499</v>
+        <v>50.18057424653338</v>
       </c>
       <c r="D145" t="n">
-        <v>-0.06653319269510405</v>
+        <v>-0.01510935935074542</v>
       </c>
     </row>
     <row r="146">
@@ -2471,13 +2471,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>25.23395711594252</v>
+        <v>50.17997448815547</v>
       </c>
       <c r="C146" t="n">
-        <v>25.42180923363911</v>
+        <v>50.23630331343251</v>
       </c>
       <c r="D146" t="n">
-        <v>-0.1878521176965897</v>
+        <v>-0.05632882527704197</v>
       </c>
     </row>
     <row r="147">
@@ -2485,13 +2485,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>25.23852684793018</v>
+        <v>50.74963442867551</v>
       </c>
       <c r="C147" t="n">
-        <v>25.29515420400611</v>
+        <v>50.27947191987957</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.0566273560759285</v>
+        <v>0.4701625087959371</v>
       </c>
     </row>
     <row r="148">
@@ -2499,13 +2499,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>25.2387935160707</v>
+        <v>54.4034272810413</v>
       </c>
       <c r="C148" t="n">
-        <v>25.30587073537063</v>
+        <v>54.49109681315903</v>
       </c>
       <c r="D148" t="n">
-        <v>-0.06707721929993582</v>
+        <v>-0.08766953211773654</v>
       </c>
     </row>
     <row r="149">
@@ -2513,13 +2513,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>25.25417398319838</v>
+        <v>54.41479361016668</v>
       </c>
       <c r="C149" t="n">
-        <v>25.44512074692931</v>
+        <v>54.50356409370892</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.1909467637309241</v>
+        <v>-0.08877048354224115</v>
       </c>
     </row>
     <row r="150">
@@ -2527,13 +2527,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>25.26358992807014</v>
+        <v>54.44059073109683</v>
       </c>
       <c r="C150" t="n">
-        <v>25.3258234534973</v>
+        <v>54.451149840106</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.06223352542715332</v>
+        <v>-0.01055910900917212</v>
       </c>
     </row>
     <row r="151">
@@ -2541,13 +2541,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>25.27137222741261</v>
+        <v>54.45515955974621</v>
       </c>
       <c r="C151" t="n">
-        <v>25.42319642823359</v>
+        <v>54.62074383865539</v>
       </c>
       <c r="D151" t="n">
-        <v>-0.1518242008209789</v>
+        <v>-0.1655842789091793</v>
       </c>
     </row>
     <row r="152">
@@ -2555,13 +2555,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>25.28169693513831</v>
+        <v>54.4618951777688</v>
       </c>
       <c r="C152" t="n">
-        <v>25.33867008760801</v>
+        <v>54.46891568091429</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.05697315246970192</v>
+        <v>-0.007020503145490409</v>
       </c>
     </row>
     <row r="153">
@@ -2569,13 +2569,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>25.30396815769723</v>
+        <v>54.47365246349317</v>
       </c>
       <c r="C153" t="n">
-        <v>25.40165978775956</v>
+        <v>54.56293461764582</v>
       </c>
       <c r="D153" t="n">
-        <v>-0.09769163006232162</v>
+        <v>-0.08928215415264873</v>
       </c>
     </row>
     <row r="154">
@@ -2583,13 +2583,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>25.3082757122901</v>
+        <v>54.4814375532545</v>
       </c>
       <c r="C154" t="n">
-        <v>25.36568584585584</v>
+        <v>54.60996826397669</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.05741013356573532</v>
+        <v>-0.1285307107221882</v>
       </c>
     </row>
     <row r="155">
@@ -2597,13 +2597,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>25.30961869182624</v>
+        <v>54.50060049375848</v>
       </c>
       <c r="C155" t="n">
-        <v>25.31304429873624</v>
+        <v>54.60363702946429</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.003425606910003154</v>
+        <v>-0.1030365357058045</v>
       </c>
     </row>
     <row r="156">
@@ -2611,13 +2611,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>25.31829706531393</v>
+        <v>54.51609478324767</v>
       </c>
       <c r="C156" t="n">
-        <v>25.35830388888475</v>
+        <v>54.53244836204014</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.04000682357081686</v>
+        <v>-0.01635357879246868</v>
       </c>
     </row>
     <row r="157">
@@ -2625,13 +2625,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>25.32242274167083</v>
+        <v>54.5181156784218</v>
       </c>
       <c r="C157" t="n">
-        <v>25.40053798286387</v>
+        <v>54.67306340152236</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.07811524119303925</v>
+        <v>-0.1549477231005625</v>
       </c>
     </row>
     <row r="158">
@@ -2639,13 +2639,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>25.33503939220515</v>
+        <v>54.532142009087</v>
       </c>
       <c r="C158" t="n">
-        <v>25.44199891388703</v>
+        <v>54.72610733991075</v>
       </c>
       <c r="D158" t="n">
-        <v>-0.1069595216818833</v>
+        <v>-0.193965330823751</v>
       </c>
     </row>
     <row r="159">
@@ -2653,13 +2653,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>25.33665199827295</v>
+        <v>54.54033199001531</v>
       </c>
       <c r="C159" t="n">
-        <v>25.43050882313407</v>
+        <v>54.57911848582473</v>
       </c>
       <c r="D159" t="n">
-        <v>-0.09385682486111691</v>
+        <v>-0.0387864958094184</v>
       </c>
     </row>
     <row r="160">
@@ -2667,13 +2667,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>25.33715648107711</v>
+        <v>54.55566616025697</v>
       </c>
       <c r="C160" t="n">
-        <v>25.37207532088017</v>
+        <v>54.66706408790927</v>
       </c>
       <c r="D160" t="n">
-        <v>-0.03491883980306199</v>
+        <v>-0.1113979276522983</v>
       </c>
     </row>
     <row r="161">
@@ -2681,13 +2681,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>25.33869664603129</v>
+        <v>54.58353742948654</v>
       </c>
       <c r="C161" t="n">
-        <v>25.37531107350665</v>
+        <v>54.59658403961025</v>
       </c>
       <c r="D161" t="n">
-        <v>-0.03661442747535659</v>
+        <v>-0.013046610123709</v>
       </c>
     </row>
     <row r="162">
@@ -2695,13 +2695,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>25.34195822530606</v>
+        <v>54.59989536482083</v>
       </c>
       <c r="C162" t="n">
-        <v>25.36208055751666</v>
+        <v>54.60953472459818</v>
       </c>
       <c r="D162" t="n">
-        <v>-0.02012233221059745</v>
+        <v>-0.009639359777352752</v>
       </c>
     </row>
     <row r="163">
@@ -2709,13 +2709,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>25.3488137664149</v>
+        <v>54.60605400508706</v>
       </c>
       <c r="C163" t="n">
-        <v>25.38369926000815</v>
+        <v>54.61506293963699</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.03488549359324722</v>
+        <v>-0.009008934549925129</v>
       </c>
     </row>
     <row r="164">
@@ -2723,13 +2723,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>25.36152645846605</v>
+        <v>54.63352381159566</v>
       </c>
       <c r="C164" t="n">
-        <v>25.42917601008745</v>
+        <v>54.72227580393806</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.06764955162139685</v>
+        <v>-0.08875199234240227</v>
       </c>
     </row>
     <row r="165">
@@ -2737,13 +2737,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>25.36227336030258</v>
+        <v>54.63646747070681</v>
       </c>
       <c r="C165" t="n">
-        <v>25.43499537746524</v>
+        <v>54.72478823022801</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.07272201716265769</v>
+        <v>-0.08832075952120277</v>
       </c>
     </row>
     <row r="166">
@@ -2751,13 +2751,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>25.38183894037525</v>
+        <v>54.63837276863742</v>
       </c>
       <c r="C166" t="n">
-        <v>25.40180262977987</v>
+        <v>54.73187604687292</v>
       </c>
       <c r="D166" t="n">
-        <v>-0.01996368940461934</v>
+        <v>-0.0935032782354952</v>
       </c>
     </row>
     <row r="167">
@@ -2765,13 +2765,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>25.39833174839333</v>
+        <v>54.72757585992917</v>
       </c>
       <c r="C167" t="n">
-        <v>25.38025070574904</v>
+        <v>54.58489682482312</v>
       </c>
       <c r="D167" t="n">
-        <v>0.01808104264428678</v>
+        <v>0.1426790351060561</v>
       </c>
     </row>
     <row r="168">
@@ -2779,13 +2779,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>27.33071970868193</v>
+        <v>55.38925415399786</v>
       </c>
       <c r="C168" t="n">
-        <v>27.50721675793021</v>
+        <v>55.45889148717097</v>
       </c>
       <c r="D168" t="n">
-        <v>-0.1764970492482831</v>
+        <v>-0.06963733317310528</v>
       </c>
     </row>
     <row r="169">
@@ -2793,13 +2793,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>27.35477867200812</v>
+        <v>55.40627128764899</v>
       </c>
       <c r="C169" t="n">
-        <v>27.48722112365096</v>
+        <v>55.5111121402084</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.1324424516428344</v>
+        <v>-0.1048408525594127</v>
       </c>
     </row>
     <row r="170">
@@ -2807,13 +2807,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>27.35559794417452</v>
+        <v>55.40847300324157</v>
       </c>
       <c r="C170" t="n">
-        <v>27.47201554933</v>
+        <v>55.47933572948507</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.1164176051554797</v>
+        <v>-0.07086272624350443</v>
       </c>
     </row>
     <row r="171">
@@ -2821,13 +2821,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>27.37127965916629</v>
+        <v>55.41131329596558</v>
       </c>
       <c r="C171" t="n">
-        <v>27.43741976191565</v>
+        <v>55.47054338849055</v>
       </c>
       <c r="D171" t="n">
-        <v>-0.06614010274935822</v>
+        <v>-0.05923009252497025</v>
       </c>
     </row>
     <row r="172">
@@ -2835,13 +2835,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>27.37755533463653</v>
+        <v>55.42840339139858</v>
       </c>
       <c r="C172" t="n">
-        <v>27.46393626549493</v>
+        <v>55.59013659431037</v>
       </c>
       <c r="D172" t="n">
-        <v>-0.08638093085839316</v>
+        <v>-0.1617332029117833</v>
       </c>
     </row>
     <row r="173">
@@ -2849,13 +2849,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>27.40834818758125</v>
+        <v>55.43614943262642</v>
       </c>
       <c r="C173" t="n">
-        <v>27.49701632938591</v>
+        <v>55.53021851360334</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.0886681418046642</v>
+        <v>-0.09406908097692224</v>
       </c>
     </row>
     <row r="174">
@@ -2863,13 +2863,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>27.42658933041429</v>
+        <v>55.46315334748404</v>
       </c>
       <c r="C174" t="n">
-        <v>27.50937912605831</v>
+        <v>55.53142366081025</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.08278979564402533</v>
+        <v>-0.06827031332621658</v>
       </c>
     </row>
     <row r="175">
@@ -2877,13 +2877,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>27.52307603292218</v>
+        <v>55.47269228032454</v>
       </c>
       <c r="C175" t="n">
-        <v>27.52354188304711</v>
+        <v>55.56046857397897</v>
       </c>
       <c r="D175" t="n">
-        <v>-0.0004658501249252822</v>
+        <v>-0.08777629365442863</v>
       </c>
     </row>
     <row r="176">
@@ -2891,13 +2891,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>28.5200297140977</v>
+        <v>55.49463459729429</v>
       </c>
       <c r="C176" t="n">
-        <v>28.62305794954175</v>
+        <v>55.51035308157164</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.1030282354440466</v>
+        <v>-0.01571848427735745</v>
       </c>
     </row>
     <row r="177">
@@ -2905,13 +2905,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>28.55668322290403</v>
+        <v>55.49558018726816</v>
       </c>
       <c r="C177" t="n">
-        <v>28.59720809904404</v>
+        <v>55.5619205460531</v>
       </c>
       <c r="D177" t="n">
-        <v>-0.0405248761400081</v>
+        <v>-0.0663403587849416</v>
       </c>
     </row>
     <row r="178">
@@ -2919,13 +2919,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>28.57743872317641</v>
+        <v>55.52745647091471</v>
       </c>
       <c r="C178" t="n">
-        <v>28.69278332126328</v>
+        <v>55.59900248563311</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.1153445980868781</v>
+        <v>-0.07154601471840039</v>
       </c>
     </row>
     <row r="179">
@@ -2933,13 +2933,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>28.5815891295825</v>
+        <v>58.32356414531216</v>
       </c>
       <c r="C179" t="n">
-        <v>28.66656468594626</v>
+        <v>58.32876682098181</v>
       </c>
       <c r="D179" t="n">
-        <v>-0.08497555636376219</v>
+        <v>-0.005202675669643497</v>
       </c>
     </row>
     <row r="180">
@@ -2947,13 +2947,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>28.58304000027459</v>
+        <v>58.32992868943394</v>
       </c>
       <c r="C180" t="n">
-        <v>28.63980990991056</v>
+        <v>58.53786349389694</v>
       </c>
       <c r="D180" t="n">
-        <v>-0.05676990963597106</v>
+        <v>-0.2079348044630009</v>
       </c>
     </row>
     <row r="181">
@@ -2961,13 +2961,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>28.58411262570659</v>
+        <v>58.33086561002985</v>
       </c>
       <c r="C181" t="n">
-        <v>28.618513782385</v>
+        <v>58.4181252568312</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.03440115667840971</v>
+        <v>-0.08725964680134979</v>
       </c>
     </row>
     <row r="182">
@@ -2975,13 +2975,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>28.58855611068586</v>
+        <v>58.33257709891589</v>
       </c>
       <c r="C182" t="n">
-        <v>28.62469727339347</v>
+        <v>58.53244345184756</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.03614116270760448</v>
+        <v>-0.1998663529316644</v>
       </c>
     </row>
     <row r="183">
@@ -2989,13 +2989,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>28.64089859030064</v>
+        <v>58.34022691066884</v>
       </c>
       <c r="C183" t="n">
-        <v>28.6610343405714</v>
+        <v>58.38192383392284</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.02013575027076442</v>
+        <v>-0.04169692325400121</v>
       </c>
     </row>
     <row r="184">
@@ -3003,13 +3003,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>28.70827098662096</v>
+        <v>58.34301392092726</v>
       </c>
       <c r="C184" t="n">
-        <v>28.71425831024688</v>
+        <v>58.41073400336972</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.005987323625920027</v>
+        <v>-0.06772008244245598</v>
       </c>
     </row>
     <row r="185">
@@ -3017,13 +3017,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>31.44330094605773</v>
+        <v>58.3458078721814</v>
       </c>
       <c r="C185" t="n">
-        <v>31.61632888373002</v>
+        <v>58.46809922287154</v>
       </c>
       <c r="D185" t="n">
-        <v>-0.1730279376722876</v>
+        <v>-0.1222913506901477</v>
       </c>
     </row>
     <row r="186">
@@ -3031,13 +3031,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>31.46035254550726</v>
+        <v>58.35202545555308</v>
       </c>
       <c r="C186" t="n">
-        <v>31.59998790265225</v>
+        <v>58.41386139691808</v>
       </c>
       <c r="D186" t="n">
-        <v>-0.1396353571449893</v>
+        <v>-0.06183594136500403</v>
       </c>
     </row>
     <row r="187">
@@ -3045,13 +3045,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>31.46314200580245</v>
+        <v>58.36390554080224</v>
       </c>
       <c r="C187" t="n">
-        <v>31.62931465756309</v>
+        <v>58.39704883677499</v>
       </c>
       <c r="D187" t="n">
-        <v>-0.1661726517606326</v>
+        <v>-0.03314329597275645</v>
       </c>
     </row>
     <row r="188">
@@ -3059,13 +3059,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>31.47321200460262</v>
+        <v>58.38112081706841</v>
       </c>
       <c r="C188" t="n">
-        <v>31.55358279036744</v>
+        <v>58.46759089807921</v>
       </c>
       <c r="D188" t="n">
-        <v>-0.08037078576482415</v>
+        <v>-0.08647008101079479</v>
       </c>
     </row>
     <row r="189">
@@ -3073,13 +3073,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>31.47700992879505</v>
+        <v>58.41163239406025</v>
       </c>
       <c r="C189" t="n">
-        <v>31.65868211799084</v>
+        <v>58.54223395889912</v>
       </c>
       <c r="D189" t="n">
-        <v>-0.1816721891957904</v>
+        <v>-0.1306015648388765</v>
       </c>
     </row>
     <row r="190">
@@ -3087,13 +3087,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>31.48494710302569</v>
+        <v>58.42334943457342</v>
       </c>
       <c r="C190" t="n">
-        <v>31.50098253669661</v>
+        <v>58.51465007592488</v>
       </c>
       <c r="D190" t="n">
-        <v>-0.01603543367092186</v>
+        <v>-0.09130064135145943</v>
       </c>
     </row>
     <row r="191">
@@ -3101,13 +3101,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>31.51045764330693</v>
+        <v>58.48664510125381</v>
       </c>
       <c r="C191" t="n">
-        <v>31.52823033686249</v>
+        <v>58.53478781206623</v>
       </c>
       <c r="D191" t="n">
-        <v>-0.01777269355556044</v>
+        <v>-0.04814271081242794</v>
       </c>
     </row>
     <row r="192">
@@ -3115,13 +3115,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>31.51506731535397</v>
+        <v>58.49989102166174</v>
       </c>
       <c r="C192" t="n">
-        <v>31.57089717508274</v>
+        <v>58.5256938223615</v>
       </c>
       <c r="D192" t="n">
-        <v>-0.05582985972876742</v>
+        <v>-0.02580280069975771</v>
       </c>
     </row>
     <row r="193">
@@ -3129,13 +3129,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>31.51857495519118</v>
+        <v>58.5298218800695</v>
       </c>
       <c r="C193" t="n">
-        <v>31.57625028787987</v>
+        <v>58.53829817789097</v>
       </c>
       <c r="D193" t="n">
-        <v>-0.05767533268868874</v>
+        <v>-0.008476297821474077</v>
       </c>
     </row>
     <row r="194">
@@ -3143,13 +3143,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>31.5286793626178</v>
+        <v>59.80933886078768</v>
       </c>
       <c r="C194" t="n">
-        <v>31.57716025487004</v>
+        <v>59.83502076132719</v>
       </c>
       <c r="D194" t="n">
-        <v>-0.04848089225223617</v>
+        <v>-0.02568190053951724</v>
       </c>
     </row>
     <row r="195">
@@ -3157,13 +3157,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>31.52955008434017</v>
+        <v>59.80983558267922</v>
       </c>
       <c r="C195" t="n">
-        <v>31.68964338880053</v>
+        <v>59.92275974355373</v>
       </c>
       <c r="D195" t="n">
-        <v>-0.1600933044603643</v>
+        <v>-0.1129241608745062</v>
       </c>
     </row>
     <row r="196">
@@ -3171,13 +3171,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>31.5309159641222</v>
+        <v>59.81564909585072</v>
       </c>
       <c r="C196" t="n">
-        <v>31.65965808922784</v>
+        <v>59.86177205199403</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.1287421251056315</v>
+        <v>-0.04612295614330719</v>
       </c>
     </row>
     <row r="197">
@@ -3185,13 +3185,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>31.54575041042145</v>
+        <v>59.82416517273648</v>
       </c>
       <c r="C197" t="n">
-        <v>31.68767342051411</v>
+        <v>59.90732414573569</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.1419230100926612</v>
+        <v>-0.08315897299920749</v>
       </c>
     </row>
     <row r="198">
@@ -3199,13 +3199,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>31.55205257967217</v>
+        <v>59.83011956455205</v>
       </c>
       <c r="C198" t="n">
-        <v>31.66092651386711</v>
+        <v>59.99983451442239</v>
       </c>
       <c r="D198" t="n">
-        <v>-0.1088739341949392</v>
+        <v>-0.1697149498703396</v>
       </c>
     </row>
     <row r="199">
@@ -3213,13 +3213,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>31.63528668544444</v>
+        <v>59.83687129989173</v>
       </c>
       <c r="C199" t="n">
-        <v>31.66889465219293</v>
+        <v>59.99573514400848</v>
       </c>
       <c r="D199" t="n">
-        <v>-0.03360796674848388</v>
+        <v>-0.1588638441167518</v>
       </c>
     </row>
     <row r="200">
@@ -3227,13 +3227,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>31.64499758117252</v>
+        <v>59.8676450670831</v>
       </c>
       <c r="C200" t="n">
-        <v>31.66502593372113</v>
+        <v>59.89658990817027</v>
       </c>
       <c r="D200" t="n">
-        <v>-0.02002835254861068</v>
+        <v>-0.02894484108716711</v>
       </c>
     </row>
     <row r="201">
@@ -3241,13 +3241,13 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>37.68055717164605</v>
+        <v>59.87726225404547</v>
       </c>
       <c r="C201" t="n">
-        <v>37.85433874197362</v>
+        <v>59.99070947843726</v>
       </c>
       <c r="D201" t="n">
-        <v>-0.17378157032757</v>
+        <v>-0.1134472243917912</v>
       </c>
     </row>
     <row r="202">
@@ -3255,13 +3255,13 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>37.69189491487099</v>
+        <v>59.88016520195344</v>
       </c>
       <c r="C202" t="n">
-        <v>37.85515849643235</v>
+        <v>60.0171796193286</v>
       </c>
       <c r="D202" t="n">
-        <v>-0.1632635815613597</v>
+        <v>-0.1370144173751626</v>
       </c>
     </row>
     <row r="203">
@@ -3269,13 +3269,13 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>37.74446381954918</v>
+        <v>59.88709246381784</v>
       </c>
       <c r="C203" t="n">
-        <v>37.79650789157761</v>
+        <v>60.02042456627462</v>
       </c>
       <c r="D203" t="n">
-        <v>-0.05204407202842987</v>
+        <v>-0.1333321024567837</v>
       </c>
     </row>
     <row r="204">
@@ -3283,13 +3283,13 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>37.75147228755123</v>
+        <v>59.92668516063265</v>
       </c>
       <c r="C204" t="n">
-        <v>37.75154107119564</v>
+        <v>59.91454470639393</v>
       </c>
       <c r="D204" t="n">
-        <v>-6.878364440865425e-05</v>
+        <v>0.01214045423872534</v>
       </c>
     </row>
     <row r="205">
@@ -3297,13 +3297,13 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>37.75228568546013</v>
+        <v>59.95318475757869</v>
       </c>
       <c r="C205" t="n">
-        <v>37.83500779599395</v>
+        <v>59.96016256849578</v>
       </c>
       <c r="D205" t="n">
-        <v>-0.0827221105338154</v>
+        <v>-0.006977810917085492</v>
       </c>
     </row>
     <row r="206">
@@ -3311,13 +3311,13 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>37.75554888051612</v>
+        <v>59.98919256628648</v>
       </c>
       <c r="C206" t="n">
-        <v>37.75801518931914</v>
+        <v>60.0000166788441</v>
       </c>
       <c r="D206" t="n">
-        <v>-0.002466308803015238</v>
+        <v>-0.01082411255762139</v>
       </c>
     </row>
     <row r="207">
@@ -3325,13 +3325,13 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>37.79033717146569</v>
+        <v>60.09707584595237</v>
       </c>
       <c r="C207" t="n">
-        <v>37.83703479588053</v>
+        <v>60.01647132647178</v>
       </c>
       <c r="D207" t="n">
-        <v>-0.04669762441483272</v>
+        <v>0.08060451948058756</v>
       </c>
     </row>
     <row r="208">
@@ -3339,13 +3339,13 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>37.81839617662003</v>
+        <v>60.49112982439747</v>
       </c>
       <c r="C208" t="n">
-        <v>37.87841764420836</v>
+        <v>60.5099151698835</v>
       </c>
       <c r="D208" t="n">
-        <v>-0.06002146758833504</v>
+        <v>-0.01878534548603028</v>
       </c>
     </row>
     <row r="209">
@@ -3353,13 +3353,13 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>37.83206834303117</v>
+        <v>60.49691183635471</v>
       </c>
       <c r="C209" t="n">
-        <v>37.80093380051579</v>
+        <v>60.0184898587473</v>
       </c>
       <c r="D209" t="n">
-        <v>0.03113454251537462</v>
+        <v>0.4784219776074039</v>
       </c>
     </row>
     <row r="210">
@@ -3367,13 +3367,13 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>37.8575666321393</v>
+        <v>60.50637134848696</v>
       </c>
       <c r="C210" t="n">
-        <v>37.88677023720351</v>
+        <v>60.52466011756525</v>
       </c>
       <c r="D210" t="n">
-        <v>-0.02920360506421105</v>
+        <v>-0.01828876907829624</v>
       </c>
     </row>
     <row r="211">
@@ -3381,13 +3381,13 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>37.86646805319472</v>
+        <v>60.51203697167675</v>
       </c>
       <c r="C211" t="n">
-        <v>37.8961945972881</v>
+        <v>60.56166244170047</v>
       </c>
       <c r="D211" t="n">
-        <v>-0.0297265440933856</v>
+        <v>-0.0496254700237202</v>
       </c>
     </row>
     <row r="212">
@@ -3395,13 +3395,13 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>38.14415639813168</v>
+        <v>60.52164649713061</v>
       </c>
       <c r="C212" t="n">
-        <v>38.34472501117257</v>
+        <v>60.68087477802453</v>
       </c>
       <c r="D212" t="n">
-        <v>-0.2005686130408861</v>
+        <v>-0.1592282808939203</v>
       </c>
     </row>
     <row r="213">
@@ -3409,13 +3409,13 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>38.16805724477951</v>
+        <v>60.53533867713002</v>
       </c>
       <c r="C213" t="n">
-        <v>38.32158299477355</v>
+        <v>60.59020209591018</v>
       </c>
       <c r="D213" t="n">
-        <v>-0.1535257499940386</v>
+        <v>-0.05486341878015821</v>
       </c>
     </row>
     <row r="214">
@@ -3423,13 +3423,13 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>38.17029643308191</v>
+        <v>60.54837611602729</v>
       </c>
       <c r="C214" t="n">
-        <v>38.32290915287416</v>
+        <v>60.63303631655806</v>
       </c>
       <c r="D214" t="n">
-        <v>-0.152612719792252</v>
+        <v>-0.08466020053077017</v>
       </c>
     </row>
     <row r="215">
@@ -3437,13 +3437,13 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>38.22927178279514</v>
+        <v>60.55094703647444</v>
       </c>
       <c r="C215" t="n">
-        <v>38.32445785481501</v>
+        <v>60.61190588533384</v>
       </c>
       <c r="D215" t="n">
-        <v>-0.09518607201987095</v>
+        <v>-0.06095884885939995</v>
       </c>
     </row>
     <row r="216">
@@ -3451,13 +3451,13 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>38.24119760390874</v>
+        <v>60.57139636518242</v>
       </c>
       <c r="C216" t="n">
-        <v>38.24733158132651</v>
+        <v>60.6801186887558</v>
       </c>
       <c r="D216" t="n">
-        <v>-0.006133977417761116</v>
+        <v>-0.1087223235733745</v>
       </c>
     </row>
     <row r="217">
@@ -3465,13 +3465,13 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>38.29084592065777</v>
+        <v>60.5715289547451</v>
       </c>
       <c r="C217" t="n">
-        <v>38.31195777040874</v>
+        <v>60.6347243495872</v>
       </c>
       <c r="D217" t="n">
-        <v>-0.02111184975097302</v>
+        <v>-0.06319539484210424</v>
       </c>
     </row>
     <row r="218">
@@ -3479,13 +3479,13 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>38.31156166823584</v>
+        <v>60.58953687706679</v>
       </c>
       <c r="C218" t="n">
-        <v>38.34422076376242</v>
+        <v>60.59118080067</v>
       </c>
       <c r="D218" t="n">
-        <v>-0.03265909552657575</v>
+        <v>-0.001643923603211306</v>
       </c>
     </row>
     <row r="219">
@@ -3493,13 +3493,13 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>38.32792821101334</v>
+        <v>60.62028153579878</v>
       </c>
       <c r="C219" t="n">
-        <v>38.3356413702648</v>
+        <v>60.63417961407389</v>
       </c>
       <c r="D219" t="n">
-        <v>-0.00771315925145899</v>
+        <v>-0.01389807827511191</v>
       </c>
     </row>
     <row r="220">
@@ -3507,13 +3507,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>38.42089209626652</v>
+        <v>60.63695535988249</v>
       </c>
       <c r="C220" t="n">
-        <v>38.3607096762995</v>
+        <v>60.69430795328291</v>
       </c>
       <c r="D220" t="n">
-        <v>0.06018241996702045</v>
+        <v>-0.05735259340041665</v>
       </c>
     </row>
     <row r="221">
@@ -3521,13 +3521,13 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>41.3218932139542</v>
+        <v>60.64917856287344</v>
       </c>
       <c r="C221" t="n">
-        <v>41.50424380024731</v>
+        <v>60.69944358356598</v>
       </c>
       <c r="D221" t="n">
-        <v>-0.1823505862931114</v>
+        <v>-0.05026502069253524</v>
       </c>
     </row>
     <row r="222">
@@ -3535,13 +3535,13 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>41.32751870229092</v>
+        <v>60.72795725042113</v>
       </c>
       <c r="C222" t="n">
-        <v>41.44670469855188</v>
+        <v>60.69207749397198</v>
       </c>
       <c r="D222" t="n">
-        <v>-0.1191859962609598</v>
+        <v>0.03587975644915531</v>
       </c>
     </row>
     <row r="223">
@@ -3549,13 +3549,13 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>41.36448108429435</v>
+        <v>60.8123637516091</v>
       </c>
       <c r="C223" t="n">
-        <v>41.41470987175416</v>
+        <v>60.64850590325175</v>
       </c>
       <c r="D223" t="n">
-        <v>-0.05022878745981529</v>
+        <v>0.1638578483573454</v>
       </c>
     </row>
     <row r="224">
@@ -3563,13 +3563,13 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>41.3832532097595</v>
+        <v>63.32015143550528</v>
       </c>
       <c r="C224" t="n">
-        <v>41.38967496783587</v>
+        <v>63.35174844986324</v>
       </c>
       <c r="D224" t="n">
-        <v>-0.006421758076363915</v>
+        <v>-0.03159701435795625</v>
       </c>
     </row>
     <row r="225">
@@ -3577,13 +3577,13 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>41.38398698111687</v>
+        <v>63.32388201568553</v>
       </c>
       <c r="C225" t="n">
-        <v>41.47645330368885</v>
+        <v>63.45650908234578</v>
       </c>
       <c r="D225" t="n">
-        <v>-0.09246632257197973</v>
+        <v>-0.1326270666602554</v>
       </c>
     </row>
     <row r="226">
@@ -3591,13 +3591,13 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>41.40965827507489</v>
+        <v>63.41595224326273</v>
       </c>
       <c r="C226" t="n">
-        <v>41.42196823027263</v>
+        <v>63.47725397126454</v>
       </c>
       <c r="D226" t="n">
-        <v>-0.01230995519773614</v>
+        <v>-0.06130172800180844</v>
       </c>
     </row>
     <row r="227">
@@ -3605,13 +3605,13 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>41.42811224304454</v>
+        <v>63.41687852314945</v>
       </c>
       <c r="C227" t="n">
-        <v>41.48079587122881</v>
+        <v>63.41957447963088</v>
       </c>
       <c r="D227" t="n">
-        <v>-0.05268362818426198</v>
+        <v>-0.002695956481431949</v>
       </c>
     </row>
     <row r="228">
@@ -3619,13 +3619,13 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>41.46191199661157</v>
+        <v>63.46524250834692</v>
       </c>
       <c r="C228" t="n">
-        <v>41.47688069761691</v>
+        <v>63.49494483788251</v>
       </c>
       <c r="D228" t="n">
-        <v>-0.01496870100533698</v>
+        <v>-0.02970232953558849</v>
       </c>
     </row>
     <row r="229">
@@ -3633,13 +3633,13 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>41.46966291988013</v>
+        <v>63.48193070359432</v>
       </c>
       <c r="C229" t="n">
-        <v>41.53166051054649</v>
+        <v>63.51350028779208</v>
       </c>
       <c r="D229" t="n">
-        <v>-0.06199759066636545</v>
+        <v>-0.03156958419776146</v>
       </c>
     </row>
     <row r="230">
@@ -3647,13 +3647,13 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>41.47704698024548</v>
+        <v>63.48820262611276</v>
       </c>
       <c r="C230" t="n">
-        <v>41.48437585680013</v>
+        <v>63.49975082706263</v>
       </c>
       <c r="D230" t="n">
-        <v>-0.007328876554659303</v>
+        <v>-0.01154820094987485</v>
       </c>
     </row>
     <row r="231">
@@ -3661,13 +3661,13 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>41.49051349811914</v>
+        <v>66.67176730104842</v>
       </c>
       <c r="C231" t="n">
-        <v>41.52048059378836</v>
+        <v>66.85299307953666</v>
       </c>
       <c r="D231" t="n">
-        <v>-0.02996709566921396</v>
+        <v>-0.1812257784882405</v>
       </c>
     </row>
     <row r="232">
@@ -3675,13 +3675,13 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>41.50398507024997</v>
+        <v>66.71900016183791</v>
       </c>
       <c r="C232" t="n">
-        <v>41.51012783370728</v>
+        <v>66.79933092806503</v>
       </c>
       <c r="D232" t="n">
-        <v>-0.006142763457312128</v>
+        <v>-0.08033076622712088</v>
       </c>
     </row>
     <row r="233">
@@ -3689,13 +3689,13 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>41.50939522124804</v>
+        <v>66.73605128971755</v>
       </c>
       <c r="C233" t="n">
-        <v>41.51715911697604</v>
+        <v>66.82129232444321</v>
       </c>
       <c r="D233" t="n">
-        <v>-0.007763895727997294</v>
+        <v>-0.08524103472565514</v>
       </c>
     </row>
     <row r="234">
@@ -3703,13 +3703,13 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>41.60612791966722</v>
+        <v>66.7458991254227</v>
       </c>
       <c r="C234" t="n">
-        <v>41.49623148877676</v>
+        <v>66.813175212921</v>
       </c>
       <c r="D234" t="n">
-        <v>0.1098964308904655</v>
+        <v>-0.06727608749829983</v>
       </c>
     </row>
     <row r="235">
@@ -3717,13 +3717,13 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>41.78483958777205</v>
+        <v>66.79379564637438</v>
       </c>
       <c r="C235" t="n">
-        <v>41.84669157554253</v>
+        <v>66.85739190310773</v>
       </c>
       <c r="D235" t="n">
-        <v>-0.06185198777047418</v>
+        <v>-0.0635962567333479</v>
       </c>
     </row>
     <row r="236">
@@ -3731,13 +3731,13 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>41.7857939326319</v>
+        <v>67.72359962886557</v>
       </c>
       <c r="C236" t="n">
-        <v>41.80766218806444</v>
+        <v>67.89568491423022</v>
       </c>
       <c r="D236" t="n">
-        <v>-0.0218682554325369</v>
+        <v>-0.1720852853646448</v>
       </c>
     </row>
     <row r="237">
@@ -3745,13 +3745,13 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>41.81888909636501</v>
+        <v>67.73081353761989</v>
       </c>
       <c r="C237" t="n">
-        <v>41.83099945285752</v>
+        <v>67.85614345922194</v>
       </c>
       <c r="D237" t="n">
-        <v>-0.01211035649251357</v>
+        <v>-0.1253299216020451</v>
       </c>
     </row>
     <row r="238">
@@ -3759,13 +3759,13 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>41.84066682181759</v>
+        <v>67.74616290602994</v>
       </c>
       <c r="C238" t="n">
-        <v>41.84472519763711</v>
+        <v>67.83780038840588</v>
       </c>
       <c r="D238" t="n">
-        <v>-0.00405837581951829</v>
+        <v>-0.09163748237594405</v>
       </c>
     </row>
     <row r="239">
@@ -3773,13 +3773,13 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>41.85710623651086</v>
+        <v>67.75438904503056</v>
       </c>
       <c r="C239" t="n">
-        <v>41.96143334877667</v>
+        <v>67.90487743297325</v>
       </c>
       <c r="D239" t="n">
-        <v>-0.104327112265814</v>
+        <v>-0.150488387942687</v>
       </c>
     </row>
     <row r="240">
@@ -3787,13 +3787,13 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>47.27187052793745</v>
+        <v>67.75513159961687</v>
       </c>
       <c r="C240" t="n">
-        <v>47.4541075748703</v>
+        <v>67.85032679106855</v>
       </c>
       <c r="D240" t="n">
-        <v>-0.1822370469328476</v>
+        <v>-0.09519519145167976</v>
       </c>
     </row>
     <row r="241">
@@ -3801,13 +3801,13 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>47.27489095272781</v>
+        <v>67.78121761882453</v>
       </c>
       <c r="C241" t="n">
-        <v>47.40187134027639</v>
+        <v>67.85113954527067</v>
       </c>
       <c r="D241" t="n">
-        <v>-0.1269803875485849</v>
+        <v>-0.06992192644614192</v>
       </c>
     </row>
     <row r="242">
@@ -3815,13 +3815,13 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>47.32086736475127</v>
+        <v>67.79983012255038</v>
       </c>
       <c r="C242" t="n">
-        <v>47.41898833085934</v>
+        <v>67.93119030863576</v>
       </c>
       <c r="D242" t="n">
-        <v>-0.09812096610806975</v>
+        <v>-0.1313601860853879</v>
       </c>
     </row>
     <row r="243">
@@ -3829,13 +3829,13 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>47.39614426205114</v>
+        <v>67.81651145574236</v>
       </c>
       <c r="C243" t="n">
-        <v>47.4751840554564</v>
+        <v>67.84910663191722</v>
       </c>
       <c r="D243" t="n">
-        <v>-0.07903979340525069</v>
+        <v>-0.03259517617486551</v>
       </c>
     </row>
     <row r="244">
@@ -3843,13 +3843,13 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>47.42961088973532</v>
+        <v>67.82716198287984</v>
       </c>
       <c r="C244" t="n">
-        <v>47.4311014948695</v>
+        <v>67.88843608174392</v>
       </c>
       <c r="D244" t="n">
-        <v>-0.001490605134186751</v>
+        <v>-0.0612740988640752</v>
       </c>
     </row>
     <row r="245">
@@ -3857,13 +3857,13 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>47.44497063585514</v>
+        <v>67.84660914604881</v>
       </c>
       <c r="C245" t="n">
-        <v>47.4764923528918</v>
+        <v>67.9122416146044</v>
       </c>
       <c r="D245" t="n">
-        <v>-0.03152171703666085</v>
+        <v>-0.06563246855559157</v>
       </c>
     </row>
     <row r="246">
@@ -3871,13 +3871,13 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>47.88613943387065</v>
+        <v>67.85458042400997</v>
       </c>
       <c r="C246" t="n">
-        <v>48.00652589203354</v>
+        <v>67.90178952560845</v>
       </c>
       <c r="D246" t="n">
-        <v>-0.1203864581628906</v>
+        <v>-0.04720910159848302</v>
       </c>
     </row>
     <row r="247">
@@ -3885,13 +3885,13 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>47.91827993764231</v>
+        <v>67.86443810318957</v>
       </c>
       <c r="C247" t="n">
-        <v>48.09418276297205</v>
+        <v>67.88827952391165</v>
       </c>
       <c r="D247" t="n">
-        <v>-0.175902825329743</v>
+        <v>-0.02384142072207851</v>
       </c>
     </row>
     <row r="248">
@@ -3899,13 +3899,13 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>47.99208577642518</v>
+        <v>68.01276858119968</v>
       </c>
       <c r="C248" t="n">
-        <v>48.02794730781848</v>
+        <v>68.11424425606023</v>
       </c>
       <c r="D248" t="n">
-        <v>-0.0358615313933015</v>
+        <v>-0.1014756748605521</v>
       </c>
     </row>
     <row r="249">
@@ -3913,13 +3913,13 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>47.99919071515166</v>
+        <v>68.01731728543184</v>
       </c>
       <c r="C249" t="n">
-        <v>48.0782654169756</v>
+        <v>68.06167431378995</v>
       </c>
       <c r="D249" t="n">
-        <v>-0.07907470182393439</v>
+        <v>-0.04435702835810673</v>
       </c>
     </row>
     <row r="250">
@@ -3927,13 +3927,13 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>48.01085681560613</v>
+        <v>68.02257723871134</v>
       </c>
       <c r="C250" t="n">
-        <v>48.02916289640084</v>
+        <v>68.11048997836592</v>
       </c>
       <c r="D250" t="n">
-        <v>-0.01830608079470863</v>
+        <v>-0.08791273965458402</v>
       </c>
     </row>
     <row r="251">
@@ -3941,13 +3941,13 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>48.09007439674898</v>
+        <v>68.03479645405022</v>
       </c>
       <c r="C251" t="n">
-        <v>48.09672222008557</v>
+        <v>68.05959551316383</v>
       </c>
       <c r="D251" t="n">
-        <v>-0.006647823336585645</v>
+        <v>-0.02479905911360447</v>
       </c>
     </row>
     <row r="252">
@@ -3955,13 +3955,13 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>48.92367085586876</v>
+        <v>68.09308699564441</v>
       </c>
       <c r="C252" t="n">
-        <v>49.0713279274493</v>
+        <v>68.1021036360175</v>
       </c>
       <c r="D252" t="n">
-        <v>-0.1476570715805323</v>
+        <v>-0.009016640373090468</v>
       </c>
     </row>
     <row r="253">
@@ -3969,13 +3969,13 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>48.9532850249358</v>
+        <v>68.10138668592447</v>
       </c>
       <c r="C253" t="n">
-        <v>48.99433276938537</v>
+        <v>68.16603808698183</v>
       </c>
       <c r="D253" t="n">
-        <v>-0.04104774444956405</v>
+        <v>-0.06465140105736111</v>
       </c>
     </row>
     <row r="254">
@@ -3983,13 +3983,13 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>48.95985327422657</v>
+        <v>68.10608219078472</v>
       </c>
       <c r="C254" t="n">
-        <v>49.12874970149485</v>
+        <v>68.16065701920441</v>
       </c>
       <c r="D254" t="n">
-        <v>-0.1688964272682867</v>
+        <v>-0.05457482841968897</v>
       </c>
     </row>
     <row r="255">
@@ -3997,13 +3997,13 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>48.97012017261286</v>
+        <v>68.13409820717905</v>
       </c>
       <c r="C255" t="n">
-        <v>49.08047771382505</v>
+        <v>68.19895807877568</v>
       </c>
       <c r="D255" t="n">
-        <v>-0.1103575412121955</v>
+        <v>-0.06485987159662443</v>
       </c>
     </row>
     <row r="256">
@@ -4011,13 +4011,13 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>49.01536195177383</v>
+        <v>68.13993192158209</v>
       </c>
       <c r="C256" t="n">
-        <v>49.09221760395428</v>
+        <v>68.18476822632854</v>
       </c>
       <c r="D256" t="n">
-        <v>-0.07685565218044843</v>
+        <v>-0.04483630474645395</v>
       </c>
     </row>
     <row r="257">
@@ -4025,13 +4025,13 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>49.04331099000088</v>
+        <v>68.15057952205673</v>
       </c>
       <c r="C257" t="n">
-        <v>49.11705421943013</v>
+        <v>68.15432601418206</v>
       </c>
       <c r="D257" t="n">
-        <v>-0.0737432294292546</v>
+        <v>-0.003746492125330292</v>
       </c>
     </row>
     <row r="258">
@@ -4039,13 +4039,13 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>49.04351959275316</v>
+        <v>69.88413315943392</v>
       </c>
       <c r="C258" t="n">
-        <v>49.12405946468852</v>
+        <v>69.9433293873401</v>
       </c>
       <c r="D258" t="n">
-        <v>-0.08053987193536472</v>
+        <v>-0.05919622790618462</v>
       </c>
     </row>
     <row r="259">
@@ -4053,13 +4053,13 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>49.07046426716488</v>
+        <v>69.89272451498663</v>
       </c>
       <c r="C259" t="n">
-        <v>49.13112842280494</v>
+        <v>70.03704715641391</v>
       </c>
       <c r="D259" t="n">
-        <v>-0.06066415564006178</v>
+        <v>-0.14432264142728</v>
       </c>
     </row>
     <row r="260">
@@ -4067,13 +4067,13 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>49.07512911507236</v>
+        <v>69.89780051592182</v>
       </c>
       <c r="C260" t="n">
-        <v>49.08358476703416</v>
+        <v>69.97450723046106</v>
       </c>
       <c r="D260" t="n">
-        <v>-0.008455651961803312</v>
+        <v>-0.07670671453924172</v>
       </c>
     </row>
     <row r="261">
@@ -4081,13 +4081,13 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>49.0777533188616</v>
+        <v>69.94700534468316</v>
       </c>
       <c r="C261" t="n">
-        <v>49.08458380856749</v>
+        <v>69.991616189753</v>
       </c>
       <c r="D261" t="n">
-        <v>-0.006830489705890841</v>
+        <v>-0.04461084506984037</v>
       </c>
     </row>
     <row r="262">
@@ -4095,13 +4095,13 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>49.11059342625967</v>
+        <v>69.9677050790082</v>
       </c>
       <c r="C262" t="n">
-        <v>49.11451712769006</v>
+        <v>69.99785783952599</v>
       </c>
       <c r="D262" t="n">
-        <v>-0.003923701430394999</v>
+        <v>-0.03015276051779381</v>
       </c>
     </row>
     <row r="263">
@@ -4109,13 +4109,13 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>54.59564488064481</v>
+        <v>70.00571278944223</v>
       </c>
       <c r="C263" t="n">
-        <v>54.61076863606542</v>
+        <v>70.04405261821523</v>
       </c>
       <c r="D263" t="n">
-        <v>-0.0151237554206034</v>
+        <v>-0.03833982877300457</v>
       </c>
     </row>
     <row r="264">
@@ -4123,13 +4123,13 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>54.61366810467339</v>
+        <v>70.70789397556322</v>
       </c>
       <c r="C264" t="n">
-        <v>54.71668657659554</v>
+        <v>70.8591113262211</v>
       </c>
       <c r="D264" t="n">
-        <v>-0.1030184719221481</v>
+        <v>-0.1512173506578733</v>
       </c>
     </row>
     <row r="265">
@@ -4137,13 +4137,13 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>54.61804443981089</v>
+        <v>70.72027583310772</v>
       </c>
       <c r="C265" t="n">
-        <v>54.66514706505323</v>
+        <v>70.86769565030991</v>
       </c>
       <c r="D265" t="n">
-        <v>-0.04710262524233855</v>
+        <v>-0.1474198172021914</v>
       </c>
     </row>
     <row r="266">
@@ -4151,13 +4151,13 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>54.62007880704942</v>
+        <v>70.72642987041233</v>
       </c>
       <c r="C266" t="n">
-        <v>54.64928520630939</v>
+        <v>70.85912191503724</v>
       </c>
       <c r="D266" t="n">
-        <v>-0.02920639925996937</v>
+        <v>-0.1326920446249034</v>
       </c>
     </row>
     <row r="267">
@@ -4165,13 +4165,13 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>54.6270444430027</v>
+        <v>70.73132660445775</v>
       </c>
       <c r="C267" t="n">
-        <v>54.65786433297468</v>
+        <v>70.7833053626215</v>
       </c>
       <c r="D267" t="n">
-        <v>-0.03081988997197982</v>
+        <v>-0.05197875816375586</v>
       </c>
     </row>
     <row r="268">
@@ -4179,13 +4179,13 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>54.65878523165381</v>
+        <v>70.73877444067348</v>
       </c>
       <c r="C268" t="n">
-        <v>54.78004370680524</v>
+        <v>70.8287262069053</v>
       </c>
       <c r="D268" t="n">
-        <v>-0.1212584751514285</v>
+        <v>-0.08995176623182033</v>
       </c>
     </row>
     <row r="269">
@@ -4193,13 +4193,13 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>54.66721744270987</v>
+        <v>70.74220266248689</v>
       </c>
       <c r="C269" t="n">
-        <v>54.63340088314026</v>
+        <v>70.82140307335568</v>
       </c>
       <c r="D269" t="n">
-        <v>0.03381655956960827</v>
+        <v>-0.07920041086879337</v>
       </c>
     </row>
     <row r="270">
@@ -4207,13 +4207,13 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>54.70794320514794</v>
+        <v>70.74310813048234</v>
       </c>
       <c r="C270" t="n">
-        <v>54.75944326220276</v>
+        <v>70.89456597592587</v>
       </c>
       <c r="D270" t="n">
-        <v>-0.05150005705481675</v>
+        <v>-0.1514578454435309</v>
       </c>
     </row>
     <row r="271">
@@ -4221,13 +4221,13 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>54.70928768104871</v>
+        <v>70.79740455019726</v>
       </c>
       <c r="C271" t="n">
-        <v>54.72751438829092</v>
+        <v>70.89182624525091</v>
       </c>
       <c r="D271" t="n">
-        <v>-0.01822670724221354</v>
+        <v>-0.09442169505365428</v>
       </c>
     </row>
     <row r="272">
@@ -4235,13 +4235,13 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>54.77372379068591</v>
+        <v>70.81010327829758</v>
       </c>
       <c r="C272" t="n">
-        <v>54.72794645251619</v>
+        <v>70.89685516860705</v>
       </c>
       <c r="D272" t="n">
-        <v>0.04577733816972085</v>
+        <v>-0.08675189030947195</v>
       </c>
     </row>
     <row r="273">
@@ -4249,13 +4249,13 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>57.22590223208405</v>
+        <v>70.81977578461461</v>
       </c>
       <c r="C273" t="n">
-        <v>57.39612799642584</v>
+        <v>70.75898684792283</v>
       </c>
       <c r="D273" t="n">
-        <v>-0.1702257643417937</v>
+        <v>0.06078893669177887</v>
       </c>
     </row>
     <row r="274">
@@ -4263,13 +4263,13 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>57.24012635391122</v>
+        <v>70.88690290287599</v>
       </c>
       <c r="C274" t="n">
-        <v>57.34158644293301</v>
+        <v>70.89269651589998</v>
       </c>
       <c r="D274" t="n">
-        <v>-0.101460089021792</v>
+        <v>-0.005793613023996613</v>
       </c>
     </row>
     <row r="275">
@@ -4277,13 +4277,13 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>57.24147334639358</v>
+        <v>71.46729762460723</v>
       </c>
       <c r="C275" t="n">
-        <v>57.31065079309654</v>
+        <v>71.60277226559275</v>
       </c>
       <c r="D275" t="n">
-        <v>-0.06917744670295889</v>
+        <v>-0.135474640985521</v>
       </c>
     </row>
     <row r="276">
@@ -4291,13 +4291,13 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>57.27370346479969</v>
+        <v>71.46876629386968</v>
       </c>
       <c r="C276" t="n">
-        <v>57.36091070423915</v>
+        <v>71.47958844157534</v>
       </c>
       <c r="D276" t="n">
-        <v>-0.08720723943946496</v>
+        <v>-0.01082214770566736</v>
       </c>
     </row>
     <row r="277">
@@ -4305,13 +4305,13 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>57.29877448277223</v>
+        <v>71.47675276557013</v>
       </c>
       <c r="C277" t="n">
-        <v>57.36655124324174</v>
+        <v>71.51454203092734</v>
       </c>
       <c r="D277" t="n">
-        <v>-0.06777676046951342</v>
+        <v>-0.03778926535721894</v>
       </c>
     </row>
     <row r="278">
@@ -4319,13 +4319,13 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>57.307286034613</v>
+        <v>71.48037604454889</v>
       </c>
       <c r="C278" t="n">
-        <v>57.37262347669084</v>
+        <v>71.52681418187611</v>
       </c>
       <c r="D278" t="n">
-        <v>-0.06533744207784054</v>
+        <v>-0.04643813732721469</v>
       </c>
     </row>
     <row r="279">
@@ -4333,13 +4333,13 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>57.31182415669642</v>
+        <v>71.49241489016089</v>
       </c>
       <c r="C279" t="n">
-        <v>57.3429045819934</v>
+        <v>71.55918015086704</v>
       </c>
       <c r="D279" t="n">
-        <v>-0.03108042529697741</v>
+        <v>-0.06676526070614841</v>
       </c>
     </row>
     <row r="280">
@@ -4347,13 +4347,13 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>57.31466139666874</v>
+        <v>71.50234654892868</v>
       </c>
       <c r="C280" t="n">
-        <v>57.3963994249083</v>
+        <v>71.5085647652449</v>
       </c>
       <c r="D280" t="n">
-        <v>-0.08173802823956322</v>
+        <v>-0.006218216316213443</v>
       </c>
     </row>
     <row r="281">
@@ -4361,13 +4361,13 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>57.33015934474246</v>
+        <v>71.52305812729104</v>
       </c>
       <c r="C281" t="n">
-        <v>57.33626937346875</v>
+        <v>71.61151331039275</v>
       </c>
       <c r="D281" t="n">
-        <v>-0.00611002872628319</v>
+        <v>-0.08845518310171485</v>
       </c>
     </row>
     <row r="282">
@@ -4375,13 +4375,13 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>57.33582904028484</v>
+        <v>71.54189730280338</v>
       </c>
       <c r="C282" t="n">
-        <v>57.42699136145556</v>
+        <v>71.63703619799777</v>
       </c>
       <c r="D282" t="n">
-        <v>-0.09116232117072087</v>
+        <v>-0.09513889519439545</v>
       </c>
     </row>
     <row r="283">
@@ -4389,13 +4389,13 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>57.34796806857489</v>
+        <v>71.57058462155598</v>
       </c>
       <c r="C283" t="n">
-        <v>57.4215542459178</v>
+        <v>71.59701257914274</v>
       </c>
       <c r="D283" t="n">
-        <v>-0.07358617734290362</v>
+        <v>-0.02642795758676186</v>
       </c>
     </row>
     <row r="284">
@@ -4403,13 +4403,13 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>57.35170940494664</v>
+        <v>71.60717013242453</v>
       </c>
       <c r="C284" t="n">
-        <v>57.37424702563621</v>
+        <v>71.60912197424538</v>
       </c>
       <c r="D284" t="n">
-        <v>-0.02253762068956888</v>
+        <v>-0.001951841820854838</v>
       </c>
     </row>
     <row r="285">
@@ -4417,13 +4417,13 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>57.36128279051878</v>
+        <v>71.61231148054426</v>
       </c>
       <c r="C285" t="n">
-        <v>57.30758775027105</v>
+        <v>71.61668519033282</v>
       </c>
       <c r="D285" t="n">
-        <v>0.05369504024772453</v>
+        <v>-0.00437370978855256</v>
       </c>
     </row>
     <row r="286">
@@ -4431,13 +4431,13 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>57.36671744400645</v>
+        <v>71.63541720043175</v>
       </c>
       <c r="C286" t="n">
-        <v>57.39837263684659</v>
+        <v>71.64212391439483</v>
       </c>
       <c r="D286" t="n">
-        <v>-0.03165519284013385</v>
+        <v>-0.006706713963083644</v>
       </c>
     </row>
     <row r="287">
@@ -4445,13 +4445,13 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>57.39648450132128</v>
+        <v>71.74367574509984</v>
       </c>
       <c r="C287" t="n">
-        <v>57.42210642816218</v>
+        <v>71.65825107449126</v>
       </c>
       <c r="D287" t="n">
-        <v>-0.02562192684090547</v>
+        <v>0.08542467060857462</v>
       </c>
     </row>
     <row r="288">
@@ -4459,13 +4459,13 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>59.57363295843571</v>
+        <v>78.09995811757945</v>
       </c>
       <c r="C288" t="n">
-        <v>59.76077599000261</v>
+        <v>78.10271215604112</v>
       </c>
       <c r="D288" t="n">
-        <v>-0.1871430315668974</v>
+        <v>-0.002754038461674213</v>
       </c>
     </row>
     <row r="289">
@@ -4473,13 +4473,13 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>59.60054005349892</v>
+        <v>78.11192235844234</v>
       </c>
       <c r="C289" t="n">
-        <v>59.74948854409575</v>
+        <v>78.18678539654059</v>
       </c>
       <c r="D289" t="n">
-        <v>-0.1489484905968226</v>
+        <v>-0.07486303809824335</v>
       </c>
     </row>
     <row r="290">
@@ -4487,13 +4487,13 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>59.61284879531063</v>
+        <v>78.12966168124446</v>
       </c>
       <c r="C290" t="n">
-        <v>59.73756260267703</v>
+        <v>78.21848470023393</v>
       </c>
       <c r="D290" t="n">
-        <v>-0.1247138073664047</v>
+        <v>-0.08882301898947276</v>
       </c>
     </row>
     <row r="291">
@@ -4501,13 +4501,13 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>59.68077951024186</v>
+        <v>78.13035713563941</v>
       </c>
       <c r="C291" t="n">
-        <v>59.68693329950351</v>
+        <v>78.21840418309509</v>
       </c>
       <c r="D291" t="n">
-        <v>-0.00615378926164567</v>
+        <v>-0.08804704745567449</v>
       </c>
     </row>
     <row r="292">
@@ -4515,13 +4515,13 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>59.71984809664497</v>
+        <v>78.17492642187034</v>
       </c>
       <c r="C292" t="n">
-        <v>59.76263117020169</v>
+        <v>78.21019882728361</v>
       </c>
       <c r="D292" t="n">
-        <v>-0.04278307355671984</v>
+        <v>-0.03527240541326648</v>
       </c>
     </row>
     <row r="293">
@@ -4529,13 +4529,13 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>59.7458535463024</v>
+        <v>78.19662878972323</v>
       </c>
       <c r="C293" t="n">
-        <v>59.75458767271916</v>
+        <v>78.26996205728115</v>
       </c>
       <c r="D293" t="n">
-        <v>-0.008734126416761967</v>
+        <v>-0.07333326755791347</v>
       </c>
     </row>
     <row r="294">
@@ -4543,13 +4543,13 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>62.68919603781698</v>
+        <v>78.20042065988702</v>
       </c>
       <c r="C294" t="n">
-        <v>62.70652162666538</v>
+        <v>78.2853012114218</v>
       </c>
       <c r="D294" t="n">
-        <v>-0.01732558884840074</v>
+        <v>-0.08488055153478058</v>
       </c>
     </row>
     <row r="295">
@@ -4557,13 +4557,13 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>62.69504783327055</v>
+        <v>78.206626613178</v>
       </c>
       <c r="C295" t="n">
-        <v>62.83522723531831</v>
+        <v>78.26792928701842</v>
       </c>
       <c r="D295" t="n">
-        <v>-0.1401794020477638</v>
+        <v>-0.06130267384041588</v>
       </c>
     </row>
     <row r="296">
@@ -4571,13 +4571,13 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>62.71699692910658</v>
+        <v>78.20811336152381</v>
       </c>
       <c r="C296" t="n">
-        <v>62.74818645647512</v>
+        <v>78.25626668741475</v>
       </c>
       <c r="D296" t="n">
-        <v>-0.03118952736853942</v>
+        <v>-0.04815332589093657</v>
       </c>
     </row>
     <row r="297">
@@ -4585,13 +4585,13 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>62.73531200525869</v>
+        <v>78.22410253066282</v>
       </c>
       <c r="C297" t="n">
-        <v>62.81216625423973</v>
+        <v>78.26260818382733</v>
       </c>
       <c r="D297" t="n">
-        <v>-0.07685424898103577</v>
+        <v>-0.03850565316450627</v>
       </c>
     </row>
     <row r="298">
@@ -4599,13 +4599,13 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>62.8562812474705</v>
+        <v>78.2306759193397</v>
       </c>
       <c r="C298" t="n">
-        <v>62.88773092257833</v>
+        <v>78.25042384433952</v>
       </c>
       <c r="D298" t="n">
-        <v>-0.03144967510783658</v>
+        <v>-0.01974792499981959</v>
       </c>
     </row>
     <row r="299">
@@ -4613,13 +4613,13 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>63.77051975723183</v>
+        <v>78.24651152545063</v>
       </c>
       <c r="C299" t="n">
-        <v>63.77710465452692</v>
+        <v>78.30538130403714</v>
       </c>
       <c r="D299" t="n">
-        <v>-0.006584897295084602</v>
+        <v>-0.05886977858651221</v>
       </c>
     </row>
     <row r="300">
@@ -4627,13 +4627,13 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>63.77214293094474</v>
+        <v>78.70646985242745</v>
       </c>
       <c r="C300" t="n">
-        <v>63.81220658457748</v>
+        <v>78.28476261111717</v>
       </c>
       <c r="D300" t="n">
-        <v>-0.04006365363274256</v>
+        <v>0.4217072413102727</v>
       </c>
     </row>
     <row r="301">
@@ -4641,13 +4641,13 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>63.79988343521992</v>
+        <v>79.50643072388981</v>
       </c>
       <c r="C301" t="n">
-        <v>63.88191420182545</v>
+        <v>79.55331497215703</v>
       </c>
       <c r="D301" t="n">
-        <v>-0.08203076660553421</v>
+        <v>-0.04688424826721871</v>
       </c>
     </row>
     <row r="302">
@@ -4655,13 +4655,13 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>63.83887424204281</v>
+        <v>79.51076758246364</v>
       </c>
       <c r="C302" t="n">
-        <v>63.94010019121493</v>
+        <v>79.66516806770463</v>
       </c>
       <c r="D302" t="n">
-        <v>-0.1012259491721181</v>
+        <v>-0.1544004852409842</v>
       </c>
     </row>
     <row r="303">
@@ -4669,13 +4669,13 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>63.87764432816525</v>
+        <v>79.52389979696457</v>
       </c>
       <c r="C303" t="n">
-        <v>63.89445770494794</v>
+        <v>79.57202663518919</v>
       </c>
       <c r="D303" t="n">
-        <v>-0.01681337678268591</v>
+        <v>-0.0481268382246185</v>
       </c>
     </row>
     <row r="304">
@@ -4683,13 +4683,13 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>63.87856568745377</v>
+        <v>79.52980606642359</v>
       </c>
       <c r="C304" t="n">
-        <v>63.89143340245288</v>
+        <v>79.65354784174318</v>
       </c>
       <c r="D304" t="n">
-        <v>-0.01286771499911765</v>
+        <v>-0.1237417753195871</v>
       </c>
     </row>
     <row r="305">
@@ -4697,13 +4697,13 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>63.88926465160808</v>
+        <v>79.53187560539477</v>
       </c>
       <c r="C305" t="n">
-        <v>63.91473886792166</v>
+        <v>79.53703948174653</v>
       </c>
       <c r="D305" t="n">
-        <v>-0.02547421631357594</v>
+        <v>-0.005163876351758745</v>
       </c>
     </row>
     <row r="306">
@@ -4711,13 +4711,13 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>63.92440245828813</v>
+        <v>79.53796219391278</v>
       </c>
       <c r="C306" t="n">
-        <v>63.94064360395006</v>
+        <v>79.5913145871458</v>
       </c>
       <c r="D306" t="n">
-        <v>-0.01624114566193668</v>
+        <v>-0.05335239323302687</v>
       </c>
     </row>
     <row r="307">
@@ -4725,13 +4725,13 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>64.32534095123441</v>
+        <v>79.54448946685208</v>
       </c>
       <c r="C307" t="n">
-        <v>64.33946433926491</v>
+        <v>79.57227871054332</v>
       </c>
       <c r="D307" t="n">
-        <v>-0.01412338803049806</v>
+        <v>-0.02778924369123104</v>
       </c>
     </row>
     <row r="308">
@@ -4739,13 +4739,13 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>64.33081925133017</v>
+        <v>79.57462349482122</v>
       </c>
       <c r="C308" t="n">
-        <v>64.54266906568967</v>
+        <v>79.60010682194348</v>
       </c>
       <c r="D308" t="n">
-        <v>-0.2118498143594962</v>
+        <v>-0.02548332712225942</v>
       </c>
     </row>
     <row r="309">
@@ -4753,13 +4753,13 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>64.33146669323231</v>
+        <v>79.58345627493614</v>
       </c>
       <c r="C309" t="n">
-        <v>64.4017563966714</v>
+        <v>79.58425209587965</v>
       </c>
       <c r="D309" t="n">
-        <v>-0.07028970343908725</v>
+        <v>-0.0007958209435088293</v>
       </c>
     </row>
     <row r="310">
@@ -4767,13 +4767,13 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>64.33171131400289</v>
+        <v>79.59489533673626</v>
       </c>
       <c r="C310" t="n">
-        <v>64.35597501250112</v>
+        <v>79.69390527662212</v>
       </c>
       <c r="D310" t="n">
-        <v>-0.02426369849823118</v>
+        <v>-0.09900993988586038</v>
       </c>
     </row>
     <row r="311">
@@ -4781,13 +4781,13 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>64.33495362688795</v>
+        <v>79.60806787622263</v>
       </c>
       <c r="C311" t="n">
-        <v>64.42213727257001</v>
+        <v>79.69120713922187</v>
       </c>
       <c r="D311" t="n">
-        <v>-0.08718364568206027</v>
+        <v>-0.08313926299923935</v>
       </c>
     </row>
     <row r="312">
@@ -4795,13 +4795,13 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>64.35194825581098</v>
+        <v>79.61031730512339</v>
       </c>
       <c r="C312" t="n">
-        <v>64.5469695744565</v>
+        <v>79.62810031741094</v>
       </c>
       <c r="D312" t="n">
-        <v>-0.1950213186455159</v>
+        <v>-0.01778301228755197</v>
       </c>
     </row>
     <row r="313">
@@ -4809,13 +4809,13 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>64.38049044878014</v>
+        <v>79.71611421259716</v>
       </c>
       <c r="C313" t="n">
-        <v>64.38786910629601</v>
+        <v>79.64845685784331</v>
       </c>
       <c r="D313" t="n">
-        <v>-0.007378657515872078</v>
+        <v>0.06765735475384815</v>
       </c>
     </row>
     <row r="314">
@@ -4823,13 +4823,13 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>64.41877583458253</v>
+        <v>80.15085871397032</v>
       </c>
       <c r="C314" t="n">
-        <v>64.49439089399601</v>
+        <v>79.65551732088338</v>
       </c>
       <c r="D314" t="n">
-        <v>-0.07561505941347946</v>
+        <v>0.4953413930869459</v>
       </c>
     </row>
     <row r="315">
@@ -4837,13 +4837,13 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>64.42785504952768</v>
+        <v>80.97352077246771</v>
       </c>
       <c r="C315" t="n">
-        <v>64.4579043031965</v>
+        <v>81.0918231342243</v>
       </c>
       <c r="D315" t="n">
-        <v>-0.03004925366882105</v>
+        <v>-0.1183023617565908</v>
       </c>
     </row>
     <row r="316">
@@ -4851,13 +4851,13 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>64.44355661524492</v>
+        <v>80.97850314788838</v>
       </c>
       <c r="C316" t="n">
-        <v>64.5136970046341</v>
+        <v>81.14574767971295</v>
       </c>
       <c r="D316" t="n">
-        <v>-0.07014038938918077</v>
+        <v>-0.1672445318245792</v>
       </c>
     </row>
     <row r="317">
@@ -4865,13 +4865,13 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>64.45746602539518</v>
+        <v>80.98119534083169</v>
       </c>
       <c r="C317" t="n">
-        <v>64.52492012097525</v>
+        <v>81.07571929131798</v>
       </c>
       <c r="D317" t="n">
-        <v>-0.06745409558007509</v>
+        <v>-0.09452395048629114</v>
       </c>
     </row>
     <row r="318">
@@ -4879,13 +4879,13 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>64.48510890573877</v>
+        <v>81.06278552166384</v>
       </c>
       <c r="C318" t="n">
-        <v>64.5304219921928</v>
+        <v>81.16457891111797</v>
       </c>
       <c r="D318" t="n">
-        <v>-0.04531308645402987</v>
+        <v>-0.1017933894541301</v>
       </c>
     </row>
     <row r="319">
@@ -4893,13 +4893,13 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>64.50903975937736</v>
+        <v>81.06786636932634</v>
       </c>
       <c r="C319" t="n">
-        <v>64.54537850406069</v>
+        <v>81.13358318064938</v>
       </c>
       <c r="D319" t="n">
-        <v>-0.03633874468333431</v>
+        <v>-0.06571681132304263</v>
       </c>
     </row>
     <row r="320">
@@ -4907,13 +4907,13 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>64.51784630885597</v>
+        <v>81.14874371310307</v>
       </c>
       <c r="C320" t="n">
-        <v>64.59948468341054</v>
+        <v>81.15667883151413</v>
       </c>
       <c r="D320" t="n">
-        <v>-0.08163837455457212</v>
+        <v>-0.007935118411054987</v>
       </c>
     </row>
     <row r="321">
@@ -4921,13 +4921,13 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>64.53861646266012</v>
+        <v>81.14921628671817</v>
       </c>
       <c r="C321" t="n">
-        <v>64.62196727725275</v>
+        <v>81.18310200924213</v>
       </c>
       <c r="D321" t="n">
-        <v>-0.08335081459263449</v>
+        <v>-0.03388572252396216</v>
       </c>
     </row>
     <row r="322">
@@ -4935,13 +4935,13 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>64.54983666084618</v>
+        <v>81.16591373955501</v>
       </c>
       <c r="C322" t="n">
-        <v>64.68668852379194</v>
+        <v>81.1813823015609</v>
       </c>
       <c r="D322" t="n">
-        <v>-0.1368518629457611</v>
+        <v>-0.01546856200589275</v>
       </c>
     </row>
     <row r="323">
@@ -4949,13 +4949,13 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>64.55150491893686</v>
+        <v>81.27084569711415</v>
       </c>
       <c r="C323" t="n">
-        <v>64.62751770331894</v>
+        <v>81.15586737147316</v>
       </c>
       <c r="D323" t="n">
-        <v>-0.07601278438208681</v>
+        <v>0.1149783256409904</v>
       </c>
     </row>
     <row r="324">
@@ -4963,13 +4963,13 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>64.57105522142737</v>
+        <v>81.32554953691277</v>
       </c>
       <c r="C324" t="n">
-        <v>64.72905075896793</v>
+        <v>81.18457502999449</v>
       </c>
       <c r="D324" t="n">
-        <v>-0.1579955375405575</v>
+        <v>0.1409745069182833</v>
       </c>
     </row>
     <row r="325">
@@ -4977,13 +4977,13 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>64.6045599714399</v>
+        <v>84.71117820672956</v>
       </c>
       <c r="C325" t="n">
-        <v>64.61554623077953</v>
+        <v>84.90617245200498</v>
       </c>
       <c r="D325" t="n">
-        <v>-0.01098625933963149</v>
+        <v>-0.1949942452754243</v>
       </c>
     </row>
     <row r="326">
@@ -4991,13 +4991,13 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>64.61268620976939</v>
+        <v>84.72144860993787</v>
       </c>
       <c r="C326" t="n">
-        <v>64.65992865915906</v>
+        <v>84.86179018383532</v>
       </c>
       <c r="D326" t="n">
-        <v>-0.04724244938967104</v>
+        <v>-0.1403415738974587</v>
       </c>
     </row>
     <row r="327">
@@ -5005,13 +5005,13 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>64.61752227656963</v>
+        <v>84.7459581089081</v>
       </c>
       <c r="C327" t="n">
-        <v>64.68225941926913</v>
+        <v>84.88210266708407</v>
       </c>
       <c r="D327" t="n">
-        <v>-0.06473714269949937</v>
+        <v>-0.136144558175971</v>
       </c>
     </row>
     <row r="328">
@@ -5019,13 +5019,13 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>64.63117738675743</v>
+        <v>84.76389896627211</v>
       </c>
       <c r="C328" t="n">
-        <v>64.69697043963578</v>
+        <v>84.77246320147771</v>
       </c>
       <c r="D328" t="n">
-        <v>-0.06579305287834813</v>
+        <v>-0.008564235205597015</v>
       </c>
     </row>
     <row r="329">
@@ -5033,13 +5033,13 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>64.64131951147758</v>
+        <v>84.81887098196647</v>
       </c>
       <c r="C329" t="n">
-        <v>64.68794306614016</v>
+        <v>84.91560012761184</v>
       </c>
       <c r="D329" t="n">
-        <v>-0.04662355466258816</v>
+        <v>-0.09672914564536939</v>
       </c>
     </row>
     <row r="330">
@@ -5047,13 +5047,13 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>64.71491250904718</v>
+        <v>88.16213243889764</v>
       </c>
       <c r="C330" t="n">
-        <v>64.72108828832484</v>
+        <v>88.19471170645751</v>
       </c>
       <c r="D330" t="n">
-        <v>-0.006175779277654669</v>
+        <v>-0.03257926755986773</v>
       </c>
     </row>
     <row r="331">
@@ -5061,13 +5061,13 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>64.71756717508187</v>
+        <v>88.21471560785132</v>
       </c>
       <c r="C331" t="n">
-        <v>64.71882259324849</v>
+        <v>88.37234096237911</v>
       </c>
       <c r="D331" t="n">
-        <v>-0.00125541816662178</v>
+        <v>-0.157625354527795</v>
       </c>
     </row>
     <row r="332">
@@ -5075,13 +5075,13 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>64.89477831141303</v>
+        <v>88.26009380439611</v>
       </c>
       <c r="C332" t="n">
-        <v>65.05555933607926</v>
+        <v>88.30388507720896</v>
       </c>
       <c r="D332" t="n">
-        <v>-0.1607810246662211</v>
+        <v>-0.04379127281285378</v>
       </c>
     </row>
     <row r="333">
@@ -5089,13 +5089,13 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>64.91661971268363</v>
+        <v>88.26695537190304</v>
       </c>
       <c r="C333" t="n">
-        <v>64.92207675931863</v>
+        <v>88.31174014315341</v>
       </c>
       <c r="D333" t="n">
-        <v>-0.005457046635001461</v>
+        <v>-0.04478477125037728</v>
       </c>
     </row>
     <row r="334">
@@ -5103,13 +5103,13 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>64.92815734192348</v>
+        <v>88.26879137340218</v>
       </c>
       <c r="C334" t="n">
-        <v>64.96046588363414</v>
+        <v>88.30485672349198</v>
       </c>
       <c r="D334" t="n">
-        <v>-0.03230854171066255</v>
+        <v>-0.03606535008979961</v>
       </c>
     </row>
     <row r="335">
@@ -5117,13 +5117,13 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>64.93511732107663</v>
+        <v>88.27342091985606</v>
       </c>
       <c r="C335" t="n">
-        <v>64.98311669702994</v>
+        <v>88.35245200734421</v>
       </c>
       <c r="D335" t="n">
-        <v>-0.04799937595331016</v>
+        <v>-0.07903108748814702</v>
       </c>
     </row>
     <row r="336">
@@ -5131,13 +5131,13 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>64.93666330256903</v>
+        <v>88.30535959890243</v>
       </c>
       <c r="C336" t="n">
-        <v>65.10351639798307</v>
+        <v>88.36484736929783</v>
       </c>
       <c r="D336" t="n">
-        <v>-0.1668530954140408</v>
+        <v>-0.05948777039540687</v>
       </c>
     </row>
     <row r="337">
@@ -5145,13 +5145,13 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>64.94692935938751</v>
+        <v>88.30965237004179</v>
       </c>
       <c r="C337" t="n">
-        <v>65.00020879748045</v>
+        <v>88.36753974648502</v>
       </c>
       <c r="D337" t="n">
-        <v>-0.05327943809294311</v>
+        <v>-0.05788737644323305</v>
       </c>
     </row>
     <row r="338">
@@ -5159,13 +5159,13 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>64.96641110600852</v>
+        <v>88.34124781870759</v>
       </c>
       <c r="C338" t="n">
-        <v>64.52314266689771</v>
+        <v>88.34608265528915</v>
       </c>
       <c r="D338" t="n">
-        <v>0.4432684391108097</v>
+        <v>-0.004834836581565582</v>
       </c>
     </row>
     <row r="339">
@@ -5173,13 +5173,13 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>64.98262036128813</v>
+        <v>88.85540307735056</v>
       </c>
       <c r="C339" t="n">
-        <v>65.03872139325588</v>
+        <v>88.86289668094784</v>
       </c>
       <c r="D339" t="n">
-        <v>-0.0561010319677564</v>
+        <v>-0.007493603597282572</v>
       </c>
     </row>
     <row r="340">
@@ -5187,13 +5187,13 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>64.98536788362705</v>
+        <v>88.85703189305225</v>
       </c>
       <c r="C340" t="n">
-        <v>65.1185768599988</v>
+        <v>89.01606205963265</v>
       </c>
       <c r="D340" t="n">
-        <v>-0.1332089763717477</v>
+        <v>-0.1590301665803935</v>
       </c>
     </row>
     <row r="341">
@@ -5201,13 +5201,13 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>65.05213842739647</v>
+        <v>88.8630621088394</v>
       </c>
       <c r="C341" t="n">
-        <v>65.08208324574791</v>
+        <v>88.95132797541449</v>
       </c>
       <c r="D341" t="n">
-        <v>-0.02994481835143858</v>
+        <v>-0.08826586657508528</v>
       </c>
     </row>
     <row r="342">
@@ -5215,13 +5215,13 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>65.06397880972482</v>
+        <v>88.88135676343069</v>
       </c>
       <c r="C342" t="n">
-        <v>65.07972436872785</v>
+        <v>88.89019601896894</v>
       </c>
       <c r="D342" t="n">
-        <v>-0.01574555900303665</v>
+        <v>-0.008839255538248381</v>
       </c>
     </row>
     <row r="343">
@@ -5229,13 +5229,13 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>65.08292785783927</v>
+        <v>88.88500332658644</v>
       </c>
       <c r="C343" t="n">
-        <v>65.02793297207866</v>
+        <v>89.00843116935022</v>
       </c>
       <c r="D343" t="n">
-        <v>0.05499488576060685</v>
+        <v>-0.1234278427637747</v>
       </c>
     </row>
     <row r="344">
@@ -5243,13 +5243,13 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>65.09403655637487</v>
+        <v>88.89578074825194</v>
       </c>
       <c r="C344" t="n">
-        <v>65.11169521314402</v>
+        <v>89.03285698111107</v>
       </c>
       <c r="D344" t="n">
-        <v>-0.01765865676914302</v>
+        <v>-0.1370762328591297</v>
       </c>
     </row>
     <row r="345">
@@ -5257,13 +5257,13 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>65.09534084514721</v>
+        <v>88.90442744262754</v>
       </c>
       <c r="C345" t="n">
-        <v>65.10204653035295</v>
+        <v>89.02263066121769</v>
       </c>
       <c r="D345" t="n">
-        <v>-0.006705685205744771</v>
+        <v>-0.1182032185901534</v>
       </c>
     </row>
     <row r="346">
@@ -5271,13 +5271,13 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>65.10256990325381</v>
+        <v>88.91374802506411</v>
       </c>
       <c r="C346" t="n">
-        <v>65.10998636629951</v>
+        <v>88.99439814450992</v>
       </c>
       <c r="D346" t="n">
-        <v>-0.007416463045700539</v>
+        <v>-0.08065011944580647</v>
       </c>
     </row>
     <row r="347">
@@ -5285,13 +5285,13 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>65.15434420172919</v>
+        <v>88.9142799574258</v>
       </c>
       <c r="C347" t="n">
-        <v>64.65663791917507</v>
+        <v>89.04220893949302</v>
       </c>
       <c r="D347" t="n">
-        <v>0.4977062825541196</v>
+        <v>-0.1279289820672176</v>
       </c>
     </row>
     <row r="348">
@@ -5299,13 +5299,13 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>66.33164574722494</v>
+        <v>88.9388795778288</v>
       </c>
       <c r="C348" t="n">
-        <v>66.39264603421692</v>
+        <v>88.98292652312072</v>
       </c>
       <c r="D348" t="n">
-        <v>-0.0610002869919839</v>
+        <v>-0.04404694529192454</v>
       </c>
     </row>
     <row r="349">
@@ -5313,13 +5313,13 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>66.37131481548474</v>
+        <v>88.94955758957066</v>
       </c>
       <c r="C349" t="n">
-        <v>66.54927188260119</v>
+        <v>88.95010872648953</v>
       </c>
       <c r="D349" t="n">
-        <v>-0.1779570671164521</v>
+        <v>-0.0005511369188724302</v>
       </c>
     </row>
     <row r="350">
@@ -5327,13 +5327,13 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>66.37576884799037</v>
+        <v>88.98425737422983</v>
       </c>
       <c r="C350" t="n">
-        <v>66.42850795208983</v>
+        <v>89.01964860465171</v>
       </c>
       <c r="D350" t="n">
-        <v>-0.0527391040994587</v>
+        <v>-0.03539123042187953</v>
       </c>
     </row>
     <row r="351">
@@ -5341,13 +5341,13 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>66.3999348172937</v>
+        <v>89.00829801757463</v>
       </c>
       <c r="C351" t="n">
-        <v>66.43251359914807</v>
+        <v>89.05466248352973</v>
       </c>
       <c r="D351" t="n">
-        <v>-0.0325787818543688</v>
+        <v>-0.04636446595509369</v>
       </c>
     </row>
     <row r="352">
@@ -5355,13 +5355,13 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>66.40585183486191</v>
+        <v>89.16494957790592</v>
       </c>
       <c r="C352" t="n">
-        <v>66.43471141758982</v>
+        <v>89.02250286289981</v>
       </c>
       <c r="D352" t="n">
-        <v>-0.02885958272791811</v>
+        <v>0.142446715006102</v>
       </c>
     </row>
     <row r="353">
@@ -5369,13 +5369,13 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>66.4063098758278</v>
+        <v>89.26248886392386</v>
       </c>
       <c r="C353" t="n">
-        <v>66.43893609803223</v>
+        <v>88.97988485014397</v>
       </c>
       <c r="D353" t="n">
-        <v>-0.03262622220442779</v>
+        <v>0.2826040137798884</v>
       </c>
     </row>
     <row r="354">
@@ -5383,13 +5383,13 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>66.45476532318462</v>
+        <v>96.26339526197431</v>
       </c>
       <c r="C354" t="n">
-        <v>66.50877569727909</v>
+        <v>96.42868744462145</v>
       </c>
       <c r="D354" t="n">
-        <v>-0.0540103740944744</v>
+        <v>-0.1652921826471356</v>
       </c>
     </row>
     <row r="355">
@@ -5397,13 +5397,13 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>66.47545648855997</v>
+        <v>96.26833571371705</v>
       </c>
       <c r="C355" t="n">
-        <v>66.48979515729049</v>
+        <v>96.29790985332006</v>
       </c>
       <c r="D355" t="n">
-        <v>-0.0143386687305167</v>
+        <v>-0.0295741396030138</v>
       </c>
     </row>
     <row r="356">
@@ -5411,13 +5411,13 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>66.49893595253154</v>
+        <v>96.26845468662286</v>
       </c>
       <c r="C356" t="n">
-        <v>66.54576880751446</v>
+        <v>96.44916231987152</v>
       </c>
       <c r="D356" t="n">
-        <v>-0.04683285498292378</v>
+        <v>-0.1807076332486588</v>
       </c>
     </row>
     <row r="357">
@@ -5425,13 +5425,13 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>66.51299641547556</v>
+        <v>96.26891882049642</v>
       </c>
       <c r="C357" t="n">
-        <v>66.51487828005426</v>
+        <v>96.33051777914726</v>
       </c>
       <c r="D357" t="n">
-        <v>-0.001881864578706427</v>
+        <v>-0.06159895865083342</v>
       </c>
     </row>
     <row r="358">
@@ -5439,13 +5439,13 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>66.52138847511669</v>
+        <v>96.27505036085792</v>
       </c>
       <c r="C358" t="n">
-        <v>66.52853594536683</v>
+        <v>96.34003236526512</v>
       </c>
       <c r="D358" t="n">
-        <v>-0.00714747025013196</v>
+        <v>-0.0649820044071987</v>
       </c>
     </row>
     <row r="359">
@@ -5453,13 +5453,13 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>66.53815658832603</v>
+        <v>96.30420621581064</v>
       </c>
       <c r="C359" t="n">
-        <v>66.5504752947288</v>
+        <v>96.32589212815516</v>
       </c>
       <c r="D359" t="n">
-        <v>-0.01231870640276611</v>
+        <v>-0.02168591234452322</v>
       </c>
     </row>
     <row r="360">
@@ -5467,13 +5467,13 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>66.63181715156756</v>
+        <v>96.31919209110841</v>
       </c>
       <c r="C360" t="n">
-        <v>66.54164504791795</v>
+        <v>96.36195106271938</v>
       </c>
       <c r="D360" t="n">
-        <v>0.09017210364960704</v>
+        <v>-0.0427589716109793</v>
       </c>
     </row>
     <row r="361">
@@ -5481,13 +5481,13 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>66.63726225570913</v>
+        <v>96.32378327531636</v>
       </c>
       <c r="C361" t="n">
-        <v>66.47865703582464</v>
+        <v>96.33735475822422</v>
       </c>
       <c r="D361" t="n">
-        <v>0.1586052198844925</v>
+        <v>-0.0135714829078637</v>
       </c>
     </row>
     <row r="362">
@@ -5495,13 +5495,13 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>67.33683390403776</v>
+        <v>96.37090006700298</v>
       </c>
       <c r="C362" t="n">
-        <v>67.37349590137879</v>
+        <v>96.47730357936327</v>
       </c>
       <c r="D362" t="n">
-        <v>-0.03666199734102804</v>
+        <v>-0.1064035123602878</v>
       </c>
     </row>
     <row r="363">
@@ -5509,13 +5509,13 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>67.33742752111773</v>
+        <v>96.39812945744052</v>
       </c>
       <c r="C363" t="n">
-        <v>67.33752671522829</v>
+        <v>96.42793183971142</v>
       </c>
       <c r="D363" t="n">
-        <v>-9.919411056102945e-05</v>
+        <v>-0.02980238227090126</v>
       </c>
     </row>
     <row r="364">
@@ -5523,13 +5523,13 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>67.37513783532056</v>
+        <v>96.40576495359799</v>
       </c>
       <c r="C364" t="n">
-        <v>67.48317355900518</v>
+        <v>96.46252684108566</v>
       </c>
       <c r="D364" t="n">
-        <v>-0.1080357236846226</v>
+        <v>-0.0567618874876672</v>
       </c>
     </row>
     <row r="365">
@@ -5537,13 +5537,13 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>67.39759712476545</v>
+        <v>96.44675230280045</v>
       </c>
       <c r="C365" t="n">
-        <v>67.44216640100174</v>
+        <v>96.65178316914455</v>
       </c>
       <c r="D365" t="n">
-        <v>-0.04456927623628815</v>
+        <v>-0.2050308663441029</v>
       </c>
     </row>
     <row r="366">
@@ -5551,13 +5551,13 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>67.40734098362744</v>
+        <v>96.44713854254273</v>
       </c>
       <c r="C366" t="n">
-        <v>67.52006739392601</v>
+        <v>96.64040347810432</v>
       </c>
       <c r="D366" t="n">
-        <v>-0.1127264102985777</v>
+        <v>-0.1932649355615865</v>
       </c>
     </row>
     <row r="367">
@@ -5565,13 +5565,13 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>67.43784412011971</v>
+        <v>96.45109852626477</v>
       </c>
       <c r="C367" t="n">
-        <v>67.52319441564197</v>
+        <v>96.49360817294915</v>
       </c>
       <c r="D367" t="n">
-        <v>-0.08535029552226092</v>
+        <v>-0.04250964668437973</v>
       </c>
     </row>
     <row r="368">
@@ -5579,13 +5579,13 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>67.44183553589905</v>
+        <v>96.45294425362214</v>
       </c>
       <c r="C368" t="n">
-        <v>67.45486762013789</v>
+        <v>96.47610003706328</v>
       </c>
       <c r="D368" t="n">
-        <v>-0.01303208423884428</v>
+        <v>-0.02315578344114044</v>
       </c>
     </row>
     <row r="369">
@@ -5593,13 +5593,13 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>67.45307080585151</v>
+        <v>96.4699439043366</v>
       </c>
       <c r="C369" t="n">
-        <v>67.55379732681017</v>
+        <v>96.47987359961731</v>
       </c>
       <c r="D369" t="n">
-        <v>-0.1007265209586592</v>
+        <v>-0.009929695280703754</v>
       </c>
     </row>
     <row r="370">
@@ -5607,13 +5607,13 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>67.45725629012762</v>
+        <v>96.52263061186625</v>
       </c>
       <c r="C370" t="n">
-        <v>67.50381343791204</v>
+        <v>96.54111398901539</v>
       </c>
       <c r="D370" t="n">
-        <v>-0.04655714778442643</v>
+        <v>-0.01848337714913839</v>
       </c>
     </row>
     <row r="371">
@@ -5621,13 +5621,13 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>67.4639557908657</v>
+        <v>96.63566314650102</v>
       </c>
       <c r="C371" t="n">
-        <v>67.47158201603214</v>
+        <v>96.64120714684017</v>
       </c>
       <c r="D371" t="n">
-        <v>-0.007626225166447398</v>
+        <v>-0.005544000339156696</v>
       </c>
     </row>
     <row r="372">
@@ -5635,13 +5635,13 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>67.46618183981305</v>
+        <v>96.64332258291756</v>
       </c>
       <c r="C372" t="n">
-        <v>67.59710435270321</v>
+        <v>96.65767129935173</v>
       </c>
       <c r="D372" t="n">
-        <v>-0.1309225128901659</v>
+        <v>-0.01434871643417068</v>
       </c>
     </row>
     <row r="373">
@@ -5649,13 +5649,13 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>67.48608267954965</v>
+        <v>97.02152170031611</v>
       </c>
       <c r="C373" t="n">
-        <v>67.64159496180628</v>
+        <v>96.45542698709326</v>
       </c>
       <c r="D373" t="n">
-        <v>-0.1555122822566233</v>
+        <v>0.5660947132228529</v>
       </c>
     </row>
     <row r="374">
@@ -5663,13 +5663,13 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>67.52355673491465</v>
+        <v>99.39085698543219</v>
       </c>
       <c r="C374" t="n">
-        <v>67.6126670340236</v>
+        <v>99.5428576163294</v>
       </c>
       <c r="D374" t="n">
-        <v>-0.08911029910895252</v>
+        <v>-0.1520006308972057</v>
       </c>
     </row>
     <row r="375">
@@ -5677,13 +5677,13 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>67.53197560357442</v>
+        <v>99.44697189526309</v>
       </c>
       <c r="C375" t="n">
-        <v>67.62892420323048</v>
+        <v>99.52228854578411</v>
       </c>
       <c r="D375" t="n">
-        <v>-0.09694859965605929</v>
+        <v>-0.07531665052101744</v>
       </c>
     </row>
     <row r="376">
@@ -5691,13 +5691,13 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>67.54284609521366</v>
+        <v>99.45919565611089</v>
       </c>
       <c r="C376" t="n">
-        <v>67.61313288871169</v>
+        <v>99.46892795988424</v>
       </c>
       <c r="D376" t="n">
-        <v>-0.07028679349802758</v>
+        <v>-0.009732303773347439</v>
       </c>
     </row>
     <row r="377">
@@ -5705,13 +5705,13 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>67.55069141235819</v>
+        <v>99.49515176249064</v>
       </c>
       <c r="C377" t="n">
-        <v>67.56285991916359</v>
+        <v>99.51717441588112</v>
       </c>
       <c r="D377" t="n">
-        <v>-0.01216850680539494</v>
+        <v>-0.02202265339047926</v>
       </c>
     </row>
     <row r="378">
@@ -5719,3191 +5719,13 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>67.56659732835054</v>
+        <v>99.4990203374021</v>
       </c>
       <c r="C378" t="n">
-        <v>67.63153126188647</v>
+        <v>99.54224369259617</v>
       </c>
       <c r="D378" t="n">
-        <v>-0.0649339335359258</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" s="1" t="n">
-        <v>377</v>
-      </c>
-      <c r="B379" t="n">
-        <v>67.61468964324357</v>
-      </c>
-      <c r="C379" t="n">
-        <v>67.64143738489254</v>
-      </c>
-      <c r="D379" t="n">
-        <v>-0.02674774164897542</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" s="1" t="n">
-        <v>378</v>
-      </c>
-      <c r="B380" t="n">
-        <v>68.76693512621175</v>
-      </c>
-      <c r="C380" t="n">
-        <v>68.88539313841977</v>
-      </c>
-      <c r="D380" t="n">
-        <v>-0.1184580122080234</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" s="1" t="n">
-        <v>379</v>
-      </c>
-      <c r="B381" t="n">
-        <v>68.79744044597513</v>
-      </c>
-      <c r="C381" t="n">
-        <v>68.91419195588423</v>
-      </c>
-      <c r="D381" t="n">
-        <v>-0.1167515099091077</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" s="1" t="n">
-        <v>380</v>
-      </c>
-      <c r="B382" t="n">
-        <v>68.80302079377869</v>
-      </c>
-      <c r="C382" t="n">
-        <v>68.89034021716967</v>
-      </c>
-      <c r="D382" t="n">
-        <v>-0.08731942339097998</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" s="1" t="n">
-        <v>381</v>
-      </c>
-      <c r="B383" t="n">
-        <v>68.81777051341356</v>
-      </c>
-      <c r="C383" t="n">
-        <v>68.94660488936096</v>
-      </c>
-      <c r="D383" t="n">
-        <v>-0.1288343759473918</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" s="1" t="n">
-        <v>382</v>
-      </c>
-      <c r="B384" t="n">
-        <v>68.82325951177934</v>
-      </c>
-      <c r="C384" t="n">
-        <v>68.8800198815306</v>
-      </c>
-      <c r="D384" t="n">
-        <v>-0.05676036975125953</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" s="1" t="n">
-        <v>383</v>
-      </c>
-      <c r="B385" t="n">
-        <v>68.83338876651746</v>
-      </c>
-      <c r="C385" t="n">
-        <v>68.9514118115972</v>
-      </c>
-      <c r="D385" t="n">
-        <v>-0.1180230450797382</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" s="1" t="n">
-        <v>384</v>
-      </c>
-      <c r="B386" t="n">
-        <v>68.85425299337982</v>
-      </c>
-      <c r="C386" t="n">
-        <v>68.95488167405537</v>
-      </c>
-      <c r="D386" t="n">
-        <v>-0.1006286806755554</v>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" s="1" t="n">
-        <v>385</v>
-      </c>
-      <c r="B387" t="n">
-        <v>68.85930550266458</v>
-      </c>
-      <c r="C387" t="n">
-        <v>68.8850356139249</v>
-      </c>
-      <c r="D387" t="n">
-        <v>-0.02573011126031588</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" s="1" t="n">
-        <v>386</v>
-      </c>
-      <c r="B388" t="n">
-        <v>68.87115179686133</v>
-      </c>
-      <c r="C388" t="n">
-        <v>68.93598701119154</v>
-      </c>
-      <c r="D388" t="n">
-        <v>-0.06483521433021622</v>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" s="1" t="n">
-        <v>387</v>
-      </c>
-      <c r="B389" t="n">
-        <v>68.90994798471895</v>
-      </c>
-      <c r="C389" t="n">
-        <v>68.93433729481075</v>
-      </c>
-      <c r="D389" t="n">
-        <v>-0.02438931009179157</v>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" s="1" t="n">
-        <v>388</v>
-      </c>
-      <c r="B390" t="n">
-        <v>71.73510446979103</v>
-      </c>
-      <c r="C390" t="n">
-        <v>71.94351130701735</v>
-      </c>
-      <c r="D390" t="n">
-        <v>-0.2084068372263204</v>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" s="1" t="n">
-        <v>389</v>
-      </c>
-      <c r="B391" t="n">
-        <v>71.74408307795979</v>
-      </c>
-      <c r="C391" t="n">
-        <v>71.88687175500887</v>
-      </c>
-      <c r="D391" t="n">
-        <v>-0.1427886770490829</v>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" s="1" t="n">
-        <v>390</v>
-      </c>
-      <c r="B392" t="n">
-        <v>71.74894753183911</v>
-      </c>
-      <c r="C392" t="n">
-        <v>71.86246764294637</v>
-      </c>
-      <c r="D392" t="n">
-        <v>-0.1135201111072632</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" s="1" t="n">
-        <v>391</v>
-      </c>
-      <c r="B393" t="n">
-        <v>71.75447122163206</v>
-      </c>
-      <c r="C393" t="n">
-        <v>71.85195001175271</v>
-      </c>
-      <c r="D393" t="n">
-        <v>-0.09747879012064686</v>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" s="1" t="n">
-        <v>392</v>
-      </c>
-      <c r="B394" t="n">
-        <v>71.77895776962707</v>
-      </c>
-      <c r="C394" t="n">
-        <v>71.78501344450508</v>
-      </c>
-      <c r="D394" t="n">
-        <v>-0.006055674878012951</v>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" s="1" t="n">
-        <v>393</v>
-      </c>
-      <c r="B395" t="n">
-        <v>71.81035063270086</v>
-      </c>
-      <c r="C395" t="n">
-        <v>71.87256293711103</v>
-      </c>
-      <c r="D395" t="n">
-        <v>-0.06221230441016701</v>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" s="1" t="n">
-        <v>394</v>
-      </c>
-      <c r="B396" t="n">
-        <v>71.81633395560453</v>
-      </c>
-      <c r="C396" t="n">
-        <v>71.93128650184313</v>
-      </c>
-      <c r="D396" t="n">
-        <v>-0.1149525462385981</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" s="1" t="n">
-        <v>395</v>
-      </c>
-      <c r="B397" t="n">
-        <v>71.82893449265562</v>
-      </c>
-      <c r="C397" t="n">
-        <v>71.8699841508229</v>
-      </c>
-      <c r="D397" t="n">
-        <v>-0.04104965816728168</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" s="1" t="n">
-        <v>396</v>
-      </c>
-      <c r="B398" t="n">
-        <v>71.8773280610998</v>
-      </c>
-      <c r="C398" t="n">
-        <v>71.95482604634591</v>
-      </c>
-      <c r="D398" t="n">
-        <v>-0.07749798524611151</v>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" s="1" t="n">
-        <v>397</v>
-      </c>
-      <c r="B399" t="n">
-        <v>71.88378597001854</v>
-      </c>
-      <c r="C399" t="n">
-        <v>71.93106447231408</v>
-      </c>
-      <c r="D399" t="n">
-        <v>-0.04727850229554065</v>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" s="1" t="n">
-        <v>398</v>
-      </c>
-      <c r="B400" t="n">
-        <v>71.89015132319577</v>
-      </c>
-      <c r="C400" t="n">
-        <v>71.94566489530656</v>
-      </c>
-      <c r="D400" t="n">
-        <v>-0.05551357211079733</v>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" s="1" t="n">
-        <v>399</v>
-      </c>
-      <c r="B401" t="n">
-        <v>71.90119163242606</v>
-      </c>
-      <c r="C401" t="n">
-        <v>71.95418381170303</v>
-      </c>
-      <c r="D401" t="n">
-        <v>-0.05299217927696986</v>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" s="1" t="n">
-        <v>400</v>
-      </c>
-      <c r="B402" t="n">
-        <v>71.93291316460358</v>
-      </c>
-      <c r="C402" t="n">
-        <v>71.94836673290547</v>
-      </c>
-      <c r="D402" t="n">
-        <v>-0.01545356830189348</v>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" s="1" t="n">
-        <v>401</v>
-      </c>
-      <c r="B403" t="n">
-        <v>72.54051024640367</v>
-      </c>
-      <c r="C403" t="n">
-        <v>72.62042245954588</v>
-      </c>
-      <c r="D403" t="n">
-        <v>-0.07991221314220809</v>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" s="1" t="n">
-        <v>402</v>
-      </c>
-      <c r="B404" t="n">
-        <v>72.55754101170137</v>
-      </c>
-      <c r="C404" t="n">
-        <v>72.69330687648679</v>
-      </c>
-      <c r="D404" t="n">
-        <v>-0.1357658647854123</v>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" s="1" t="n">
-        <v>403</v>
-      </c>
-      <c r="B405" t="n">
-        <v>72.56308995186718</v>
-      </c>
-      <c r="C405" t="n">
-        <v>72.65042252467485</v>
-      </c>
-      <c r="D405" t="n">
-        <v>-0.08733257280766793</v>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" s="1" t="n">
-        <v>404</v>
-      </c>
-      <c r="B406" t="n">
-        <v>72.60197431064354</v>
-      </c>
-      <c r="C406" t="n">
-        <v>72.6074759323056</v>
-      </c>
-      <c r="D406" t="n">
-        <v>-0.005501621662062917</v>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" s="1" t="n">
-        <v>405</v>
-      </c>
-      <c r="B407" t="n">
-        <v>72.60781592713828</v>
-      </c>
-      <c r="C407" t="n">
-        <v>72.62184330124411</v>
-      </c>
-      <c r="D407" t="n">
-        <v>-0.01402737410583654</v>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" s="1" t="n">
-        <v>406</v>
-      </c>
-      <c r="B408" t="n">
-        <v>72.61035753752425</v>
-      </c>
-      <c r="C408" t="n">
-        <v>72.6141927264421</v>
-      </c>
-      <c r="D408" t="n">
-        <v>-0.003835188917847177</v>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" s="1" t="n">
-        <v>407</v>
-      </c>
-      <c r="B409" t="n">
-        <v>72.62590639349041</v>
-      </c>
-      <c r="C409" t="n">
-        <v>72.66444497053232</v>
-      </c>
-      <c r="D409" t="n">
-        <v>-0.03853857704190489</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" s="1" t="n">
-        <v>408</v>
-      </c>
-      <c r="B410" t="n">
-        <v>72.62745163605076</v>
-      </c>
-      <c r="C410" t="n">
-        <v>72.7312849446099</v>
-      </c>
-      <c r="D410" t="n">
-        <v>-0.1038333085591319</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" s="1" t="n">
-        <v>409</v>
-      </c>
-      <c r="B411" t="n">
-        <v>72.66597118617679</v>
-      </c>
-      <c r="C411" t="n">
-        <v>72.72520575095218</v>
-      </c>
-      <c r="D411" t="n">
-        <v>-0.05923456477539446</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" s="1" t="n">
-        <v>410</v>
-      </c>
-      <c r="B412" t="n">
-        <v>72.70053223584455</v>
-      </c>
-      <c r="C412" t="n">
-        <v>72.70471271345909</v>
-      </c>
-      <c r="D412" t="n">
-        <v>-0.004180477614539768</v>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" s="1" t="n">
-        <v>411</v>
-      </c>
-      <c r="B413" t="n">
-        <v>72.72846665950716</v>
-      </c>
-      <c r="C413" t="n">
-        <v>72.72914772175997</v>
-      </c>
-      <c r="D413" t="n">
-        <v>-0.0006810622528092836</v>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" s="1" t="n">
-        <v>412</v>
-      </c>
-      <c r="B414" t="n">
-        <v>73.2136545210909</v>
-      </c>
-      <c r="C414" t="n">
-        <v>73.3342635231986</v>
-      </c>
-      <c r="D414" t="n">
-        <v>-0.1206090021076989</v>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" s="1" t="n">
-        <v>413</v>
-      </c>
-      <c r="B415" t="n">
-        <v>73.23941631275285</v>
-      </c>
-      <c r="C415" t="n">
-        <v>73.36159885734847</v>
-      </c>
-      <c r="D415" t="n">
-        <v>-0.1221825445956171</v>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" s="1" t="n">
-        <v>414</v>
-      </c>
-      <c r="B416" t="n">
-        <v>73.28684975731422</v>
-      </c>
-      <c r="C416" t="n">
-        <v>73.31048668729319</v>
-      </c>
-      <c r="D416" t="n">
-        <v>-0.02363692997897715</v>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" s="1" t="n">
-        <v>415</v>
-      </c>
-      <c r="B417" t="n">
-        <v>73.31487789094273</v>
-      </c>
-      <c r="C417" t="n">
-        <v>73.33741259512058</v>
-      </c>
-      <c r="D417" t="n">
-        <v>-0.02253470417785763</v>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" s="1" t="n">
-        <v>416</v>
-      </c>
-      <c r="B418" t="n">
-        <v>73.33946666027379</v>
-      </c>
-      <c r="C418" t="n">
-        <v>73.34861694370952</v>
-      </c>
-      <c r="D418" t="n">
-        <v>-0.009150283435729989</v>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" s="1" t="n">
-        <v>417</v>
-      </c>
-      <c r="B419" t="n">
-        <v>73.60841959050624</v>
-      </c>
-      <c r="C419" t="n">
-        <v>73.65883282553928</v>
-      </c>
-      <c r="D419" t="n">
-        <v>-0.05041323503303374</v>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" s="1" t="n">
-        <v>418</v>
-      </c>
-      <c r="B420" t="n">
-        <v>73.64424775235032</v>
-      </c>
-      <c r="C420" t="n">
-        <v>73.66453879508504</v>
-      </c>
-      <c r="D420" t="n">
-        <v>-0.02029104273471205</v>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" s="1" t="n">
-        <v>419</v>
-      </c>
-      <c r="B421" t="n">
-        <v>73.66019932508004</v>
-      </c>
-      <c r="C421" t="n">
-        <v>73.75237360991852</v>
-      </c>
-      <c r="D421" t="n">
-        <v>-0.09217428483847812</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" s="1" t="n">
-        <v>420</v>
-      </c>
-      <c r="B422" t="n">
-        <v>73.69863993928276</v>
-      </c>
-      <c r="C422" t="n">
-        <v>73.73405236580521</v>
-      </c>
-      <c r="D422" t="n">
-        <v>-0.03541242652245558</v>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" s="1" t="n">
-        <v>421</v>
-      </c>
-      <c r="B423" t="n">
-        <v>73.70565298271619</v>
-      </c>
-      <c r="C423" t="n">
-        <v>73.72313349643149</v>
-      </c>
-      <c r="D423" t="n">
-        <v>-0.01748051371529868</v>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" s="1" t="n">
-        <v>422</v>
-      </c>
-      <c r="B424" t="n">
-        <v>73.74007803672707</v>
-      </c>
-      <c r="C424" t="n">
-        <v>73.74247296829266</v>
-      </c>
-      <c r="D424" t="n">
-        <v>-0.002394931565589786</v>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" s="1" t="n">
-        <v>423</v>
-      </c>
-      <c r="B425" t="n">
-        <v>73.77190839336012</v>
-      </c>
-      <c r="C425" t="n">
-        <v>73.80823026529202</v>
-      </c>
-      <c r="D425" t="n">
-        <v>-0.03632187193190362</v>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" s="1" t="n">
-        <v>424</v>
-      </c>
-      <c r="B426" t="n">
-        <v>73.79667931426323</v>
-      </c>
-      <c r="C426" t="n">
-        <v>73.80781539731883</v>
-      </c>
-      <c r="D426" t="n">
-        <v>-0.01113608305560376</v>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" s="1" t="n">
-        <v>425</v>
-      </c>
-      <c r="B427" t="n">
-        <v>74.56539919837047</v>
-      </c>
-      <c r="C427" t="n">
-        <v>74.60673328261132</v>
-      </c>
-      <c r="D427" t="n">
-        <v>-0.0413340842408445</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" s="1" t="n">
-        <v>426</v>
-      </c>
-      <c r="B428" t="n">
-        <v>74.5711373518521</v>
-      </c>
-      <c r="C428" t="n">
-        <v>74.6683578140303</v>
-      </c>
-      <c r="D428" t="n">
-        <v>-0.0972204621781998</v>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" s="1" t="n">
-        <v>427</v>
-      </c>
-      <c r="B429" t="n">
-        <v>74.57353643820903</v>
-      </c>
-      <c r="C429" t="n">
-        <v>74.59139606059452</v>
-      </c>
-      <c r="D429" t="n">
-        <v>-0.01785962238548677</v>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" s="1" t="n">
-        <v>428</v>
-      </c>
-      <c r="B430" t="n">
-        <v>74.60402462480705</v>
-      </c>
-      <c r="C430" t="n">
-        <v>74.77931255878758</v>
-      </c>
-      <c r="D430" t="n">
-        <v>-0.1752879339805276</v>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" s="1" t="n">
-        <v>429</v>
-      </c>
-      <c r="B431" t="n">
-        <v>74.62259029989401</v>
-      </c>
-      <c r="C431" t="n">
-        <v>74.74096799883111</v>
-      </c>
-      <c r="D431" t="n">
-        <v>-0.1183776989370955</v>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" s="1" t="n">
-        <v>430</v>
-      </c>
-      <c r="B432" t="n">
-        <v>74.6415684391911</v>
-      </c>
-      <c r="C432" t="n">
-        <v>74.70329754137661</v>
-      </c>
-      <c r="D432" t="n">
-        <v>-0.06172910218550953</v>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" s="1" t="n">
-        <v>431</v>
-      </c>
-      <c r="B433" t="n">
-        <v>74.64464200872301</v>
-      </c>
-      <c r="C433" t="n">
-        <v>74.66958029219687</v>
-      </c>
-      <c r="D433" t="n">
-        <v>-0.02493828347385829</v>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" s="1" t="n">
-        <v>432</v>
-      </c>
-      <c r="B434" t="n">
-        <v>74.72872483831236</v>
-      </c>
-      <c r="C434" t="n">
-        <v>74.72950110253903</v>
-      </c>
-      <c r="D434" t="n">
-        <v>-0.0007762642266726516</v>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" s="1" t="n">
-        <v>433</v>
-      </c>
-      <c r="B435" t="n">
-        <v>75.63737299742544</v>
-      </c>
-      <c r="C435" t="n">
-        <v>75.81757262825555</v>
-      </c>
-      <c r="D435" t="n">
-        <v>-0.1801996308301028</v>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" s="1" t="n">
-        <v>434</v>
-      </c>
-      <c r="B436" t="n">
-        <v>75.63764211421775</v>
-      </c>
-      <c r="C436" t="n">
-        <v>75.81564080743338</v>
-      </c>
-      <c r="D436" t="n">
-        <v>-0.1779986932156277</v>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" s="1" t="n">
-        <v>435</v>
-      </c>
-      <c r="B437" t="n">
-        <v>75.64611603982338</v>
-      </c>
-      <c r="C437" t="n">
-        <v>75.77966518552867</v>
-      </c>
-      <c r="D437" t="n">
-        <v>-0.1335491457052882</v>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" s="1" t="n">
-        <v>436</v>
-      </c>
-      <c r="B438" t="n">
-        <v>75.65423225244174</v>
-      </c>
-      <c r="C438" t="n">
-        <v>75.73136551913615</v>
-      </c>
-      <c r="D438" t="n">
-        <v>-0.07713326669440335</v>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" s="1" t="n">
-        <v>437</v>
-      </c>
-      <c r="B439" t="n">
-        <v>75.69826388148397</v>
-      </c>
-      <c r="C439" t="n">
-        <v>75.73546290743093</v>
-      </c>
-      <c r="D439" t="n">
-        <v>-0.03719902594696123</v>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" s="1" t="n">
-        <v>438</v>
-      </c>
-      <c r="B440" t="n">
-        <v>75.70467966499109</v>
-      </c>
-      <c r="C440" t="n">
-        <v>75.83886473096231</v>
-      </c>
-      <c r="D440" t="n">
-        <v>-0.1341850659712236</v>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" s="1" t="n">
-        <v>439</v>
-      </c>
-      <c r="B441" t="n">
-        <v>75.72094175011041</v>
-      </c>
-      <c r="C441" t="n">
-        <v>75.72872528634745</v>
-      </c>
-      <c r="D441" t="n">
-        <v>-0.007783536237042199</v>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" s="1" t="n">
-        <v>440</v>
-      </c>
-      <c r="B442" t="n">
-        <v>75.73799375242415</v>
-      </c>
-      <c r="C442" t="n">
-        <v>75.81495776513137</v>
-      </c>
-      <c r="D442" t="n">
-        <v>-0.0769640127072222</v>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" s="1" t="n">
-        <v>441</v>
-      </c>
-      <c r="B443" t="n">
-        <v>75.73933607196061</v>
-      </c>
-      <c r="C443" t="n">
-        <v>75.84757798732035</v>
-      </c>
-      <c r="D443" t="n">
-        <v>-0.1082419153597414</v>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" s="1" t="n">
-        <v>442</v>
-      </c>
-      <c r="B444" t="n">
-        <v>75.84092003291421</v>
-      </c>
-      <c r="C444" t="n">
-        <v>75.84369698557045</v>
-      </c>
-      <c r="D444" t="n">
-        <v>-0.002776952656233789</v>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" s="1" t="n">
-        <v>443</v>
-      </c>
-      <c r="B445" t="n">
-        <v>75.95944880766484</v>
-      </c>
-      <c r="C445" t="n">
-        <v>75.79490290046056</v>
-      </c>
-      <c r="D445" t="n">
-        <v>0.1645459072042854</v>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" s="1" t="n">
-        <v>444</v>
-      </c>
-      <c r="B446" t="n">
-        <v>75.96002985646558</v>
-      </c>
-      <c r="C446" t="n">
-        <v>75.71719047149121</v>
-      </c>
-      <c r="D446" t="n">
-        <v>0.2428393849743742</v>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" s="1" t="n">
-        <v>445</v>
-      </c>
-      <c r="B447" t="n">
-        <v>77.70033472658513</v>
-      </c>
-      <c r="C447" t="n">
-        <v>77.7493665035842</v>
-      </c>
-      <c r="D447" t="n">
-        <v>-0.04903177699907246</v>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" s="1" t="n">
-        <v>446</v>
-      </c>
-      <c r="B448" t="n">
-        <v>77.7378390956043</v>
-      </c>
-      <c r="C448" t="n">
-        <v>77.80302854446698</v>
-      </c>
-      <c r="D448" t="n">
-        <v>-0.0651894488626823</v>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" s="1" t="n">
-        <v>447</v>
-      </c>
-      <c r="B449" t="n">
-        <v>77.73808750249808</v>
-      </c>
-      <c r="C449" t="n">
-        <v>77.8430727971225</v>
-      </c>
-      <c r="D449" t="n">
-        <v>-0.1049852946244272</v>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" s="1" t="n">
-        <v>448</v>
-      </c>
-      <c r="B450" t="n">
-        <v>77.74024817346145</v>
-      </c>
-      <c r="C450" t="n">
-        <v>77.8523033394942</v>
-      </c>
-      <c r="D450" t="n">
-        <v>-0.1120551660327465</v>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" s="1" t="n">
-        <v>449</v>
-      </c>
-      <c r="B451" t="n">
-        <v>77.75292822666802</v>
-      </c>
-      <c r="C451" t="n">
-        <v>77.80370619281786</v>
-      </c>
-      <c r="D451" t="n">
-        <v>-0.05077796614983754</v>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" s="1" t="n">
-        <v>450</v>
-      </c>
-      <c r="B452" t="n">
-        <v>77.76031045282036</v>
-      </c>
-      <c r="C452" t="n">
-        <v>77.89354156158845</v>
-      </c>
-      <c r="D452" t="n">
-        <v>-0.1332311087680864</v>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" s="1" t="n">
-        <v>451</v>
-      </c>
-      <c r="B453" t="n">
-        <v>77.81589692868248</v>
-      </c>
-      <c r="C453" t="n">
-        <v>77.84252354629496</v>
-      </c>
-      <c r="D453" t="n">
-        <v>-0.02662661761247875</v>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" s="1" t="n">
-        <v>452</v>
-      </c>
-      <c r="B454" t="n">
-        <v>77.82419978628914</v>
-      </c>
-      <c r="C454" t="n">
-        <v>77.86667728432599</v>
-      </c>
-      <c r="D454" t="n">
-        <v>-0.04247749803684542</v>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" s="1" t="n">
-        <v>453</v>
-      </c>
-      <c r="B455" t="n">
-        <v>77.84130159628872</v>
-      </c>
-      <c r="C455" t="n">
-        <v>77.80568619183697</v>
-      </c>
-      <c r="D455" t="n">
-        <v>0.03561540445174671</v>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" s="1" t="n">
-        <v>454</v>
-      </c>
-      <c r="B456" t="n">
-        <v>77.86285598714552</v>
-      </c>
-      <c r="C456" t="n">
-        <v>77.90486934785092</v>
-      </c>
-      <c r="D456" t="n">
-        <v>-0.04201336070539696</v>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" s="1" t="n">
-        <v>455</v>
-      </c>
-      <c r="B457" t="n">
-        <v>78.97164413292943</v>
-      </c>
-      <c r="C457" t="n">
-        <v>79.02876736384877</v>
-      </c>
-      <c r="D457" t="n">
-        <v>-0.05712323091934479</v>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" s="1" t="n">
-        <v>456</v>
-      </c>
-      <c r="B458" t="n">
-        <v>78.97335089990953</v>
-      </c>
-      <c r="C458" t="n">
-        <v>78.99899354768318</v>
-      </c>
-      <c r="D458" t="n">
-        <v>-0.02564264777365111</v>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" s="1" t="n">
-        <v>457</v>
-      </c>
-      <c r="B459" t="n">
-        <v>78.99869229136834</v>
-      </c>
-      <c r="C459" t="n">
-        <v>79.04585123498111</v>
-      </c>
-      <c r="D459" t="n">
-        <v>-0.04715894361277151</v>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" s="1" t="n">
-        <v>458</v>
-      </c>
-      <c r="B460" t="n">
-        <v>79.01743233094759</v>
-      </c>
-      <c r="C460" t="n">
-        <v>79.12326678212007</v>
-      </c>
-      <c r="D460" t="n">
-        <v>-0.105834451172484</v>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" s="1" t="n">
-        <v>459</v>
-      </c>
-      <c r="B461" t="n">
-        <v>79.04840271020485</v>
-      </c>
-      <c r="C461" t="n">
-        <v>79.11781671342069</v>
-      </c>
-      <c r="D461" t="n">
-        <v>-0.06941400321584013</v>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" s="1" t="n">
-        <v>460</v>
-      </c>
-      <c r="B462" t="n">
-        <v>79.0744085443945</v>
-      </c>
-      <c r="C462" t="n">
-        <v>79.08456394136127</v>
-      </c>
-      <c r="D462" t="n">
-        <v>-0.01015539696676626</v>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" s="1" t="n">
-        <v>461</v>
-      </c>
-      <c r="B463" t="n">
-        <v>79.11406551325241</v>
-      </c>
-      <c r="C463" t="n">
-        <v>79.11406884764111</v>
-      </c>
-      <c r="D463" t="n">
-        <v>-3.3343886940429e-06</v>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" s="1" t="n">
-        <v>462</v>
-      </c>
-      <c r="B464" t="n">
-        <v>79.12806690529868</v>
-      </c>
-      <c r="C464" t="n">
-        <v>79.1737697078004</v>
-      </c>
-      <c r="D464" t="n">
-        <v>-0.04570280250172232</v>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" s="1" t="n">
-        <v>463</v>
-      </c>
-      <c r="B465" t="n">
-        <v>79.12882933332644</v>
-      </c>
-      <c r="C465" t="n">
-        <v>79.13455799023657</v>
-      </c>
-      <c r="D465" t="n">
-        <v>-0.005728656910136465</v>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" s="1" t="n">
-        <v>464</v>
-      </c>
-      <c r="B466" t="n">
-        <v>79.14287291911945</v>
-      </c>
-      <c r="C466" t="n">
-        <v>79.14637565834713</v>
-      </c>
-      <c r="D466" t="n">
-        <v>-0.003502739227670304</v>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" s="1" t="n">
-        <v>465</v>
-      </c>
-      <c r="B467" t="n">
-        <v>79.16218949123848</v>
-      </c>
-      <c r="C467" t="n">
-        <v>79.16750222862828</v>
-      </c>
-      <c r="D467" t="n">
-        <v>-0.005312737389800759</v>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" s="1" t="n">
-        <v>466</v>
-      </c>
-      <c r="B468" t="n">
-        <v>79.2532900847015</v>
-      </c>
-      <c r="C468" t="n">
-        <v>79.14801302944986</v>
-      </c>
-      <c r="D468" t="n">
-        <v>0.1052770552516478</v>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" s="1" t="n">
-        <v>467</v>
-      </c>
-      <c r="B469" t="n">
-        <v>79.74054223481923</v>
-      </c>
-      <c r="C469" t="n">
-        <v>79.08325212964328</v>
-      </c>
-      <c r="D469" t="n">
-        <v>0.6572901051759459</v>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" s="1" t="n">
-        <v>468</v>
-      </c>
-      <c r="B470" t="n">
-        <v>80.47133733570057</v>
-      </c>
-      <c r="C470" t="n">
-        <v>80.68335352830631</v>
-      </c>
-      <c r="D470" t="n">
-        <v>-0.2120161926057449</v>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" s="1" t="n">
-        <v>469</v>
-      </c>
-      <c r="B471" t="n">
-        <v>80.55035400592273</v>
-      </c>
-      <c r="C471" t="n">
-        <v>80.69236142919259</v>
-      </c>
-      <c r="D471" t="n">
-        <v>-0.1420074232698596</v>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" s="1" t="n">
-        <v>470</v>
-      </c>
-      <c r="B472" t="n">
-        <v>80.55047571336036</v>
-      </c>
-      <c r="C472" t="n">
-        <v>80.66800195525448</v>
-      </c>
-      <c r="D472" t="n">
-        <v>-0.1175262418941259</v>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" s="1" t="n">
-        <v>471</v>
-      </c>
-      <c r="B473" t="n">
-        <v>80.55053617266364</v>
-      </c>
-      <c r="C473" t="n">
-        <v>80.67734625866576</v>
-      </c>
-      <c r="D473" t="n">
-        <v>-0.1268100860021235</v>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" s="1" t="n">
-        <v>472</v>
-      </c>
-      <c r="B474" t="n">
-        <v>80.5742934151987</v>
-      </c>
-      <c r="C474" t="n">
-        <v>80.58800243564768</v>
-      </c>
-      <c r="D474" t="n">
-        <v>-0.01370902044898514</v>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" s="1" t="n">
-        <v>473</v>
-      </c>
-      <c r="B475" t="n">
-        <v>80.57522310309096</v>
-      </c>
-      <c r="C475" t="n">
-        <v>80.63087490810962</v>
-      </c>
-      <c r="D475" t="n">
-        <v>-0.05565180501865541</v>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" s="1" t="n">
-        <v>474</v>
-      </c>
-      <c r="B476" t="n">
-        <v>80.5787970110144</v>
-      </c>
-      <c r="C476" t="n">
-        <v>80.5882263038703</v>
-      </c>
-      <c r="D476" t="n">
-        <v>-0.009429292855898552</v>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" s="1" t="n">
-        <v>475</v>
-      </c>
-      <c r="B477" t="n">
-        <v>80.58564130942608</v>
-      </c>
-      <c r="C477" t="n">
-        <v>80.63861018681953</v>
-      </c>
-      <c r="D477" t="n">
-        <v>-0.05296887739345379</v>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" s="1" t="n">
-        <v>476</v>
-      </c>
-      <c r="B478" t="n">
-        <v>80.58950268617039</v>
-      </c>
-      <c r="C478" t="n">
-        <v>80.66853594648551</v>
-      </c>
-      <c r="D478" t="n">
-        <v>-0.07903326031511426</v>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" s="1" t="n">
-        <v>477</v>
-      </c>
-      <c r="B479" t="n">
-        <v>80.60391348266646</v>
-      </c>
-      <c r="C479" t="n">
-        <v>80.6118972557652</v>
-      </c>
-      <c r="D479" t="n">
-        <v>-0.007983773098743541</v>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" s="1" t="n">
-        <v>478</v>
-      </c>
-      <c r="B480" t="n">
-        <v>80.61149313293552</v>
-      </c>
-      <c r="C480" t="n">
-        <v>80.73223915786942</v>
-      </c>
-      <c r="D480" t="n">
-        <v>-0.1207460249338936</v>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" s="1" t="n">
-        <v>479</v>
-      </c>
-      <c r="B481" t="n">
-        <v>80.63199130737205</v>
-      </c>
-      <c r="C481" t="n">
-        <v>80.68899516877705</v>
-      </c>
-      <c r="D481" t="n">
-        <v>-0.05700386140500768</v>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" s="1" t="n">
-        <v>480</v>
-      </c>
-      <c r="B482" t="n">
-        <v>80.65281007189321</v>
-      </c>
-      <c r="C482" t="n">
-        <v>80.67804360774402</v>
-      </c>
-      <c r="D482" t="n">
-        <v>-0.02523353585080201</v>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" s="1" t="n">
-        <v>481</v>
-      </c>
-      <c r="B483" t="n">
-        <v>80.66573462569774</v>
-      </c>
-      <c r="C483" t="n">
-        <v>80.71184772142088</v>
-      </c>
-      <c r="D483" t="n">
-        <v>-0.04611309572314326</v>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" s="1" t="n">
-        <v>482</v>
-      </c>
-      <c r="B484" t="n">
-        <v>80.70901236617874</v>
-      </c>
-      <c r="C484" t="n">
-        <v>80.72101832619511</v>
-      </c>
-      <c r="D484" t="n">
-        <v>-0.01200596001636711</v>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" s="1" t="n">
-        <v>483</v>
-      </c>
-      <c r="B485" t="n">
-        <v>81.64774481382922</v>
-      </c>
-      <c r="C485" t="n">
-        <v>81.68489847674815</v>
-      </c>
-      <c r="D485" t="n">
-        <v>-0.03715366291892508</v>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" s="1" t="n">
-        <v>484</v>
-      </c>
-      <c r="B486" t="n">
-        <v>81.67745820855869</v>
-      </c>
-      <c r="C486" t="n">
-        <v>81.70055190834557</v>
-      </c>
-      <c r="D486" t="n">
-        <v>-0.0230936997868838</v>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" s="1" t="n">
-        <v>485</v>
-      </c>
-      <c r="B487" t="n">
-        <v>81.69917034256379</v>
-      </c>
-      <c r="C487" t="n">
-        <v>81.72655176505367</v>
-      </c>
-      <c r="D487" t="n">
-        <v>-0.0273814224898814</v>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" s="1" t="n">
-        <v>486</v>
-      </c>
-      <c r="B488" t="n">
-        <v>81.75042171299161</v>
-      </c>
-      <c r="C488" t="n">
-        <v>81.84117831455646</v>
-      </c>
-      <c r="D488" t="n">
-        <v>-0.09075660156484844</v>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" s="1" t="n">
-        <v>487</v>
-      </c>
-      <c r="B489" t="n">
-        <v>81.75048633356047</v>
-      </c>
-      <c r="C489" t="n">
-        <v>81.78097781709199</v>
-      </c>
-      <c r="D489" t="n">
-        <v>-0.0304914835315202</v>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" s="1" t="n">
-        <v>488</v>
-      </c>
-      <c r="B490" t="n">
-        <v>81.78260091640369</v>
-      </c>
-      <c r="C490" t="n">
-        <v>81.85561512873669</v>
-      </c>
-      <c r="D490" t="n">
-        <v>-0.07301421233299266</v>
-      </c>
-    </row>
-    <row r="491">
-      <c r="A491" s="1" t="n">
-        <v>489</v>
-      </c>
-      <c r="B491" t="n">
-        <v>81.78475938181639</v>
-      </c>
-      <c r="C491" t="n">
-        <v>81.86353579885767</v>
-      </c>
-      <c r="D491" t="n">
-        <v>-0.0787764170412828</v>
-      </c>
-    </row>
-    <row r="492">
-      <c r="A492" s="1" t="n">
-        <v>490</v>
-      </c>
-      <c r="B492" t="n">
-        <v>85.51483951483398</v>
-      </c>
-      <c r="C492" t="n">
-        <v>85.56759948299742</v>
-      </c>
-      <c r="D492" t="n">
-        <v>-0.05275996816344275</v>
-      </c>
-    </row>
-    <row r="493">
-      <c r="A493" s="1" t="n">
-        <v>491</v>
-      </c>
-      <c r="B493" t="n">
-        <v>85.55051633591067</v>
-      </c>
-      <c r="C493" t="n">
-        <v>85.57702763843545</v>
-      </c>
-      <c r="D493" t="n">
-        <v>-0.0265113025247814</v>
-      </c>
-    </row>
-    <row r="494">
-      <c r="A494" s="1" t="n">
-        <v>492</v>
-      </c>
-      <c r="B494" t="n">
-        <v>85.55183678408926</v>
-      </c>
-      <c r="C494" t="n">
-        <v>85.6748546535634</v>
-      </c>
-      <c r="D494" t="n">
-        <v>-0.1230178694741397</v>
-      </c>
-    </row>
-    <row r="495">
-      <c r="A495" s="1" t="n">
-        <v>493</v>
-      </c>
-      <c r="B495" t="n">
-        <v>85.57483978757411</v>
-      </c>
-      <c r="C495" t="n">
-        <v>85.6002362880435</v>
-      </c>
-      <c r="D495" t="n">
-        <v>-0.02539650046939812</v>
-      </c>
-    </row>
-    <row r="496">
-      <c r="A496" s="1" t="n">
-        <v>494</v>
-      </c>
-      <c r="B496" t="n">
-        <v>85.59189558454955</v>
-      </c>
-      <c r="C496" t="n">
-        <v>85.64621917841006</v>
-      </c>
-      <c r="D496" t="n">
-        <v>-0.05432359386051644</v>
-      </c>
-    </row>
-    <row r="497">
-      <c r="A497" s="1" t="n">
-        <v>495</v>
-      </c>
-      <c r="B497" t="n">
-        <v>85.59293931394168</v>
-      </c>
-      <c r="C497" t="n">
-        <v>85.61065979661515</v>
-      </c>
-      <c r="D497" t="n">
-        <v>-0.01772048267346804</v>
-      </c>
-    </row>
-    <row r="498">
-      <c r="A498" s="1" t="n">
-        <v>496</v>
-      </c>
-      <c r="B498" t="n">
-        <v>85.6362274300987</v>
-      </c>
-      <c r="C498" t="n">
-        <v>85.6896177295372</v>
-      </c>
-      <c r="D498" t="n">
-        <v>-0.05339029943850448</v>
-      </c>
-    </row>
-    <row r="499">
-      <c r="A499" s="1" t="n">
-        <v>497</v>
-      </c>
-      <c r="B499" t="n">
-        <v>85.64303597543606</v>
-      </c>
-      <c r="C499" t="n">
-        <v>85.69638308144818</v>
-      </c>
-      <c r="D499" t="n">
-        <v>-0.05334710601211157</v>
-      </c>
-    </row>
-    <row r="500">
-      <c r="A500" s="1" t="n">
-        <v>498</v>
-      </c>
-      <c r="B500" t="n">
-        <v>85.81170452212223</v>
-      </c>
-      <c r="C500" t="n">
-        <v>85.68077631567176</v>
-      </c>
-      <c r="D500" t="n">
-        <v>0.1309282064504629</v>
-      </c>
-    </row>
-    <row r="501">
-      <c r="A501" s="1" t="n">
-        <v>499</v>
-      </c>
-      <c r="B501" t="n">
-        <v>86.03779610934191</v>
-      </c>
-      <c r="C501" t="n">
-        <v>86.14020213977373</v>
-      </c>
-      <c r="D501" t="n">
-        <v>-0.1024060304318226</v>
-      </c>
-    </row>
-    <row r="502">
-      <c r="A502" s="1" t="n">
-        <v>500</v>
-      </c>
-      <c r="B502" t="n">
-        <v>86.04175154594633</v>
-      </c>
-      <c r="C502" t="n">
-        <v>86.0679713792734</v>
-      </c>
-      <c r="D502" t="n">
-        <v>-0.026219833327076</v>
-      </c>
-    </row>
-    <row r="503">
-      <c r="A503" s="1" t="n">
-        <v>501</v>
-      </c>
-      <c r="B503" t="n">
-        <v>86.04538319293977</v>
-      </c>
-      <c r="C503" t="n">
-        <v>86.12889732837741</v>
-      </c>
-      <c r="D503" t="n">
-        <v>-0.08351413543763897</v>
-      </c>
-    </row>
-    <row r="504">
-      <c r="A504" s="1" t="n">
-        <v>502</v>
-      </c>
-      <c r="B504" t="n">
-        <v>86.05771866136051</v>
-      </c>
-      <c r="C504" t="n">
-        <v>86.17371763271001</v>
-      </c>
-      <c r="D504" t="n">
-        <v>-0.115998971349498</v>
-      </c>
-    </row>
-    <row r="505">
-      <c r="A505" s="1" t="n">
-        <v>503</v>
-      </c>
-      <c r="B505" t="n">
-        <v>86.07431465865756</v>
-      </c>
-      <c r="C505" t="n">
-        <v>86.23940215750737</v>
-      </c>
-      <c r="D505" t="n">
-        <v>-0.1650874988498146</v>
-      </c>
-    </row>
-    <row r="506">
-      <c r="A506" s="1" t="n">
-        <v>504</v>
-      </c>
-      <c r="B506" t="n">
-        <v>86.07619458495289</v>
-      </c>
-      <c r="C506" t="n">
-        <v>86.18129231472282</v>
-      </c>
-      <c r="D506" t="n">
-        <v>-0.1050977297699376</v>
-      </c>
-    </row>
-    <row r="507">
-      <c r="A507" s="1" t="n">
-        <v>505</v>
-      </c>
-      <c r="B507" t="n">
-        <v>86.08229333648941</v>
-      </c>
-      <c r="C507" t="n">
-        <v>86.09714258464653</v>
-      </c>
-      <c r="D507" t="n">
-        <v>-0.01484924815711963</v>
-      </c>
-    </row>
-    <row r="508">
-      <c r="A508" s="1" t="n">
-        <v>506</v>
-      </c>
-      <c r="B508" t="n">
-        <v>86.09112993254575</v>
-      </c>
-      <c r="C508" t="n">
-        <v>86.1914827129706</v>
-      </c>
-      <c r="D508" t="n">
-        <v>-0.1003527804248421</v>
-      </c>
-    </row>
-    <row r="509">
-      <c r="A509" s="1" t="n">
-        <v>507</v>
-      </c>
-      <c r="B509" t="n">
-        <v>86.12196446875467</v>
-      </c>
-      <c r="C509" t="n">
-        <v>86.21755621247843</v>
-      </c>
-      <c r="D509" t="n">
-        <v>-0.09559174372375878</v>
-      </c>
-    </row>
-    <row r="510">
-      <c r="A510" s="1" t="n">
-        <v>508</v>
-      </c>
-      <c r="B510" t="n">
-        <v>86.13641298725486</v>
-      </c>
-      <c r="C510" t="n">
-        <v>86.24152871930129</v>
-      </c>
-      <c r="D510" t="n">
-        <v>-0.1051157320464284</v>
-      </c>
-    </row>
-    <row r="511">
-      <c r="A511" s="1" t="n">
-        <v>509</v>
-      </c>
-      <c r="B511" t="n">
-        <v>86.14458109541978</v>
-      </c>
-      <c r="C511" t="n">
-        <v>86.16038119145681</v>
-      </c>
-      <c r="D511" t="n">
-        <v>-0.01580009603702592</v>
-      </c>
-    </row>
-    <row r="512">
-      <c r="A512" s="1" t="n">
-        <v>510</v>
-      </c>
-      <c r="B512" t="n">
-        <v>86.1974824861899</v>
-      </c>
-      <c r="C512" t="n">
-        <v>86.14841310588811</v>
-      </c>
-      <c r="D512" t="n">
-        <v>0.04906938030178765</v>
-      </c>
-    </row>
-    <row r="513">
-      <c r="A513" s="1" t="n">
-        <v>511</v>
-      </c>
-      <c r="B513" t="n">
-        <v>86.22161651054886</v>
-      </c>
-      <c r="C513" t="n">
-        <v>86.2348615776642</v>
-      </c>
-      <c r="D513" t="n">
-        <v>-0.01324506711534923</v>
-      </c>
-    </row>
-    <row r="514">
-      <c r="A514" s="1" t="n">
-        <v>512</v>
-      </c>
-      <c r="B514" t="n">
-        <v>86.69800582866489</v>
-      </c>
-      <c r="C514" t="n">
-        <v>86.72426598322525</v>
-      </c>
-      <c r="D514" t="n">
-        <v>-0.02626015456036157</v>
-      </c>
-    </row>
-    <row r="515">
-      <c r="A515" s="1" t="n">
-        <v>513</v>
-      </c>
-      <c r="B515" t="n">
-        <v>86.72893137484208</v>
-      </c>
-      <c r="C515" t="n">
-        <v>86.76832630940018</v>
-      </c>
-      <c r="D515" t="n">
-        <v>-0.0393949345581035</v>
-      </c>
-    </row>
-    <row r="516">
-      <c r="A516" s="1" t="n">
-        <v>514</v>
-      </c>
-      <c r="B516" t="n">
-        <v>86.74477373514253</v>
-      </c>
-      <c r="C516" t="n">
-        <v>86.81415561561731</v>
-      </c>
-      <c r="D516" t="n">
-        <v>-0.06938188047477922</v>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" s="1" t="n">
-        <v>515</v>
-      </c>
-      <c r="B517" t="n">
-        <v>86.75251578789577</v>
-      </c>
-      <c r="C517" t="n">
-        <v>86.86598063072532</v>
-      </c>
-      <c r="D517" t="n">
-        <v>-0.1134648428295435</v>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" s="1" t="n">
-        <v>516</v>
-      </c>
-      <c r="B518" t="n">
-        <v>86.76079734133569</v>
-      </c>
-      <c r="C518" t="n">
-        <v>86.91880098839721</v>
-      </c>
-      <c r="D518" t="n">
-        <v>-0.1580036470615198</v>
-      </c>
-    </row>
-    <row r="519">
-      <c r="A519" s="1" t="n">
-        <v>517</v>
-      </c>
-      <c r="B519" t="n">
-        <v>86.79946579366357</v>
-      </c>
-      <c r="C519" t="n">
-        <v>86.9172632193835</v>
-      </c>
-      <c r="D519" t="n">
-        <v>-0.1177974257199281</v>
-      </c>
-    </row>
-    <row r="520">
-      <c r="A520" s="1" t="n">
-        <v>518</v>
-      </c>
-      <c r="B520" t="n">
-        <v>86.84280362069104</v>
-      </c>
-      <c r="C520" t="n">
-        <v>86.8251202776753</v>
-      </c>
-      <c r="D520" t="n">
-        <v>0.01768334301574725</v>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" s="1" t="n">
-        <v>519</v>
-      </c>
-      <c r="B521" t="n">
-        <v>86.859252061644</v>
-      </c>
-      <c r="C521" t="n">
-        <v>86.91985068947649</v>
-      </c>
-      <c r="D521" t="n">
-        <v>-0.06059862783249059</v>
-      </c>
-    </row>
-    <row r="522">
-      <c r="A522" s="1" t="n">
-        <v>520</v>
-      </c>
-      <c r="B522" t="n">
-        <v>86.87222231359203</v>
-      </c>
-      <c r="C522" t="n">
-        <v>86.91512705412772</v>
-      </c>
-      <c r="D522" t="n">
-        <v>-0.04290474053568971</v>
-      </c>
-    </row>
-    <row r="523">
-      <c r="A523" s="1" t="n">
-        <v>521</v>
-      </c>
-      <c r="B523" t="n">
-        <v>86.87729665636306</v>
-      </c>
-      <c r="C523" t="n">
-        <v>86.88236118943131</v>
-      </c>
-      <c r="D523" t="n">
-        <v>-0.005064533068249943</v>
-      </c>
-    </row>
-    <row r="524">
-      <c r="A524" s="1" t="n">
-        <v>522</v>
-      </c>
-      <c r="B524" t="n">
-        <v>86.89285721757231</v>
-      </c>
-      <c r="C524" t="n">
-        <v>86.90068141236289</v>
-      </c>
-      <c r="D524" t="n">
-        <v>-0.007824194790572392</v>
-      </c>
-    </row>
-    <row r="525">
-      <c r="A525" s="1" t="n">
-        <v>523</v>
-      </c>
-      <c r="B525" t="n">
-        <v>86.9557371167276</v>
-      </c>
-      <c r="C525" t="n">
-        <v>86.88761011659047</v>
-      </c>
-      <c r="D525" t="n">
-        <v>0.06812700013713879</v>
-      </c>
-    </row>
-    <row r="526">
-      <c r="A526" s="1" t="n">
-        <v>524</v>
-      </c>
-      <c r="B526" t="n">
-        <v>89.67337875686816</v>
-      </c>
-      <c r="C526" t="n">
-        <v>89.75076090480069</v>
-      </c>
-      <c r="D526" t="n">
-        <v>-0.07738214793252496</v>
-      </c>
-    </row>
-    <row r="527">
-      <c r="A527" s="1" t="n">
-        <v>525</v>
-      </c>
-      <c r="B527" t="n">
-        <v>89.68802592485508</v>
-      </c>
-      <c r="C527" t="n">
-        <v>89.75708430937951</v>
-      </c>
-      <c r="D527" t="n">
-        <v>-0.06905838452442481</v>
-      </c>
-    </row>
-    <row r="528">
-      <c r="A528" s="1" t="n">
-        <v>526</v>
-      </c>
-      <c r="B528" t="n">
-        <v>89.72775497401361</v>
-      </c>
-      <c r="C528" t="n">
-        <v>89.82705914366396</v>
-      </c>
-      <c r="D528" t="n">
-        <v>-0.09930416965035249</v>
-      </c>
-    </row>
-    <row r="529">
-      <c r="A529" s="1" t="n">
-        <v>527</v>
-      </c>
-      <c r="B529" t="n">
-        <v>89.74521356056842</v>
-      </c>
-      <c r="C529" t="n">
-        <v>89.81132255946247</v>
-      </c>
-      <c r="D529" t="n">
-        <v>-0.06610899889405175</v>
-      </c>
-    </row>
-    <row r="530">
-      <c r="A530" s="1" t="n">
-        <v>528</v>
-      </c>
-      <c r="B530" t="n">
-        <v>89.75177376160214</v>
-      </c>
-      <c r="C530" t="n">
-        <v>89.8715416039781</v>
-      </c>
-      <c r="D530" t="n">
-        <v>-0.1197678423759641</v>
-      </c>
-    </row>
-    <row r="531">
-      <c r="A531" s="1" t="n">
-        <v>529</v>
-      </c>
-      <c r="B531" t="n">
-        <v>89.75404583346176</v>
-      </c>
-      <c r="C531" t="n">
-        <v>89.839170228874</v>
-      </c>
-      <c r="D531" t="n">
-        <v>-0.08512439541223671</v>
-      </c>
-    </row>
-    <row r="532">
-      <c r="A532" s="1" t="n">
-        <v>530</v>
-      </c>
-      <c r="B532" t="n">
-        <v>89.76092140537477</v>
-      </c>
-      <c r="C532" t="n">
-        <v>89.857478064175</v>
-      </c>
-      <c r="D532" t="n">
-        <v>-0.09655665880022468</v>
-      </c>
-    </row>
-    <row r="533">
-      <c r="A533" s="1" t="n">
-        <v>531</v>
-      </c>
-      <c r="B533" t="n">
-        <v>89.80743802474757</v>
-      </c>
-      <c r="C533" t="n">
-        <v>89.82001197000059</v>
-      </c>
-      <c r="D533" t="n">
-        <v>-0.01257394525302402</v>
-      </c>
-    </row>
-    <row r="534">
-      <c r="A534" s="1" t="n">
-        <v>532</v>
-      </c>
-      <c r="B534" t="n">
-        <v>89.81830233276317</v>
-      </c>
-      <c r="C534" t="n">
-        <v>89.8809286510578</v>
-      </c>
-      <c r="D534" t="n">
-        <v>-0.06262631829463317</v>
-      </c>
-    </row>
-    <row r="535">
-      <c r="A535" s="1" t="n">
-        <v>533</v>
-      </c>
-      <c r="B535" t="n">
-        <v>89.82807626344827</v>
-      </c>
-      <c r="C535" t="n">
-        <v>89.89028993197886</v>
-      </c>
-      <c r="D535" t="n">
-        <v>-0.06221366853058896</v>
-      </c>
-    </row>
-    <row r="536">
-      <c r="A536" s="1" t="n">
-        <v>534</v>
-      </c>
-      <c r="B536" t="n">
-        <v>89.8297895480794</v>
-      </c>
-      <c r="C536" t="n">
-        <v>89.83671597912908</v>
-      </c>
-      <c r="D536" t="n">
-        <v>-0.006926431049677717</v>
-      </c>
-    </row>
-    <row r="537">
-      <c r="A537" s="1" t="n">
-        <v>535</v>
-      </c>
-      <c r="B537" t="n">
-        <v>89.8521122351852</v>
-      </c>
-      <c r="C537" t="n">
-        <v>89.86001676822352</v>
-      </c>
-      <c r="D537" t="n">
-        <v>-0.007904533038313843</v>
-      </c>
-    </row>
-    <row r="538">
-      <c r="A538" s="1" t="n">
-        <v>536</v>
-      </c>
-      <c r="B538" t="n">
-        <v>90.43423843465899</v>
-      </c>
-      <c r="C538" t="n">
-        <v>90.52469465854367</v>
-      </c>
-      <c r="D538" t="n">
-        <v>-0.09045622388467223</v>
-      </c>
-    </row>
-    <row r="539">
-      <c r="A539" s="1" t="n">
-        <v>537</v>
-      </c>
-      <c r="B539" t="n">
-        <v>90.46420684912846</v>
-      </c>
-      <c r="C539" t="n">
-        <v>90.58768153847373</v>
-      </c>
-      <c r="D539" t="n">
-        <v>-0.1234746893452723</v>
-      </c>
-    </row>
-    <row r="540">
-      <c r="A540" s="1" t="n">
-        <v>538</v>
-      </c>
-      <c r="B540" t="n">
-        <v>90.46632419517012</v>
-      </c>
-      <c r="C540" t="n">
-        <v>90.5368467585244</v>
-      </c>
-      <c r="D540" t="n">
-        <v>-0.07052256335428808</v>
-      </c>
-    </row>
-    <row r="541">
-      <c r="A541" s="1" t="n">
-        <v>539</v>
-      </c>
-      <c r="B541" t="n">
-        <v>90.47564035453271</v>
-      </c>
-      <c r="C541" t="n">
-        <v>90.55041194418692</v>
-      </c>
-      <c r="D541" t="n">
-        <v>-0.07477158965420472</v>
-      </c>
-    </row>
-    <row r="542">
-      <c r="A542" s="1" t="n">
-        <v>540</v>
-      </c>
-      <c r="B542" t="n">
-        <v>90.50123855444616</v>
-      </c>
-      <c r="C542" t="n">
-        <v>90.53109771843295</v>
-      </c>
-      <c r="D542" t="n">
-        <v>-0.02985916398678512</v>
-      </c>
-    </row>
-    <row r="543">
-      <c r="A543" s="1" t="n">
-        <v>541</v>
-      </c>
-      <c r="B543" t="n">
-        <v>90.53853259731599</v>
-      </c>
-      <c r="C543" t="n">
-        <v>90.55970015640337</v>
-      </c>
-      <c r="D543" t="n">
-        <v>-0.02116755908737389</v>
-      </c>
-    </row>
-    <row r="544">
-      <c r="A544" s="1" t="n">
-        <v>542</v>
-      </c>
-      <c r="B544" t="n">
-        <v>90.54416459533215</v>
-      </c>
-      <c r="C544" t="n">
-        <v>90.5788151192625</v>
-      </c>
-      <c r="D544" t="n">
-        <v>-0.03465052393035251</v>
-      </c>
-    </row>
-    <row r="545">
-      <c r="A545" s="1" t="n">
-        <v>543</v>
-      </c>
-      <c r="B545" t="n">
-        <v>90.54952795674193</v>
-      </c>
-      <c r="C545" t="n">
-        <v>90.57710720128451</v>
-      </c>
-      <c r="D545" t="n">
-        <v>-0.02757924454257932</v>
-      </c>
-    </row>
-    <row r="546">
-      <c r="A546" s="1" t="n">
-        <v>544</v>
-      </c>
-      <c r="B546" t="n">
-        <v>90.56296626880328</v>
-      </c>
-      <c r="C546" t="n">
-        <v>90.62142474381359</v>
-      </c>
-      <c r="D546" t="n">
-        <v>-0.05845847501031187</v>
-      </c>
-    </row>
-    <row r="547">
-      <c r="A547" s="1" t="n">
-        <v>545</v>
-      </c>
-      <c r="B547" t="n">
-        <v>90.79321127163733</v>
-      </c>
-      <c r="C547" t="n">
-        <v>90.56517496905029</v>
-      </c>
-      <c r="D547" t="n">
-        <v>0.2280363025870429</v>
-      </c>
-    </row>
-    <row r="548">
-      <c r="A548" s="1" t="n">
-        <v>546</v>
-      </c>
-      <c r="B548" t="n">
-        <v>93.7092997437439</v>
-      </c>
-      <c r="C548" t="n">
-        <v>93.76854486329333</v>
-      </c>
-      <c r="D548" t="n">
-        <v>-0.05924511954943057</v>
-      </c>
-    </row>
-    <row r="549">
-      <c r="A549" s="1" t="n">
-        <v>547</v>
-      </c>
-      <c r="B549" t="n">
-        <v>93.72493821159638</v>
-      </c>
-      <c r="C549" t="n">
-        <v>93.7963070561415</v>
-      </c>
-      <c r="D549" t="n">
-        <v>-0.07136884454511971</v>
-      </c>
-    </row>
-    <row r="550">
-      <c r="A550" s="1" t="n">
-        <v>548</v>
-      </c>
-      <c r="B550" t="n">
-        <v>93.72654653655874</v>
-      </c>
-      <c r="C550" t="n">
-        <v>93.82596943405485</v>
-      </c>
-      <c r="D550" t="n">
-        <v>-0.09942289749611177</v>
-      </c>
-    </row>
-    <row r="551">
-      <c r="A551" s="1" t="n">
-        <v>549</v>
-      </c>
-      <c r="B551" t="n">
-        <v>93.74516531122464</v>
-      </c>
-      <c r="C551" t="n">
-        <v>93.77516413600885</v>
-      </c>
-      <c r="D551" t="n">
-        <v>-0.02999882478421512</v>
-      </c>
-    </row>
-    <row r="552">
-      <c r="A552" s="1" t="n">
-        <v>550</v>
-      </c>
-      <c r="B552" t="n">
-        <v>93.82487808355347</v>
-      </c>
-      <c r="C552" t="n">
-        <v>93.88188498198915</v>
-      </c>
-      <c r="D552" t="n">
-        <v>-0.05700689843567375</v>
-      </c>
-    </row>
-    <row r="553">
-      <c r="A553" s="1" t="n">
-        <v>551</v>
-      </c>
-      <c r="B553" t="n">
-        <v>93.82934265102966</v>
-      </c>
-      <c r="C553" t="n">
-        <v>93.92720859981873</v>
-      </c>
-      <c r="D553" t="n">
-        <v>-0.09786594878906385</v>
-      </c>
-    </row>
-    <row r="554">
-      <c r="A554" s="1" t="n">
-        <v>552</v>
-      </c>
-      <c r="B554" t="n">
-        <v>93.83994001097362</v>
-      </c>
-      <c r="C554" t="n">
-        <v>93.86203802298812</v>
-      </c>
-      <c r="D554" t="n">
-        <v>-0.02209801201449579</v>
-      </c>
-    </row>
-    <row r="555">
-      <c r="A555" s="1" t="n">
-        <v>553</v>
-      </c>
-      <c r="B555" t="n">
-        <v>93.84054573438074</v>
-      </c>
-      <c r="C555" t="n">
-        <v>93.91372820962343</v>
-      </c>
-      <c r="D555" t="n">
-        <v>-0.07318247524268884</v>
-      </c>
-    </row>
-    <row r="556">
-      <c r="A556" s="1" t="n">
-        <v>554</v>
-      </c>
-      <c r="B556" t="n">
-        <v>93.86287273968108</v>
-      </c>
-      <c r="C556" t="n">
-        <v>93.92122835328719</v>
-      </c>
-      <c r="D556" t="n">
-        <v>-0.05835561360611052</v>
-      </c>
-    </row>
-    <row r="557">
-      <c r="A557" s="1" t="n">
-        <v>555</v>
-      </c>
-      <c r="B557" t="n">
-        <v>93.86497839173401</v>
-      </c>
-      <c r="C557" t="n">
-        <v>93.8934454298662</v>
-      </c>
-      <c r="D557" t="n">
-        <v>-0.02846703813219165</v>
-      </c>
-    </row>
-    <row r="558">
-      <c r="A558" s="1" t="n">
-        <v>556</v>
-      </c>
-      <c r="B558" t="n">
-        <v>93.88818766612614</v>
-      </c>
-      <c r="C558" t="n">
-        <v>93.89356316301659</v>
-      </c>
-      <c r="D558" t="n">
-        <v>-0.005375496890451359</v>
-      </c>
-    </row>
-    <row r="559">
-      <c r="A559" s="1" t="n">
-        <v>557</v>
-      </c>
-      <c r="B559" t="n">
-        <v>93.90072491975711</v>
-      </c>
-      <c r="C559" t="n">
-        <v>93.96184852997061</v>
-      </c>
-      <c r="D559" t="n">
-        <v>-0.06112361021349955</v>
-      </c>
-    </row>
-    <row r="560">
-      <c r="A560" s="1" t="n">
-        <v>558</v>
-      </c>
-      <c r="B560" t="n">
-        <v>93.9122307999326</v>
-      </c>
-      <c r="C560" t="n">
-        <v>94.06631193655133</v>
-      </c>
-      <c r="D560" t="n">
-        <v>-0.1540811366187285</v>
-      </c>
-    </row>
-    <row r="561">
-      <c r="A561" s="1" t="n">
-        <v>559</v>
-      </c>
-      <c r="B561" t="n">
-        <v>93.92493645117654</v>
-      </c>
-      <c r="C561" t="n">
-        <v>94.02439412050505</v>
-      </c>
-      <c r="D561" t="n">
-        <v>-0.09945766932851541</v>
-      </c>
-    </row>
-    <row r="562">
-      <c r="A562" s="1" t="n">
-        <v>560</v>
-      </c>
-      <c r="B562" t="n">
-        <v>93.95376987264122</v>
-      </c>
-      <c r="C562" t="n">
-        <v>94.00223880246027</v>
-      </c>
-      <c r="D562" t="n">
-        <v>-0.04846892981905171</v>
-      </c>
-    </row>
-    <row r="563">
-      <c r="A563" s="1" t="n">
-        <v>561</v>
-      </c>
-      <c r="B563" t="n">
-        <v>93.95915359844052</v>
-      </c>
-      <c r="C563" t="n">
-        <v>94.0148085025518</v>
-      </c>
-      <c r="D563" t="n">
-        <v>-0.05565490411127882</v>
-      </c>
-    </row>
-    <row r="564">
-      <c r="A564" s="1" t="n">
-        <v>562</v>
-      </c>
-      <c r="B564" t="n">
-        <v>94.03512921220369</v>
-      </c>
-      <c r="C564" t="n">
-        <v>94.07609455020228</v>
-      </c>
-      <c r="D564" t="n">
-        <v>-0.04096533799859969</v>
-      </c>
-    </row>
-    <row r="565">
-      <c r="A565" s="1" t="n">
-        <v>563</v>
-      </c>
-      <c r="B565" t="n">
-        <v>95.61526012401281</v>
-      </c>
-      <c r="C565" t="n">
-        <v>95.83225007578262</v>
-      </c>
-      <c r="D565" t="n">
-        <v>-0.2169899517698184</v>
-      </c>
-    </row>
-    <row r="566">
-      <c r="A566" s="1" t="n">
-        <v>564</v>
-      </c>
-      <c r="B566" t="n">
-        <v>95.64969915396095</v>
-      </c>
-      <c r="C566" t="n">
-        <v>95.74689887934477</v>
-      </c>
-      <c r="D566" t="n">
-        <v>-0.09719972538381683</v>
-      </c>
-    </row>
-    <row r="567">
-      <c r="A567" s="1" t="n">
-        <v>565</v>
-      </c>
-      <c r="B567" t="n">
-        <v>95.68361805870782</v>
-      </c>
-      <c r="C567" t="n">
-        <v>95.71474424265128</v>
-      </c>
-      <c r="D567" t="n">
-        <v>-0.03112618394345645</v>
-      </c>
-    </row>
-    <row r="568">
-      <c r="A568" s="1" t="n">
-        <v>566</v>
-      </c>
-      <c r="B568" t="n">
-        <v>95.70614307888435</v>
-      </c>
-      <c r="C568" t="n">
-        <v>95.73211952072091</v>
-      </c>
-      <c r="D568" t="n">
-        <v>-0.025976441836562</v>
-      </c>
-    </row>
-    <row r="569">
-      <c r="A569" s="1" t="n">
-        <v>567</v>
-      </c>
-      <c r="B569" t="n">
-        <v>95.8043303354155</v>
-      </c>
-      <c r="C569" t="n">
-        <v>95.8254233867207</v>
-      </c>
-      <c r="D569" t="n">
-        <v>-0.02109305130520056</v>
-      </c>
-    </row>
-    <row r="570">
-      <c r="A570" s="1" t="n">
-        <v>568</v>
-      </c>
-      <c r="B570" t="n">
-        <v>96.20612286340209</v>
-      </c>
-      <c r="C570" t="n">
-        <v>96.21867131892681</v>
-      </c>
-      <c r="D570" t="n">
-        <v>-0.01254845552472261</v>
-      </c>
-    </row>
-    <row r="571">
-      <c r="A571" s="1" t="n">
-        <v>569</v>
-      </c>
-      <c r="B571" t="n">
-        <v>96.219540922699</v>
-      </c>
-      <c r="C571" t="n">
-        <v>96.38875379585718</v>
-      </c>
-      <c r="D571" t="n">
-        <v>-0.1692128731581874</v>
-      </c>
-    </row>
-    <row r="572">
-      <c r="A572" s="1" t="n">
-        <v>570</v>
-      </c>
-      <c r="B572" t="n">
-        <v>96.22166844052448</v>
-      </c>
-      <c r="C572" t="n">
-        <v>96.369899436198</v>
-      </c>
-      <c r="D572" t="n">
-        <v>-0.1482309956735151</v>
-      </c>
-    </row>
-    <row r="573">
-      <c r="A573" s="1" t="n">
-        <v>571</v>
-      </c>
-      <c r="B573" t="n">
-        <v>96.23987054461611</v>
-      </c>
-      <c r="C573" t="n">
-        <v>96.35673057246541</v>
-      </c>
-      <c r="D573" t="n">
-        <v>-0.1168600278492988</v>
-      </c>
-    </row>
-    <row r="574">
-      <c r="A574" s="1" t="n">
-        <v>572</v>
-      </c>
-      <c r="B574" t="n">
-        <v>96.25530405810062</v>
-      </c>
-      <c r="C574" t="n">
-        <v>96.40035371401891</v>
-      </c>
-      <c r="D574" t="n">
-        <v>-0.1450496559182852</v>
-      </c>
-    </row>
-    <row r="575">
-      <c r="A575" s="1" t="n">
-        <v>573</v>
-      </c>
-      <c r="B575" t="n">
-        <v>96.26716650158365</v>
-      </c>
-      <c r="C575" t="n">
-        <v>96.29682466405971</v>
-      </c>
-      <c r="D575" t="n">
-        <v>-0.02965816247606767</v>
-      </c>
-    </row>
-    <row r="576">
-      <c r="A576" s="1" t="n">
-        <v>574</v>
-      </c>
-      <c r="B576" t="n">
-        <v>96.27266317842732</v>
-      </c>
-      <c r="C576" t="n">
-        <v>96.3099263468818</v>
-      </c>
-      <c r="D576" t="n">
-        <v>-0.03726316845447286</v>
-      </c>
-    </row>
-    <row r="577">
-      <c r="A577" s="1" t="n">
-        <v>575</v>
-      </c>
-      <c r="B577" t="n">
-        <v>96.27685806114592</v>
-      </c>
-      <c r="C577" t="n">
-        <v>96.33435521216052</v>
-      </c>
-      <c r="D577" t="n">
-        <v>-0.0574971510146014</v>
-      </c>
-    </row>
-    <row r="578">
-      <c r="A578" s="1" t="n">
-        <v>576</v>
-      </c>
-      <c r="B578" t="n">
-        <v>96.28473113593788</v>
-      </c>
-      <c r="C578" t="n">
-        <v>96.37085257422426</v>
-      </c>
-      <c r="D578" t="n">
-        <v>-0.08612143828638352</v>
-      </c>
-    </row>
-    <row r="579">
-      <c r="A579" s="1" t="n">
-        <v>577</v>
-      </c>
-      <c r="B579" t="n">
-        <v>96.32792155983979</v>
-      </c>
-      <c r="C579" t="n">
-        <v>96.44953015780051</v>
-      </c>
-      <c r="D579" t="n">
-        <v>-0.1216085979607158</v>
-      </c>
-    </row>
-    <row r="580">
-      <c r="A580" s="1" t="n">
-        <v>578</v>
-      </c>
-      <c r="B580" t="n">
-        <v>96.3394055515266</v>
-      </c>
-      <c r="C580" t="n">
-        <v>96.5105335272842</v>
-      </c>
-      <c r="D580" t="n">
-        <v>-0.1711279757575994</v>
-      </c>
-    </row>
-    <row r="581">
-      <c r="A581" s="1" t="n">
-        <v>579</v>
-      </c>
-      <c r="B581" t="n">
-        <v>96.34744172322938</v>
-      </c>
-      <c r="C581" t="n">
-        <v>96.42934115610159</v>
-      </c>
-      <c r="D581" t="n">
-        <v>-0.08189943287220558</v>
-      </c>
-    </row>
-    <row r="582">
-      <c r="A582" s="1" t="n">
-        <v>580</v>
-      </c>
-      <c r="B582" t="n">
-        <v>96.36018623118242</v>
-      </c>
-      <c r="C582" t="n">
-        <v>96.51384815437568</v>
-      </c>
-      <c r="D582" t="n">
-        <v>-0.1536619231932548</v>
-      </c>
-    </row>
-    <row r="583">
-      <c r="A583" s="1" t="n">
-        <v>581</v>
-      </c>
-      <c r="B583" t="n">
-        <v>96.3826476924783</v>
-      </c>
-      <c r="C583" t="n">
-        <v>96.41401946134447</v>
-      </c>
-      <c r="D583" t="n">
-        <v>-0.03137176886616544</v>
-      </c>
-    </row>
-    <row r="584">
-      <c r="A584" s="1" t="n">
-        <v>582</v>
-      </c>
-      <c r="B584" t="n">
-        <v>96.38939030154785</v>
-      </c>
-      <c r="C584" t="n">
-        <v>96.4044676133215</v>
-      </c>
-      <c r="D584" t="n">
-        <v>-0.01507731177365201</v>
-      </c>
-    </row>
-    <row r="585">
-      <c r="A585" s="1" t="n">
-        <v>583</v>
-      </c>
-      <c r="B585" t="n">
-        <v>96.399082554312</v>
-      </c>
-      <c r="C585" t="n">
-        <v>96.40017762125277</v>
-      </c>
-      <c r="D585" t="n">
-        <v>-0.001095066940763445</v>
-      </c>
-    </row>
-    <row r="586">
-      <c r="A586" s="1" t="n">
-        <v>584</v>
-      </c>
-      <c r="B586" t="n">
-        <v>96.40778240781815</v>
-      </c>
-      <c r="C586" t="n">
-        <v>96.47599362201881</v>
-      </c>
-      <c r="D586" t="n">
-        <v>-0.06821121420065879</v>
-      </c>
-    </row>
-    <row r="587">
-      <c r="A587" s="1" t="n">
-        <v>585</v>
-      </c>
-      <c r="B587" t="n">
-        <v>96.42933080770702</v>
-      </c>
-      <c r="C587" t="n">
-        <v>96.39323115075241</v>
-      </c>
-      <c r="D587" t="n">
-        <v>0.0360996569546046</v>
-      </c>
-    </row>
-    <row r="588">
-      <c r="A588" s="1" t="n">
-        <v>586</v>
-      </c>
-      <c r="B588" t="n">
-        <v>96.45863925585027</v>
-      </c>
-      <c r="C588" t="n">
-        <v>96.49194894006349</v>
-      </c>
-      <c r="D588" t="n">
-        <v>-0.03330968421322211</v>
-      </c>
-    </row>
-    <row r="589">
-      <c r="A589" s="1" t="n">
-        <v>587</v>
-      </c>
-      <c r="B589" t="n">
-        <v>96.46379318540427</v>
-      </c>
-      <c r="C589" t="n">
-        <v>96.47910080268576</v>
-      </c>
-      <c r="D589" t="n">
-        <v>-0.01530761728149344</v>
-      </c>
-    </row>
-    <row r="590">
-      <c r="A590" s="1" t="n">
-        <v>588</v>
-      </c>
-      <c r="B590" t="n">
-        <v>97.96278192360232</v>
-      </c>
-      <c r="C590" t="n">
-        <v>98.12022303242571</v>
-      </c>
-      <c r="D590" t="n">
-        <v>-0.1574411088233916</v>
-      </c>
-    </row>
-    <row r="591">
-      <c r="A591" s="1" t="n">
-        <v>589</v>
-      </c>
-      <c r="B591" t="n">
-        <v>97.98065932280902</v>
-      </c>
-      <c r="C591" t="n">
-        <v>98.16991896826651</v>
-      </c>
-      <c r="D591" t="n">
-        <v>-0.1892596454574971</v>
-      </c>
-    </row>
-    <row r="592">
-      <c r="A592" s="1" t="n">
-        <v>590</v>
-      </c>
-      <c r="B592" t="n">
-        <v>98.00093635808746</v>
-      </c>
-      <c r="C592" t="n">
-        <v>98.00165321373353</v>
-      </c>
-      <c r="D592" t="n">
-        <v>-0.0007168556460754871</v>
-      </c>
-    </row>
-    <row r="593">
-      <c r="A593" s="1" t="n">
-        <v>591</v>
-      </c>
-      <c r="B593" t="n">
-        <v>98.0455858550558</v>
-      </c>
-      <c r="C593" t="n">
-        <v>98.08306640874713</v>
-      </c>
-      <c r="D593" t="n">
-        <v>-0.0374805536913243</v>
-      </c>
-    </row>
-    <row r="594">
-      <c r="A594" s="1" t="n">
-        <v>592</v>
-      </c>
-      <c r="B594" t="n">
-        <v>98.05372344571936</v>
-      </c>
-      <c r="C594" t="n">
-        <v>98.07822285515533</v>
-      </c>
-      <c r="D594" t="n">
-        <v>-0.02449940943597539</v>
-      </c>
-    </row>
-    <row r="595">
-      <c r="A595" s="1" t="n">
-        <v>593</v>
-      </c>
-      <c r="B595" t="n">
-        <v>98.07670725300655</v>
-      </c>
-      <c r="C595" t="n">
-        <v>98.08175967828547</v>
-      </c>
-      <c r="D595" t="n">
-        <v>-0.005052425278918804</v>
-      </c>
-    </row>
-    <row r="596">
-      <c r="A596" s="1" t="n">
-        <v>594</v>
-      </c>
-      <c r="B596" t="n">
-        <v>98.10268378641014</v>
-      </c>
-      <c r="C596" t="n">
-        <v>98.14187475731939</v>
-      </c>
-      <c r="D596" t="n">
-        <v>-0.03919097090924595</v>
-      </c>
-    </row>
-    <row r="597">
-      <c r="A597" s="1" t="n">
-        <v>595</v>
-      </c>
-      <c r="B597" t="n">
-        <v>98.10820207106738</v>
-      </c>
-      <c r="C597" t="n">
-        <v>98.14111365472522</v>
-      </c>
-      <c r="D597" t="n">
-        <v>-0.03291158365783531</v>
-      </c>
-    </row>
-    <row r="598">
-      <c r="A598" s="1" t="n">
-        <v>596</v>
-      </c>
-      <c r="B598" t="n">
-        <v>99.84854095249402</v>
-      </c>
-      <c r="C598" t="n">
-        <v>100.030789635459</v>
-      </c>
-      <c r="D598" t="n">
-        <v>-0.1822486829650245</v>
-      </c>
-    </row>
-    <row r="599">
-      <c r="A599" s="1" t="n">
-        <v>597</v>
-      </c>
-      <c r="B599" t="n">
-        <v>99.89076625661228</v>
-      </c>
-      <c r="C599" t="n">
-        <v>99.9669408155965</v>
-      </c>
-      <c r="D599" t="n">
-        <v>-0.07617455898422065</v>
-      </c>
-    </row>
-    <row r="600">
-      <c r="A600" s="1" t="n">
-        <v>598</v>
-      </c>
-      <c r="B600" t="n">
-        <v>99.90466856554967</v>
-      </c>
-      <c r="C600" t="n">
-        <v>99.98015400911177</v>
-      </c>
-      <c r="D600" t="n">
-        <v>-0.0754854435621013</v>
-      </c>
-    </row>
-    <row r="601">
-      <c r="A601" s="1" t="n">
-        <v>599</v>
-      </c>
-      <c r="B601" t="n">
-        <v>99.94672899469788</v>
-      </c>
-      <c r="C601" t="n">
-        <v>100.0502192979717</v>
-      </c>
-      <c r="D601" t="n">
-        <v>-0.1034903032738015</v>
-      </c>
-    </row>
-    <row r="602">
-      <c r="A602" s="1" t="n">
-        <v>600</v>
-      </c>
-      <c r="B602" t="n">
-        <v>99.95497770525851</v>
-      </c>
-      <c r="C602" t="n">
-        <v>100.0442875085993</v>
-      </c>
-      <c r="D602" t="n">
-        <v>-0.08930980334078242</v>
-      </c>
-    </row>
-    <row r="603">
-      <c r="A603" s="1" t="n">
-        <v>601</v>
-      </c>
-      <c r="B603" t="n">
-        <v>99.95945229961769</v>
-      </c>
-      <c r="C603" t="n">
-        <v>100.0666645344296</v>
-      </c>
-      <c r="D603" t="n">
-        <v>-0.1072122348119109</v>
-      </c>
-    </row>
-    <row r="604">
-      <c r="A604" s="1" t="n">
-        <v>602</v>
-      </c>
-      <c r="B604" t="n">
-        <v>99.98453124346806</v>
-      </c>
-      <c r="C604" t="n">
-        <v>100.0419542274034</v>
-      </c>
-      <c r="D604" t="n">
-        <v>-0.05742298393533929</v>
-      </c>
-    </row>
-    <row r="605">
-      <c r="A605" s="1" t="n">
-        <v>603</v>
-      </c>
-      <c r="B605" t="n">
-        <v>99.9849702617511</v>
-      </c>
-      <c r="C605" t="n">
-        <v>100.014844034336</v>
-      </c>
-      <c r="D605" t="n">
-        <v>-0.02987377258490653</v>
+        <v>-0.04322335519407261</v>
       </c>
     </row>
   </sheetData>
